--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_390.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_390.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33250-d82571-Reviews-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>105</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Holiday-Inn-West-Covina.h7585.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_390.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_390.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1357 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r585227494-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>33250</t>
+  </si>
+  <si>
+    <t>82571</t>
+  </si>
+  <si>
+    <t>585227494</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent </t>
+  </si>
+  <si>
+    <t>Hotel is well maintained. Has a Chinese restaurant with breakfast buffet. Free parking. Close to freeway. It can get a little noisey but you won't really notice if you sleep with the AC or tv on. Naomi checked me in at the front desk and was very friendly, welcoming, and professional. She recognized my IHG rewards club platinum elite status and was able to accommodate my request. The executive bedroom is basically a junior suite. It was roomy and spacious, had a sofa bed and king bed with mini fridge and big flat screen TV on the top floor. Furniture in here was in good condition, nothing beat up or worn. Thanks Naomi for taking care of me during this stay. -DustinMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Hotel is well maintained. Has a Chinese restaurant with breakfast buffet. Free parking. Close to freeway. It can get a little noisey but you won't really notice if you sleep with the AC or tv on. Naomi checked me in at the front desk and was very friendly, welcoming, and professional. She recognized my IHG rewards club platinum elite status and was able to accommodate my request. The executive bedroom is basically a junior suite. It was roomy and spacious, had a sofa bed and king bed with mini fridge and big flat screen TV on the top floor. Furniture in here was in good condition, nothing beat up or worn. Thanks Naomi for taking care of me during this stay. -DustinMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r582856867-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>582856867</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Not too far to LA and the airport. Good value for money. Reasonable breakfast for 12.99. Two large beds (very comfortably); large rooms. Rooms facing highway might be little noisy. Friendly staff at reception MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded May 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2018</t>
+  </si>
+  <si>
+    <t>Not too far to LA and the airport. Good value for money. Reasonable breakfast for 12.99. Two large beds (very comfortably); large rooms. Rooms facing highway might be little noisy. Friendly staff at reception More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r582827462-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>582827462</t>
+  </si>
+  <si>
+    <t>Friendly staff, nice stay!</t>
+  </si>
+  <si>
+    <t>We had a nice stay at this spot- parking was easy, check-in smooth. Our check-in staff member, Jordan, was friendly and welcoming! Our room looked recently updated and our kiddos liked the products coconut lime :) -reminded us of the tropics. Room had everything we needed. We will consider staying again next time we are in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a nice stay at this spot- parking was easy, check-in smooth. Our check-in staff member, Jordan, was friendly and welcoming! Our room looked recently updated and our kiddos liked the products coconut lime :) -reminded us of the tropics. Room had everything we needed. We will consider staying again next time we are in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r545782315-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>545782315</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very convenient </t>
+  </si>
+  <si>
+    <t>The hotel is great for business travelers, well located close to malls, market and restaurants. The staff makes the difference, thanks for the ladies at front desk for the great support during my staying. Breakfast is common US style, clean and affordable. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is great for business travelers, well located close to malls, market and restaurants. The staff makes the difference, thanks for the ladies at front desk for the great support during my staying. Breakfast is common US style, clean and affordable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r542453528-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>542453528</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Two night stay in November</t>
+  </si>
+  <si>
+    <t>My rating would be average. The hotel is very busy, a lot of people but not noisy. Rooms were big but could use some deep cleaning. Mattresses were old but I slept well. I received a great rate on my room and would stay again if the price was right. Francine at the front desk was very nice and gracious, she made check in easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>My rating would be average. The hotel is very busy, a lot of people but not noisy. Rooms were big but could use some deep cleaning. Mattresses were old but I slept well. I received a great rate on my room and would stay again if the price was right. Francine at the front desk was very nice and gracious, she made check in easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r539786335-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>539786335</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Delivers a solid room at a fair price.  Nice outdoor seating and pool deck.  Updated.  Friendly staff.  Efficient check-in. No significant complaints.   Very minor isue but noticed - 1st floor hallway carpeting starting to show signs of wear and separating at seams.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Delivers a solid room at a fair price.  Nice outdoor seating and pool deck.  Updated.  Friendly staff.  Efficient check-in. No significant complaints.   Very minor isue but noticed - 1st floor hallway carpeting starting to show signs of wear and separating at seams.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r530914054-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>530914054</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Close to the highway, close to the main roads in Covina, close to big shops and good restaurants in a nice neighborhood. Spacious and clean room. Bathroom is clean but the shower curtain could be a different, the water drips from the bottom making the bathroom floor all wet. Friendly staff. Breakfast is decent, staff is constantly replacing the food, so it is fresh. Spacious dinning area and easy parking.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r529197469-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>529197469</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Good business stop</t>
+  </si>
+  <si>
+    <t>This was a better than average property with a nice cozy restaurant and bar. I was pleasantly surprised at the atmosphere, and the privacy in the bar lent itself to a productive business discussion. I'll be back.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r526648565-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>526648565</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>A nice surprise for an overnight stay.  Prior to flying to LA we knew we would be checking in late so I called the hotel a few days before to confirm that this would not be a problem and the person who answered the phone was extremely helpful.  She was able to tell me the hotel's policy as well as advise me that she put a note in our reservation and then prior to hanging up even wished me a safe flight.  We arrived at the hotel and checked in around 10:30 pm and the front desk staff was welcoming and eager to accommodate us.  The hotel is conveniently located right off the highway next to another hotel and shopping/dining area.  The hotel and our room was very clean and quite; I would stay at this property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>A nice surprise for an overnight stay.  Prior to flying to LA we knew we would be checking in late so I called the hotel a few days before to confirm that this would not be a problem and the person who answered the phone was extremely helpful.  She was able to tell me the hotel's policy as well as advise me that she put a note in our reservation and then prior to hanging up even wished me a safe flight.  We arrived at the hotel and checked in around 10:30 pm and the front desk staff was welcoming and eager to accommodate us.  The hotel is conveniently located right off the highway next to another hotel and shopping/dining area.  The hotel and our room was very clean and quite; I would stay at this property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r515699806-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>515699806</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good for short visit </t>
+  </si>
+  <si>
+    <t>This was my first visit to a Holiday Inn. It met my simple expectations for a one night stay. The check in was quick &amp; easy, staff is friendly, room was clean and bed was comfortable bed. I also liked that there was a microwave and mini fridge available. We stayed on the highest floor (level 5) facing the neighboring hotel. Didn't notice any freeway noise, but we heard some loud guests that were yelling in the parking lot. The walls seem to insulate most noise it didn't shield any noise from foot traffic in the hallway. It's a comfortable set up for 1-2 people but the bathroom is extremely small. Only enough room for 1 person to stand in the bathroom at a time.Huge plus is that it's right off the 10 freeway next to a breadth of shopping and food options that are a walkable distance. It was a convenient option and I will consider coming back if I need a play to stay in this area. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>This was my first visit to a Holiday Inn. It met my simple expectations for a one night stay. The check in was quick &amp; easy, staff is friendly, room was clean and bed was comfortable bed. I also liked that there was a microwave and mini fridge available. We stayed on the highest floor (level 5) facing the neighboring hotel. Didn't notice any freeway noise, but we heard some loud guests that were yelling in the parking lot. The walls seem to insulate most noise it didn't shield any noise from foot traffic in the hallway. It's a comfortable set up for 1-2 people but the bathroom is extremely small. Only enough room for 1 person to stand in the bathroom at a time.Huge plus is that it's right off the 10 freeway next to a breadth of shopping and food options that are a walkable distance. It was a convenient option and I will consider coming back if I need a play to stay in this area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r514077909-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>514077909</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>A low rate Holiday Inn</t>
+  </si>
+  <si>
+    <t>This hotel is in the lower range of Holiday Inn Express. While it is reasonably clean, it has several flaws. First of all, an ominous sign in the parking lot warning that the materials used for the hotel can cause serious diseases, I didn't understand why that sign would be there and the hotel remain open. Second, the air conditioning in the room is really bad. When we arrived it was off and the room really warm, after maintenance came to fix it, we discovered it could only be constantly on at full blast, or on and off, but always at full blast. Lastly, the hotel is literally on the highway, it would be noisy, if we could hear the cars over the sound of our air conditioning at full blast. There's plenty of other brand hotels around, go there instead. MoreShow less</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is in the lower range of Holiday Inn Express. While it is reasonably clean, it has several flaws. First of all, an ominous sign in the parking lot warning that the materials used for the hotel can cause serious diseases, I didn't understand why that sign would be there and the hotel remain open. Second, the air conditioning in the room is really bad. When we arrived it was off and the room really warm, after maintenance came to fix it, we discovered it could only be constantly on at full blast, or on and off, but always at full blast. Lastly, the hotel is literally on the highway, it would be noisy, if we could hear the cars over the sound of our air conditioning at full blast. There's plenty of other brand hotels around, go there instead. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r509506539-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>509506539</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>I had an early meeting in Pomona, so I flew in the night before and needed a place to stay.  Honestly, I didn't do much besides sleep, but the hotel staff was very helpful and friendly, the room was good sized and comfortable, and the hotel is in a good location.  There are a lot of places to eat and shop nearby, and the hotel is right off the freeway and very easy to access.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>I had an early meeting in Pomona, so I flew in the night before and needed a place to stay.  Honestly, I didn't do much besides sleep, but the hotel staff was very helpful and friendly, the room was good sized and comfortable, and the hotel is in a good location.  There are a lot of places to eat and shop nearby, and the hotel is right off the freeway and very easy to access.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r506936856-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>506936856</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Excellent all round.</t>
+  </si>
+  <si>
+    <t>Good location.I paid with IHG points so cannot really comment on the price.The breakfast was good.Free parking was good.Very safe locationStaff were excellent and helpful providing very good adviceand some cost saving tips,Well recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Manager at Holiday Inn West Covina, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Good location.I paid with IHG points so cannot really comment on the price.The breakfast was good.Free parking was good.Very safe locationStaff were excellent and helpful providing very good adviceand some cost saving tips,Well recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r492871971-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>492871971</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>It was right on the 10, makes for easy access to head into downtown LA, or Orange County. This was such a great stay, the room was super clean, it was a newer hotel, a restaurant in the building for easy access, and the most handsome blonde overnight boy at the front desk I've ever seen (J)! The staff was very kind, friendly, and welcoming. I would recommend staying here a thousand times over. There are several restaurants within walking distance, Hooters, Marie Calendars, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>It was right on the 10, makes for easy access to head into downtown LA, or Orange County. This was such a great stay, the room was super clean, it was a newer hotel, a restaurant in the building for easy access, and the most handsome blonde overnight boy at the front desk I've ever seen (J)! The staff was very kind, friendly, and welcoming. I would recommend staying here a thousand times over. There are several restaurants within walking distance, Hooters, Marie Calendars, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r488345344-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>488345344</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Great stay for the price</t>
+  </si>
+  <si>
+    <t>I booked this room on a discount website for under $100.  For that price it was excellent. Very clean, super friendly hotel staff, decent pool but no hot tub, and comfortable beds.  The rooms are modern and business friendly. Also there is good shower pressure. Free WiFi and Cable TV with HBO channels but no Showtime or Pay per View.  Fridge, microwave and Keurig coffee maker in the room was nice as well. If you forget any essentials like toothbrush, toothpaste, razor etc. you can just call the front desk and they will bring you complimentary ones.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>I booked this room on a discount website for under $100.  For that price it was excellent. Very clean, super friendly hotel staff, decent pool but no hot tub, and comfortable beds.  The rooms are modern and business friendly. Also there is good shower pressure. Free WiFi and Cable TV with HBO channels but no Showtime or Pay per View.  Fridge, microwave and Keurig coffee maker in the room was nice as well. If you forget any essentials like toothbrush, toothpaste, razor etc. you can just call the front desk and they will bring you complimentary ones.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r470614789-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>470614789</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>Wonderful hotel. Great location with lots of shopping and dining options within walking distance. Staff took excellent care in preparing for our large group. They paid great attention to all, even minor details. We will definitely come backMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Wonderful hotel. Great location with lots of shopping and dining options within walking distance. Staff took excellent care in preparing for our large group. They paid great attention to all, even minor details. We will definitely come backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r459018688-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>459018688</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Excellent Staff</t>
+  </si>
+  <si>
+    <t>We have now stayed twice at the Holiday Inn in West Covina. The hotel is clean, housekeeping is excellent and the front desk staff superb. No request is too small for them to address. Really nice people! Would certainly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>We have now stayed twice at the Holiday Inn in West Covina. The hotel is clean, housekeeping is excellent and the front desk staff superb. No request is too small for them to address. Really nice people! Would certainly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r458171009-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>458171009</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Great Location! Terrific Staff!</t>
+  </si>
+  <si>
+    <t>This hotel is off the I-10 Freeway, but the traffic was not an issue. Checked in on Sunday afternoon and was warmly greeted as a Rewards member by the front desk staff. Rooms were very clean. Bathroom was clean but very small. Beds were comfortable.  Doors were secure. Good parking. On-site Dahlia Restaurant offers Asian and American Cuisine however, it is a bit pricey. Fortunately, it was Super Bowl Sunday so they had an All You Can Eat Nachos Bar (choice of toppings, cheese, beef, chicken, guacamole, salsa) for $8.99 and a 14" pizza for $10. Drinks are $2 off. The food was very good.  Dining staff and bartender were very cordial, polite and attentive. There are also nearby restaurants. They do not provide complimentary breakfast, but serve breakfast in the restaurant for a cost.  All in all, a very good stay. I will not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is off the I-10 Freeway, but the traffic was not an issue. Checked in on Sunday afternoon and was warmly greeted as a Rewards member by the front desk staff. Rooms were very clean. Bathroom was clean but very small. Beds were comfortable.  Doors were secure. Good parking. On-site Dahlia Restaurant offers Asian and American Cuisine however, it is a bit pricey. Fortunately, it was Super Bowl Sunday so they had an All You Can Eat Nachos Bar (choice of toppings, cheese, beef, chicken, guacamole, salsa) for $8.99 and a 14" pizza for $10. Drinks are $2 off. The food was very good.  Dining staff and bartender were very cordial, polite and attentive. There are also nearby restaurants. They do not provide complimentary breakfast, but serve breakfast in the restaurant for a cost.  All in all, a very good stay. I will not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r453131646-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>453131646</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>James Saved My Bacon</t>
+  </si>
+  <si>
+    <t>James, the Director of Marketing, saved my bacon yesterday (Jan. 17th, 2017). He didn't literally save bacon for me, but I'm sure he would have if he knew how much I liked bacon.Yesterday a hotel just to the east of him completely failed me, but James and Holiday Inn stepped up and hosted my event. Everything literally unfolded the day of the event. My previous venue cancelled on me basically canceled on me the day of the event. James stepped up, honored the contract for the other venue, and made everything happen. He had signs, tables, a screen .... it was like we had set up the event with him back in November.James, I can't thank you and your staff enough!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded January 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2017</t>
+  </si>
+  <si>
+    <t>James, the Director of Marketing, saved my bacon yesterday (Jan. 17th, 2017). He didn't literally save bacon for me, but I'm sure he would have if he knew how much I liked bacon.Yesterday a hotel just to the east of him completely failed me, but James and Holiday Inn stepped up and hosted my event. Everything literally unfolded the day of the event. My previous venue cancelled on me basically canceled on me the day of the event. James stepped up, honored the contract for the other venue, and made everything happen. He had signs, tables, a screen .... it was like we had set up the event with him back in November.James, I can't thank you and your staff enough!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r452629222-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>452629222</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another great stay </t>
+  </si>
+  <si>
+    <t>Stayed for a night during out holidays and it was another great stay. Room was great, very clean. Comfy beds as always. Enjoyed the outdoor heated pool. Wish there was a hot tub though. We paid for breakfast buffet and it was ok. I prefer a reg holiday inn breakfast. I found a lot of the food al tasted the same. MoreShow less</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Stayed for a night during out holidays and it was another great stay. Room was great, very clean. Comfy beds as always. Enjoyed the outdoor heated pool. Wish there was a hot tub though. We paid for breakfast buffet and it was ok. I prefer a reg holiday inn breakfast. I found a lot of the food al tasted the same. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r452512634-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>452512634</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>I travel to Southern California twice a year and most times than not, stay at a Holiday Inn.  This was my first stay at this property and was pleased to find this hotel was newly built.  Staff were great and it was conveniently located to a few restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>I travel to Southern California twice a year and most times than not, stay at a Holiday Inn.  This was my first stay at this property and was pleased to find this hotel was newly built.  Staff were great and it was conveniently located to a few restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r437232743-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>437232743</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Super duper</t>
+  </si>
+  <si>
+    <t>We were so impressed with the friendliness and ease of check in. Our room was immaculate and immense we were greatly impressed and surprised. We have no complaints and will recommend the Holiday Inn to our friends.  Kudos to the H.I. In West Covina.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2017</t>
+  </si>
+  <si>
+    <t>We were so impressed with the friendliness and ease of check in. Our room was immaculate and immense we were greatly impressed and surprised. We have no complaints and will recommend the Holiday Inn to our friends.  Kudos to the H.I. In West Covina.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r429791866-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>429791866</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Wonderful staff and comfortable rooms</t>
+  </si>
+  <si>
+    <t>We were in California for a family wedding and had a wonderful stay at this hotel.  The staff was incredible.  Ivan, the manager, made sure our room fit the preferences that I had set and the room was clean and comfortable.  The breakfast in the morning was a perfect way to start our day.  We had a great stay and would definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>We were in California for a family wedding and had a wonderful stay at this hotel.  The staff was incredible.  Ivan, the manager, made sure our room fit the preferences that I had set and the room was clean and comfortable.  The breakfast in the morning was a perfect way to start our day.  We had a great stay and would definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r425430670-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>425430670</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Military?  Stay here!</t>
+  </si>
+  <si>
+    <t>We checked in to the Holiday Inn, West Covina on September 26th and checked out on October the 3rd.  Excellent time!  We even had the opportunity to attend a class reunion reception hosted by the Holiday Inn.  Naturally, appetizers were complimentary, and excellent.  Booze, however, was no host.  Go figure.It's embarrassing to tell people you're handicapped and need "special needs rooms".  The only, and serious . . . the only, complaint I have about the Inn is that our room was at the end of a hallway, next to the stairs.  With that, the room was smaller.  If I were at the desk, my wife was not able to get by.  Nor if she was at the desk, I could not get by.  The extra room required by the stairwell took up quite a bit of space.  And staying there a week, makes a happy couple more like caged animals.  The Staff is exceptionally friendly.  From the house keepers to the front desk clerks (?), everyone was happy and friendly.  That's most likely why the place is so nice.  It's also the reason The Better Half and I are spending the week at another Holiday Inn in Sacramento, California.  If this place is half as nice as the Holiday Inn in West Covina, we've got it made.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded October 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2016</t>
+  </si>
+  <si>
+    <t>We checked in to the Holiday Inn, West Covina on September 26th and checked out on October the 3rd.  Excellent time!  We even had the opportunity to attend a class reunion reception hosted by the Holiday Inn.  Naturally, appetizers were complimentary, and excellent.  Booze, however, was no host.  Go figure.It's embarrassing to tell people you're handicapped and need "special needs rooms".  The only, and serious . . . the only, complaint I have about the Inn is that our room was at the end of a hallway, next to the stairs.  With that, the room was smaller.  If I were at the desk, my wife was not able to get by.  Nor if she was at the desk, I could not get by.  The extra room required by the stairwell took up quite a bit of space.  And staying there a week, makes a happy couple more like caged animals.  The Staff is exceptionally friendly.  From the house keepers to the front desk clerks (?), everyone was happy and friendly.  That's most likely why the place is so nice.  It's also the reason The Better Half and I are spending the week at another Holiday Inn in Sacramento, California.  If this place is half as nice as the Holiday Inn in West Covina, we've got it made.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r416305739-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>416305739</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Staff!</t>
+  </si>
+  <si>
+    <t>We stayed here while organizing my Father-in-Law's funeral and memorial service. The staff was quite friendly and ready to help us in any way possible. The location is right on the Freeway frontage road, so it made it easy to get in and out when we had to. The room was great and we also took advantage of the pool when there was a lull in the activity.It may not be the Ritz, but I would definitely go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded September 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here while organizing my Father-in-Law's funeral and memorial service. The staff was quite friendly and ready to help us in any way possible. The location is right on the Freeway frontage road, so it made it easy to get in and out when we had to. The room was great and we also took advantage of the pool when there was a lull in the activity.It may not be the Ritz, but I would definitely go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r401061819-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>401061819</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>One night</t>
+  </si>
+  <si>
+    <t>We stayed here for one night and not to impressed. When I travel we always rent holiday inn hotels for the free breakfast and wifi. This holiday inn does not offer free breakfast even tho it states that when you rent the hotel online. The room was okay and the location was okay too.. Just beware of the breakfast issue make sure you get one during check in.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn West Covina, responded to this reviewResponded August 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for one night and not to impressed. When I travel we always rent holiday inn hotels for the free breakfast and wifi. This holiday inn does not offer free breakfast even tho it states that when you rent the hotel online. The room was okay and the location was okay too.. Just beware of the breakfast issue make sure you get one during check in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r398883171-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>398883171</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>This hotel was an Oasis in a desert of overly priced hotels and dirty boutique hotels which litter LA and the surrounding areas.The front desk clerk was very professional and thorough.  He could teach some of the St Regis clerks a few lessons on customer service but I digress.Room was very clean as expected.  Bed was semi comfortable but hey its the Holiday Inn express.  Buffet breakfast was decentI guess when I woke up I felt extremely smart after spending my money and staying there.  Cheers!!4 out of 5 starsMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>This hotel was an Oasis in a desert of overly priced hotels and dirty boutique hotels which litter LA and the surrounding areas.The front desk clerk was very professional and thorough.  He could teach some of the St Regis clerks a few lessons on customer service but I digress.Room was very clean as expected.  Bed was semi comfortable but hey its the Holiday Inn express.  Buffet breakfast was decentI guess when I woke up I felt extremely smart after spending my money and staying there.  Cheers!!4 out of 5 starsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r392635133-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>392635133</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my family while visiting with some family members in West Covina. This hotel is superb! It's clean, and the employees are so nice and make sure your needs are met as soon as possible. The price was more than reasonable, especially since I found it on TripAdvisor :) Also, we thoroughly enjoyed the free coffee in the morning! Would definitely book here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my family while visiting with some family members in West Covina. This hotel is superb! It's clean, and the employees are so nice and make sure your needs are met as soon as possible. The price was more than reasonable, especially since I found it on TripAdvisor :) Also, we thoroughly enjoyed the free coffee in the morning! Would definitely book here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r389254337-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>389254337</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome service </t>
+  </si>
+  <si>
+    <t>Jasmine at the front desk was most helpful and informative. After a long day she made checking in to a room easy and fast and i was very delighted with the service and im looking forward to returning soon.  Thank you for yoir hospitality MoreShow less</t>
+  </si>
+  <si>
+    <t>Jasmine at the front desk was most helpful and informative. After a long day she made checking in to a room easy and fast and i was very delighted with the service and im looking forward to returning soon.  Thank you for yoir hospitality More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r389093871-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>389093871</t>
+  </si>
+  <si>
+    <t>Nice clean location and value</t>
+  </si>
+  <si>
+    <t>Spent four nights here.  Found the staff to be very friendly and helpful.  Rooms were clean and the grounds were clean.  The cost of the rooms was as good as I could find in the area. It is close to restaurants.  I would not recommend it if you are in town for events along the beach or in L.A. because of the traffic in L.A.  For me it was convenient since I had to go both directions for events.  I only have good things to say about this place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r377383846-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>377383846</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Horrible customer Service</t>
+  </si>
+  <si>
+    <t>Reserved 3 double rooms for several days of course at check in there were no doubles available, hotel refused to make accommodations of any sort. So we had 6 people and 3 beds and no apology. They blamed me for their mistake. GO ELSEWHERE!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn West Covina, responded to this reviewResponded June 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2016</t>
+  </si>
+  <si>
+    <t>Reserved 3 double rooms for several days of course at check in there were no doubles available, hotel refused to make accommodations of any sort. So we had 6 people and 3 beds and no apology. They blamed me for their mistake. GO ELSEWHERE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r375279475-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>375279475</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Pricey</t>
+  </si>
+  <si>
+    <t>When I stayed in January had trouble with the heating and a/c in the room. The thermostat didn't work so it had to be operated manually. WiFi connection never did work. Therefore I felt it is rather pricey for the lack.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn West Covina, responded to this reviewResponded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>When I stayed in January had trouble with the heating and a/c in the room. The thermostat didn't work so it had to be operated manually. WiFi connection never did work. Therefore I felt it is rather pricey for the lack.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r371168600-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>371168600</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Comfort and Great staff</t>
+  </si>
+  <si>
+    <t>The hotel staff was excellent, especially Ivan and Naomi. They really made us feel welcome. The room was clean. The bed was super comfortable. The restaurant was a bit pricey, but the food was delicious and the service there was very nice and pleasant. The drinks at the bar were way overpriced and tasted lousy. The bartender was very unfriendly and inattentive. We will stay at this hotel in the future, but not even try the bar.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r366386089-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>366386089</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>A good hotel</t>
+  </si>
+  <si>
+    <t>I booked a double queen bed room on the top floor back on March 24. Upon checking in I was greeted by Ruth who was very friendly and professional. My status as a Platinum Elite IHG rewards club member was well recognized by her. 
+Room
+Upon entering my assigned room on the top floor I noticed some of the furniture like the desk and cocktail table where the coffemaker was placed was probably due for replacement. It was scuffed up from wear and tear. The air conditioning was a little bit more noisy than it should have been for a window unit but it didn't affect my sleep. My room also faced the freeway but the room had adequate sound insulation and I couldn't hear any freeway noises with the AC on. Besides that, the overall room was clean and after an hour later Ivan from front desk called to see how everything was. 
+Breakfast
+Breakfast is held at the Asian Fusion restaurant located besides the lobby. It usually costs ~$15 a person. It offered a decent selection of fresh hot and cold food. I was pleasantly surprised to see a couple asian breakfast items like Soy milk, rice congee, asian toast, green onion pancakes, and chinese donuts for soymilk. The staff at the restaurant were also really attentive. The area for improvement though was that the food at the breakfast buffet could be hotter, most of the hot dishes...I booked a double queen bed room on the top floor back on March 24. Upon checking in I was greeted by Ruth who was very friendly and professional. My status as a Platinum Elite IHG rewards club member was well recognized by her. RoomUpon entering my assigned room on the top floor I noticed some of the furniture like the desk and cocktail table where the coffemaker was placed was probably due for replacement. It was scuffed up from wear and tear. The air conditioning was a little bit more noisy than it should have been for a window unit but it didn't affect my sleep. My room also faced the freeway but the room had adequate sound insulation and I couldn't hear any freeway noises with the AC on. Besides that, the overall room was clean and after an hour later Ivan from front desk called to see how everything was. BreakfastBreakfast is held at the Asian Fusion restaurant located besides the lobby. It usually costs ~$15 a person. It offered a decent selection of fresh hot and cold food. I was pleasantly surprised to see a couple asian breakfast items like Soy milk, rice congee, asian toast, green onion pancakes, and chinese donuts for soymilk. The staff at the restaurant were also really attentive. The area for improvement though was that the food at the breakfast buffet could be hotter, most of the hot dishes on the buffet line were luke warmish. Overall, I would stay here again. The property is well-kept, the staff are well trained and are very polite, courteous, and attentive.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I booked a double queen bed room on the top floor back on March 24. Upon checking in I was greeted by Ruth who was very friendly and professional. My status as a Platinum Elite IHG rewards club member was well recognized by her. 
+Room
+Upon entering my assigned room on the top floor I noticed some of the furniture like the desk and cocktail table where the coffemaker was placed was probably due for replacement. It was scuffed up from wear and tear. The air conditioning was a little bit more noisy than it should have been for a window unit but it didn't affect my sleep. My room also faced the freeway but the room had adequate sound insulation and I couldn't hear any freeway noises with the AC on. Besides that, the overall room was clean and after an hour later Ivan from front desk called to see how everything was. 
+Breakfast
+Breakfast is held at the Asian Fusion restaurant located besides the lobby. It usually costs ~$15 a person. It offered a decent selection of fresh hot and cold food. I was pleasantly surprised to see a couple asian breakfast items like Soy milk, rice congee, asian toast, green onion pancakes, and chinese donuts for soymilk. The staff at the restaurant were also really attentive. The area for improvement though was that the food at the breakfast buffet could be hotter, most of the hot dishes...I booked a double queen bed room on the top floor back on March 24. Upon checking in I was greeted by Ruth who was very friendly and professional. My status as a Platinum Elite IHG rewards club member was well recognized by her. RoomUpon entering my assigned room on the top floor I noticed some of the furniture like the desk and cocktail table where the coffemaker was placed was probably due for replacement. It was scuffed up from wear and tear. The air conditioning was a little bit more noisy than it should have been for a window unit but it didn't affect my sleep. My room also faced the freeway but the room had adequate sound insulation and I couldn't hear any freeway noises with the AC on. Besides that, the overall room was clean and after an hour later Ivan from front desk called to see how everything was. BreakfastBreakfast is held at the Asian Fusion restaurant located besides the lobby. It usually costs ~$15 a person. It offered a decent selection of fresh hot and cold food. I was pleasantly surprised to see a couple asian breakfast items like Soy milk, rice congee, asian toast, green onion pancakes, and chinese donuts for soymilk. The staff at the restaurant were also really attentive. The area for improvement though was that the food at the breakfast buffet could be hotter, most of the hot dishes on the buffet line were luke warmish. Overall, I would stay here again. The property is well-kept, the staff are well trained and are very polite, courteous, and attentive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r363065222-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>363065222</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Nice hotel, great location right off the 10 freeway.  Walking distance  to a lot of restaurants.  They have a restaurant and bar at this hotel.   Chinese food looked good but it's a la carte and the portions are very large, we saw one order of fried rice that fed four adults and the cost was $12.00+.  The bar is nice, the Bartendar is good. Happy hour is only one hour, which seems strange, usually it's two or more hours. What ever...  the rooms have a frig and microwave which is great.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r353342005-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>353342005</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Very easy to find!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is located right on the side of the freeway, easy access in and out of the area. There are many restaurants in the area in addition of the restaurant inside the hotel which we didn't try because we were craving something else. The front desk staff was very professional and friendly. The rooms are everything you expect from a Holiday inn, very clean, plenty of towells, toiletries, etc. Free parking and wifi access. It was packed but quiet for a weekend. We liked it. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r347441205-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>347441205</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>Great Stopover</t>
+  </si>
+  <si>
+    <t>Lobby is welcoming, professional-feeling, clean, efficient, and well designed and decorated. Desk staff is very efficient at check-in and check-out.  Great location - easy on &amp; off I-10.  Free parking, &amp; within safe walking distance to a small mall &amp; fast foods + nice restaurants. Nearby BevMo's Friday night Wine Tasting is 4-7pm, and it's a fun neighborhood experience.  Our room on 5th floor (by request) was quiet and very comfortable. I have their Spire level membership, so we get free suite upgrades if available.  Nothing was available, so they gave us breakfast vouchers instead: The hotel restaurant is clean and nice - Chinese/American buffet - more spendy than I would spring for ($14.95), but free is good . . .  Breakfasts are the reason we prefer Holiday Inn Express over Holiday Inn, because breakfasts are always included at HIEx &amp; not at HI. HIEx breakfasts are always reliably tasty, fresh, and great variety.  But 15K points for a beautiful, clean room was reasonable enough - so we will probably stay here again next time we are in West Covina.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Lobby is welcoming, professional-feeling, clean, efficient, and well designed and decorated. Desk staff is very efficient at check-in and check-out.  Great location - easy on &amp; off I-10.  Free parking, &amp; within safe walking distance to a small mall &amp; fast foods + nice restaurants. Nearby BevMo's Friday night Wine Tasting is 4-7pm, and it's a fun neighborhood experience.  Our room on 5th floor (by request) was quiet and very comfortable. I have their Spire level membership, so we get free suite upgrades if available.  Nothing was available, so they gave us breakfast vouchers instead: The hotel restaurant is clean and nice - Chinese/American buffet - more spendy than I would spring for ($14.95), but free is good . . .  Breakfasts are the reason we prefer Holiday Inn Express over Holiday Inn, because breakfasts are always included at HIEx &amp; not at HI. HIEx breakfasts are always reliably tasty, fresh, and great variety.  But 15K points for a beautiful, clean room was reasonable enough - so we will probably stay here again next time we are in West Covina.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r347409407-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>347409407</t>
+  </si>
+  <si>
+    <t>Very Nice Stay in West Covina</t>
+  </si>
+  <si>
+    <t>Spent a night here on business.  Front desk employees were very friendly and showed an eagerness to make the customer happy.  Much appreciated.  The room was a nice updated Typical Holiday Inn room.  Comfortable bed, TV, coffee maker, lots of outlets and free wifi.  Exactly what I need.  I only wish they supplied Shower gel instead of the soap.  This one's a keeper.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r345915807-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>345915807</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Great staff, convenient location</t>
+  </si>
+  <si>
+    <t>This was the first hotel I've stayed in where the staff member who checked me in remembered my name on sight - even the next day!  Clean room, great staff, free wi-fi and parking, AND RIGHT NEXT DOOR TO IKEA!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r340557267-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>340557267</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Really nice</t>
+  </si>
+  <si>
+    <t>First of all, I've been traveling around the world a lot for many trips and I can't even tell how many hotels I have stayed. But Ivan, the staff who works at there. Is one of the best staffs I've ever met in my life. He has a really nice personality and been very helpful. He definitely made my trip even better. 这么多年不论是因为出差还是旅游到过全世界很多地方也住过数不清多少次的酒店。这次是因为临时来访朋友所以定了一家离他不远的酒店。但是不得不说，Ivan真的是我这么多年见过的最好的员工之一。非常乐于助人人格魅力也很高。酒店本身条件还好，但是因为有他让我觉得这里很好。</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r338208722-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>338208722</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel ever</t>
+  </si>
+  <si>
+    <t>Our accommodation was payed well in advance, on arrival our booking could not be found.  The whole place is pld and dirty, key cards didnt work, had to re do them every day. 3 of us in a room for a week, we chased towels  everday, broken toilet for 2 days. The breakfast was disgusting, very poor quality, never again....MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn West Covina, responded to this reviewResponded January 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2016</t>
+  </si>
+  <si>
+    <t>Our accommodation was payed well in advance, on arrival our booking could not be found.  The whole place is pld and dirty, key cards didnt work, had to re do them every day. 3 of us in a room for a week, we chased towels  everday, broken toilet for 2 days. The breakfast was disgusting, very poor quality, never again....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r336435795-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>336435795</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>very clean lobby, quick professional service.</t>
+  </si>
+  <si>
+    <t>the staff was very friendly and professional service. the rooms were super clean and everything you need to have a pleasant stay. very clean and comfortable beds. My room was away from freeway which may explain a quiet night sleep.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r334649030-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>334649030</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Nice and comfortable to stay.....</t>
+  </si>
+  <si>
+    <t>Good location: low pricing gas station, supermarket, shopping center.....4.5 / 5Sleep Quality: a little noisy in the night as it faces the highway..........3/5Rooms: Clean, neat and tidy. Whatever I need is available in the room. 5/5.Service: Not too bad....but the receptionist staff didn't really explain some of the promotion like "kids eat free" clause. 3/5Value: Overall, I think I would come back again if I come to LA. 4.5 / 5Parking: FreeFacility: Ice &amp; Drinks Vending Machine, 24-hr Self-laundry</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r333100847-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>333100847</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Girl time</t>
+  </si>
+  <si>
+    <t>Very clean and beds were comfortable.  I loved the down comforter and all the extra down pillows. We had a room with 2 queen beds. The only complaint I have is the first 2 nights, out of our 3 night stay, is there was a high school track team that had been making so much noise but once we notified the staff within 10 minutes the noise had stopped.  I'd definitely stay again since it was conveniently located near restaurants and the 10 freeway.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r332570435-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>332570435</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>Convenient location,  well lighted room.</t>
+  </si>
+  <si>
+    <t>We were here on 12/5/15 for three night.  Friendly staff checked us in.  We were upgraded to a larger room with king size bed because my husband's IHG higher member.  Our room was face the interstate 10.  It was little bit noisy.  The room was clean and the lights were bright at night.  The bathroom was kind small and had a small area for the suitcase and a small closet.  The wi-fi was a pain,  had to sign in everyday.  There were two line but only one ( holidayinn) worked.  The breakfast " buffet" ok with limited selections.  You had to ask for orange juice and the waiter will bring you a whole bottle.  Definitely,  we will come back if we are in the LA area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were here on 12/5/15 for three night.  Friendly staff checked us in.  We were upgraded to a larger room with king size bed because my husband's IHG higher member.  Our room was face the interstate 10.  It was little bit noisy.  The room was clean and the lights were bright at night.  The bathroom was kind small and had a small area for the suitcase and a small closet.  The wi-fi was a pain,  had to sign in everyday.  There were two line but only one ( holidayinn) worked.  The breakfast " buffet" ok with limited selections.  You had to ask for orange juice and the waiter will bring you a whole bottle.  Definitely,  we will come back if we are in the LA area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r319499593-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>319499593</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Customer service was outstanding. The stay was comfortable. The hotel met all the best Holiday Inn expectations: clean, friendly staff, well furnished, easy access to shopping and food. The extra bonus was the early check-in (1:30 PM). I reserved the hotel while driving to the area. I know not all hotels can accomodate early arrivals, due to business, but after a long drive and/or plane flight, an early check in when available is a huge perk, especially when you just want to rest and relax.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r319192039-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>319192039</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Nice property, right by the freeway</t>
+  </si>
+  <si>
+    <t>Pretty standard HIE.  Check in folks were very nice and quickly had me on my way.  I was in L.A. during a hot spell and the AC was a little overmatched to the heat and humidity.  It kept cycling on and off and was a bit loud.Room was clean, a little worn.  Since this is a Holiday Inn, no free breakfast.  So I went to Marie Callenders, next door.With the exception for the A/C, the road noise didn't intrude.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn West Covina, responded to this reviewResponded October 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2015</t>
+  </si>
+  <si>
+    <t>Pretty standard HIE.  Check in folks were very nice and quickly had me on my way.  I was in L.A. during a hot spell and the AC was a little overmatched to the heat and humidity.  It kept cycling on and off and was a bit loud.Room was clean, a little worn.  Since this is a Holiday Inn, no free breakfast.  So I went to Marie Callenders, next door.With the exception for the A/C, the road noise didn't intrude.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r314675172-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>314675172</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Beware of BED BUGS!</t>
+  </si>
+  <si>
+    <t>Beware of Bed Bugs!!!
+We checked in on 9/9 for 3 nights around 9:45 pm.  About an hour later, I went to the bathroom &amp;  noticed a small spot on the towel bath mat but thought it was dirt. I then saw it move. I bent down to take a closer look &amp; it looked like a bed bug but I wasn't sure since I have never seen one, only on the news. We looked it up online and it was indeed a bed bug.
+I placed a cup over it and we took it down to the front desk. We spoke with  the supervisor and asked her to give us a new room. She switched us to another room 2 floors down and comped a couple of loads of laundry. She also told us that she would comp our stay. We left and repacked our stuff and moved it to the new room. 
+We researched how to look for bed bugs &amp; spent a lot of time tearing the room apart &amp; putting it back together. We didn't finish until 2 am. With everything going on we had a hard time sleeping &amp; didn't fall asleep until 4 am. Then at about 9:15 am, the fire alarm went off &amp; we were woken up. 
+We cut our day short &amp; canceled dinner plans out of exhaustion due to lack of sleep &amp; went back to the room at 7:30...Beware of Bed Bugs!!!We checked in on 9/9 for 3 nights around 9:45 pm.  About an hour later, I went to the bathroom &amp;  noticed a small spot on the towel bath mat but thought it was dirt. I then saw it move. I bent down to take a closer look &amp; it looked like a bed bug but I wasn't sure since I have never seen one, only on the news. We looked it up online and it was indeed a bed bug.I placed a cup over it and we took it down to the front desk. We spoke with  the supervisor and asked her to give us a new room. She switched us to another room 2 floors down and comped a couple of loads of laundry. She also told us that she would comp our stay. We left and repacked our stuff and moved it to the new room. We researched how to look for bed bugs &amp; spent a lot of time tearing the room apart &amp; putting it back together. We didn't finish until 2 am. With everything going on we had a hard time sleeping &amp; didn't fall asleep until 4 am. Then at about 9:15 am, the fire alarm went off &amp; we were woken up. We cut our day short &amp; canceled dinner plans out of exhaustion due to lack of sleep &amp; went back to the room at 7:30 only to find that our room was not serviced. So let me get this straight, a guest found a bed bug &amp; your solution is to no longer do a lousy job cleaning but to just not clean the room at all!?!I called the front desk and clerk didn't really seem to care &amp; tried to put the blame on me by accusing me of leaving the DND sign on. I told her that was not the case. She then told me that she could schedule a cleaning first thing in the morning. I'm not exactly sure how that resolves my issue since the room is supposed to be cleaned daily. She offered to send towels, toiletries &amp; linens &amp; told me that I had to put the linens on myself. On Saturday morning, I got the receipt and only 1 day was comped so I went to the front desk. I spoke with the same supervisor and she told me that she may have said that but that she didn't realize that we were staying for 3 nights and that she only meant it for 1 night. I explained some of what happened afterwards and told her that it was pretty serious and that she should comp the other 2 nights especially since that is what she said in the first place. She said that she would talk to her boss. When I came back, she told me that her boss looked us up and that he found out that we are rewards members and would be receiving a survey. Unfortunately, due to trip advisor restrictions, I can't mention the shady practices that followed afterwards but trust me when I tell you that they are bullies and your jaw will drop with what happened next. She ended up comping the 2 days reluctantly after going back and forth for a while and after I stood my ground, again think questionable business practices.As she was doing so, I advised her that she should have a conversation with the housekeeping staff because if they would have cleaned my room properly, I would have never found the bed bug and we would not be having this conversation.Overall we had a pretty miserable time at this location. The amount of time that it took away from our trip is unacceptable. The aggravation we went through not only by finding a bed bug but with the way this was all handled by the judgmental, indifferent, and careless staff as well as feeling bullied is absolutely unacceptable. Also, the management does not take ownership of what happened and will instead point the finger at you and accuse you of bringing in the bed bug. I got a response from the business manager on another review site and was basically told that if the bed bug was not found in the bed or head board and if it had not eaten then there is no way it came from their property. Does that make any sense to you? If you do a bit or research, you will see that there is nothing about them having to be full in order to be from a certain property and they don't only hide in beds. They can get into your luggage, they can hide in drawers, nearby furniture and even around pipes (water, drain, electrical). They can also move from room to room by riding on cloth just like the towel bath mat that we found it on. Just the sheer lack of knowledge about bed bugs that these people in the hotel industry have should send you running to another hotel. This is not the place for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tommy S, General Manager at Holiday Inn West Covina, responded to this reviewResponded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Beware of Bed Bugs!!!
+We checked in on 9/9 for 3 nights around 9:45 pm.  About an hour later, I went to the bathroom &amp;  noticed a small spot on the towel bath mat but thought it was dirt. I then saw it move. I bent down to take a closer look &amp; it looked like a bed bug but I wasn't sure since I have never seen one, only on the news. We looked it up online and it was indeed a bed bug.
+I placed a cup over it and we took it down to the front desk. We spoke with  the supervisor and asked her to give us a new room. She switched us to another room 2 floors down and comped a couple of loads of laundry. She also told us that she would comp our stay. We left and repacked our stuff and moved it to the new room. 
+We researched how to look for bed bugs &amp; spent a lot of time tearing the room apart &amp; putting it back together. We didn't finish until 2 am. With everything going on we had a hard time sleeping &amp; didn't fall asleep until 4 am. Then at about 9:15 am, the fire alarm went off &amp; we were woken up. 
+We cut our day short &amp; canceled dinner plans out of exhaustion due to lack of sleep &amp; went back to the room at 7:30...Beware of Bed Bugs!!!We checked in on 9/9 for 3 nights around 9:45 pm.  About an hour later, I went to the bathroom &amp;  noticed a small spot on the towel bath mat but thought it was dirt. I then saw it move. I bent down to take a closer look &amp; it looked like a bed bug but I wasn't sure since I have never seen one, only on the news. We looked it up online and it was indeed a bed bug.I placed a cup over it and we took it down to the front desk. We spoke with  the supervisor and asked her to give us a new room. She switched us to another room 2 floors down and comped a couple of loads of laundry. She also told us that she would comp our stay. We left and repacked our stuff and moved it to the new room. We researched how to look for bed bugs &amp; spent a lot of time tearing the room apart &amp; putting it back together. We didn't finish until 2 am. With everything going on we had a hard time sleeping &amp; didn't fall asleep until 4 am. Then at about 9:15 am, the fire alarm went off &amp; we were woken up. We cut our day short &amp; canceled dinner plans out of exhaustion due to lack of sleep &amp; went back to the room at 7:30 only to find that our room was not serviced. So let me get this straight, a guest found a bed bug &amp; your solution is to no longer do a lousy job cleaning but to just not clean the room at all!?!I called the front desk and clerk didn't really seem to care &amp; tried to put the blame on me by accusing me of leaving the DND sign on. I told her that was not the case. She then told me that she could schedule a cleaning first thing in the morning. I'm not exactly sure how that resolves my issue since the room is supposed to be cleaned daily. She offered to send towels, toiletries &amp; linens &amp; told me that I had to put the linens on myself. On Saturday morning, I got the receipt and only 1 day was comped so I went to the front desk. I spoke with the same supervisor and she told me that she may have said that but that she didn't realize that we were staying for 3 nights and that she only meant it for 1 night. I explained some of what happened afterwards and told her that it was pretty serious and that she should comp the other 2 nights especially since that is what she said in the first place. She said that she would talk to her boss. When I came back, she told me that her boss looked us up and that he found out that we are rewards members and would be receiving a survey. Unfortunately, due to trip advisor restrictions, I can't mention the shady practices that followed afterwards but trust me when I tell you that they are bullies and your jaw will drop with what happened next. She ended up comping the 2 days reluctantly after going back and forth for a while and after I stood my ground, again think questionable business practices.As she was doing so, I advised her that she should have a conversation with the housekeeping staff because if they would have cleaned my room properly, I would have never found the bed bug and we would not be having this conversation.Overall we had a pretty miserable time at this location. The amount of time that it took away from our trip is unacceptable. The aggravation we went through not only by finding a bed bug but with the way this was all handled by the judgmental, indifferent, and careless staff as well as feeling bullied is absolutely unacceptable. Also, the management does not take ownership of what happened and will instead point the finger at you and accuse you of bringing in the bed bug. I got a response from the business manager on another review site and was basically told that if the bed bug was not found in the bed or head board and if it had not eaten then there is no way it came from their property. Does that make any sense to you? If you do a bit or research, you will see that there is nothing about them having to be full in order to be from a certain property and they don't only hide in beds. They can get into your luggage, they can hide in drawers, nearby furniture and even around pipes (water, drain, electrical). They can also move from room to room by riding on cloth just like the towel bath mat that we found it on. Just the sheer lack of knowledge about bed bugs that these people in the hotel industry have should send you running to another hotel. This is not the place for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r302024287-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>302024287</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Very well rested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The entrance was nice. The parking is self park and best part is it's free. The staff was friendly and fast since I was tired. The rooms where nice, clean and comfortable. Really good comfy beds and nice clean showers fridge and microwave in room. We walked in and got a room with 2 queen beds and free breakfast for $114 very well worth the price. </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r290934347-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>290934347</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Fantastic, easy access hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for week off and on for business.  I picked it because it's close to my own home so in that case close to where I grew up. the service was top notch.  The amenities left little to be desired.  Overall a GREAT place.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r289823162-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>289823162</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Newly Renovated, Nicely Done But NO FREE BREAKFAST</t>
+  </si>
+  <si>
+    <t>Management photos do not lie. High quality sheets. Very clean rooms. Microwave and mini refrigerators in rooms. Perky customer service. However, Trip Advisor needs to correct that free breakfast is included BECAUSE Breakfast IS NOT FREE!!! The only thing free is Iced Lemon Water in the lobby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r285201522-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>285201522</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel inside shopping area</t>
+  </si>
+  <si>
+    <t>Wonderful new hotel in west covina, next to many named shopping stores, there's 4 more hotels here, but this is the one you should choose.Nice restaurant serving American breakfast and Chinese Dinner, more and much more restaurant near by.2 minuts to highway 10 exit. access to many famus city here, close to Ontario airport, and big shopping mall.Staffs very friendly, the management work very hard to give you home away from home feeling.I like this hotel a lot!MoreShow less</t>
+  </si>
+  <si>
+    <t>Tommy S, General Manager at Holiday Inn West Covina, responded to this reviewResponded July 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2015</t>
+  </si>
+  <si>
+    <t>Wonderful new hotel in west covina, next to many named shopping stores, there's 4 more hotels here, but this is the one you should choose.Nice restaurant serving American breakfast and Chinese Dinner, more and much more restaurant near by.2 minuts to highway 10 exit. access to many famus city here, close to Ontario airport, and big shopping mall.Staffs very friendly, the management work very hard to give you home away from home feeling.I like this hotel a lot!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r284377852-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>284377852</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Comfortable place to spend a week</t>
+  </si>
+  <si>
+    <t>I spent a week here recently for an event that had us working very long days so my time in the room was mostly to sleep. The room was spacious and comfortable. It was on the ground floor which I expected to be noisy since I was only a couple doors down from the elevator but I had no issues. Location was reasonable walking distance to several restaurants and shopping. The staff was helpful and accommodating. I would stay here again. There were a couple of spots in the room that had not been cleaned as well as I would have liked but nothing worthy of me complaining about to the mgmt.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I spent a week here recently for an event that had us working very long days so my time in the room was mostly to sleep. The room was spacious and comfortable. It was on the ground floor which I expected to be noisy since I was only a couple doors down from the elevator but I had no issues. Location was reasonable walking distance to several restaurants and shopping. The staff was helpful and accommodating. I would stay here again. There were a couple of spots in the room that had not been cleaned as well as I would have liked but nothing worthy of me complaining about to the mgmt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r275105028-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>275105028</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>EXTREMELY SATISFIED</t>
+  </si>
+  <si>
+    <t>Was here specifically to visit my mother. She had been staying here for a day or so. My room was at the end of the hall #327. a bit pricy $129, but very adequate. small bathroom, but very generous sized room. and "view" out the window of a Ficus tree and Fairfield inn by marriott next door.  nice touch with the Green lighting accent at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Tommy S, General Manager at Holiday Inn West Covina, responded to this reviewResponded May 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2015</t>
+  </si>
+  <si>
+    <t>Was here specifically to visit my mother. She had been staying here for a day or so. My room was at the end of the hall #327. a bit pricy $129, but very adequate. small bathroom, but very generous sized room. and "view" out the window of a Ficus tree and Fairfield inn by marriott next door.  nice touch with the Green lighting accent at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r265577585-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>265577585</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>Nice, affordable, centralized location with restaurant!</t>
+  </si>
+  <si>
+    <t>Nice rooms that were clean and comfortable as well as quiet. This holiday inn also has a restaurant and we found the food to be very good and inexpensive. Would definitely consider staying here again. One block from shopping mall and many restaurants as well as close to freeway on-ramps and off-ramps. 20 minutes from Ontario airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Tommy S, General Manager at Holiday Inn West Covina, responded to this reviewResponded April 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2015</t>
+  </si>
+  <si>
+    <t>Nice rooms that were clean and comfortable as well as quiet. This holiday inn also has a restaurant and we found the food to be very good and inexpensive. Would definitely consider staying here again. One block from shopping mall and many restaurants as well as close to freeway on-ramps and off-ramps. 20 minutes from Ontario airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r259174078-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>259174078</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Great Night Stay</t>
+  </si>
+  <si>
+    <t>We hoped for a nice place when made the reservation.  Check-in was a breeze.  The room was clean, comfortable, and well appointed.  While close to the freeway, the was no noise in the room.  The restaurant was nice, reasonably priced, with a good selection.  I would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>We hoped for a nice place when made the reservation.  Check-in was a breeze.  The room was clean, comfortable, and well appointed.  While close to the freeway, the was no noise in the room.  The restaurant was nice, reasonably priced, with a good selection.  I would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r258041924-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>258041924</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>New Property - No Free Breakfast</t>
+  </si>
+  <si>
+    <t>At first I thought that I would get free breakfast like I normally got at HI. We are Platinum member with IHG and they forgot to give us any amenities. Not even bottle water or Welcome Bonus Points. The property was clean and nice. The room was spacious enough for us. But the hotel was completely booked with kids. I think they had an event or something for their school.MoreShow less</t>
+  </si>
+  <si>
+    <t>At first I thought that I would get free breakfast like I normally got at HI. We are Platinum member with IHG and they forgot to give us any amenities. Not even bottle water or Welcome Bonus Points. The property was clean and nice. The room was spacious enough for us. But the hotel was completely booked with kids. I think they had an event or something for their school.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r238666826-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>238666826</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>Booking your stay through Travelocity will reduce the size of your room..</t>
+  </si>
+  <si>
+    <t>While checking in I was asked if I booked through Holiday Inn or Expedia and truthfully I couldn't remember. Later I did recall that I did book through Travelocity because I wanted the option to cancel if needed. I had to laugh but at the same time I was extremely frustrated when I was trying to get ready in the "closet" bathroom. Imagine putting your hip out because you were leaning over the toilet to see in the mirror. At one point I ended up hanging the toilet paper roll on the door latch because it was more convenient there than behind me. I was also placed in a room at the end of the hall which of course was by an exit door with a spring loaded closing feature. SLAM...SLAM...etc. On a more positive note: The room was clean, the bed was comfortable and I would recommend them to a friend.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Tommy S, General Manager at Holiday Inn West Covina, responded to this reviewResponded November 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2014</t>
+  </si>
+  <si>
+    <t>While checking in I was asked if I booked through Holiday Inn or Expedia and truthfully I couldn't remember. Later I did recall that I did book through Travelocity because I wanted the option to cancel if needed. I had to laugh but at the same time I was extremely frustrated when I was trying to get ready in the "closet" bathroom. Imagine putting your hip out because you were leaning over the toilet to see in the mirror. At one point I ended up hanging the toilet paper roll on the door latch because it was more convenient there than behind me. I was also placed in a room at the end of the hall which of course was by an exit door with a spring loaded closing feature. SLAM...SLAM...etc. On a more positive note: The room was clean, the bed was comfortable and I would recommend them to a friend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r233973890-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>233973890</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t>We had an unplanned stay here recently, without a single piece of luggage, and the staff more than accommodated for us! As a family of four, we were given all of the complimentary toiletries and even took advantage of the guest laundry facilities. Front desk staff was excellent and very helpful. Rooms were also very clean and comfortable. We'd stay again for sure, but next time, we'll come prepared! :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Tommy S, General Manager at Holiday Inn West Covina, responded to this reviewResponded October 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2014</t>
+  </si>
+  <si>
+    <t>We had an unplanned stay here recently, without a single piece of luggage, and the staff more than accommodated for us! As a family of four, we were given all of the complimentary toiletries and even took advantage of the guest laundry facilities. Front desk staff was excellent and very helpful. Rooms were also very clean and comfortable. We'd stay again for sure, but next time, we'll come prepared! :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r233536829-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>233536829</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Remodeling in progress, but they are trying.</t>
+  </si>
+  <si>
+    <t>Good news: Not too far from Ontario airport, countless good dining choices with many within walking distance, easy freeway access, free wi-fi, friendly staff (especially overnight young lady when I checked in).Bad news: Fitness center closed, no breakfast buffet offered and although the lobby is beautiful and recently remodeled, the floor I was on was really showing it's age and needed carpet, paint and the odor was musty.As the remodel continues, I look forward to coming back because the positives outweigh the negatives.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Good news: Not too far from Ontario airport, countless good dining choices with many within walking distance, easy freeway access, free wi-fi, friendly staff (especially overnight young lady when I checked in).Bad news: Fitness center closed, no breakfast buffet offered and although the lobby is beautiful and recently remodeled, the floor I was on was really showing it's age and needed carpet, paint and the odor was musty.As the remodel continues, I look forward to coming back because the positives outweigh the negatives.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1999,3778 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>155</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s">
+        <v>164</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>191</v>
+      </c>
+      <c r="X19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>199</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>200</v>
+      </c>
+      <c r="X20" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>155</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>216</v>
+      </c>
+      <c r="O22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>208</v>
+      </c>
+      <c r="X22" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>223</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>224</v>
+      </c>
+      <c r="X23" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>155</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>155</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>232</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>241</v>
+      </c>
+      <c r="X25" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>147</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>258</v>
+      </c>
+      <c r="X27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>155</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>250</v>
+      </c>
+      <c r="X28" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>266</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>250</v>
+      </c>
+      <c r="X30" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>155</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" t="s">
+        <v>277</v>
+      </c>
+      <c r="K31" t="s">
+        <v>283</v>
+      </c>
+      <c r="L31" t="s">
+        <v>284</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s">
+        <v>164</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>155</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
+      <c r="K32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>290</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>291</v>
+      </c>
+      <c r="X32" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>294</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>295</v>
+      </c>
+      <c r="J33" t="s">
+        <v>296</v>
+      </c>
+      <c r="K33" t="s">
+        <v>297</v>
+      </c>
+      <c r="L33" t="s">
+        <v>298</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>299</v>
+      </c>
+      <c r="X33" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>155</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>303</v>
+      </c>
+      <c r="J34" t="s">
+        <v>304</v>
+      </c>
+      <c r="K34" t="s">
+        <v>305</v>
+      </c>
+      <c r="L34" t="s">
+        <v>306</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>290</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>155</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" t="s">
+        <v>310</v>
+      </c>
+      <c r="L35" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>312</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>315</v>
+      </c>
+      <c r="J36" t="s">
+        <v>316</v>
+      </c>
+      <c r="K36" t="s">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s">
+        <v>318</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>319</v>
+      </c>
+      <c r="O36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>155</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>321</v>
+      </c>
+      <c r="J37" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" t="s">
+        <v>323</v>
+      </c>
+      <c r="L37" t="s">
+        <v>324</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>155</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>326</v>
+      </c>
+      <c r="J38" t="s">
+        <v>327</v>
+      </c>
+      <c r="K38" t="s">
+        <v>328</v>
+      </c>
+      <c r="L38" t="s">
+        <v>329</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>330</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>333</v>
+      </c>
+      <c r="J39" t="s">
+        <v>327</v>
+      </c>
+      <c r="K39" t="s">
+        <v>334</v>
+      </c>
+      <c r="L39" t="s">
+        <v>335</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>330</v>
+      </c>
+      <c r="O39" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>155</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>336</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>337</v>
+      </c>
+      <c r="J40" t="s">
+        <v>338</v>
+      </c>
+      <c r="K40" t="s">
+        <v>339</v>
+      </c>
+      <c r="L40" t="s">
+        <v>340</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>330</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>342</v>
+      </c>
+      <c r="J41" t="s">
+        <v>343</v>
+      </c>
+      <c r="K41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s">
+        <v>345</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>346</v>
+      </c>
+      <c r="O41" t="s">
+        <v>347</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>348</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>349</v>
+      </c>
+      <c r="J42" t="s">
+        <v>350</v>
+      </c>
+      <c r="K42" t="s">
+        <v>351</v>
+      </c>
+      <c r="L42" t="s">
+        <v>352</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>353</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>354</v>
+      </c>
+      <c r="X42" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" t="s">
+        <v>359</v>
+      </c>
+      <c r="K43" t="s">
+        <v>360</v>
+      </c>
+      <c r="L43" t="s">
+        <v>361</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>353</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>362</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>363</v>
+      </c>
+      <c r="J44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L44" t="s">
+        <v>366</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>353</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>155</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>368</v>
+      </c>
+      <c r="J45" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>353</v>
+      </c>
+      <c r="O45" t="s">
+        <v>347</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>372</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>373</v>
+      </c>
+      <c r="J46" t="s">
+        <v>374</v>
+      </c>
+      <c r="K46" t="s">
+        <v>375</v>
+      </c>
+      <c r="L46" t="s">
+        <v>376</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>353</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>155</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>379</v>
+      </c>
+      <c r="J47" t="s">
+        <v>380</v>
+      </c>
+      <c r="K47" t="s">
+        <v>381</v>
+      </c>
+      <c r="L47" t="s">
+        <v>382</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>383</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>155</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>384</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>385</v>
+      </c>
+      <c r="J48" t="s">
+        <v>386</v>
+      </c>
+      <c r="K48" t="s">
+        <v>387</v>
+      </c>
+      <c r="L48" t="s">
+        <v>388</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>389</v>
+      </c>
+      <c r="O48" t="s">
+        <v>77</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>390</v>
+      </c>
+      <c r="X48" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>393</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>394</v>
+      </c>
+      <c r="J49" t="s">
+        <v>395</v>
+      </c>
+      <c r="K49" t="s">
+        <v>396</v>
+      </c>
+      <c r="L49" t="s">
+        <v>397</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>383</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>398</v>
+      </c>
+      <c r="X49" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>401</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>402</v>
+      </c>
+      <c r="J50" t="s">
+        <v>403</v>
+      </c>
+      <c r="K50" t="s">
+        <v>404</v>
+      </c>
+      <c r="L50" t="s">
+        <v>405</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>406</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>407</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>408</v>
+      </c>
+      <c r="J51" t="s">
+        <v>409</v>
+      </c>
+      <c r="K51" t="s">
+        <v>410</v>
+      </c>
+      <c r="L51" t="s">
+        <v>411</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>412</v>
+      </c>
+      <c r="O51" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>413</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>414</v>
+      </c>
+      <c r="J52" t="s">
+        <v>415</v>
+      </c>
+      <c r="K52" t="s">
+        <v>416</v>
+      </c>
+      <c r="L52" t="s">
+        <v>417</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>412</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>418</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>419</v>
+      </c>
+      <c r="J53" t="s">
+        <v>420</v>
+      </c>
+      <c r="K53" t="s">
+        <v>421</v>
+      </c>
+      <c r="L53" t="s">
+        <v>422</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>412</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>423</v>
+      </c>
+      <c r="X53" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>155</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>426</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>427</v>
+      </c>
+      <c r="J54" t="s">
+        <v>428</v>
+      </c>
+      <c r="K54" t="s">
+        <v>429</v>
+      </c>
+      <c r="L54" t="s">
+        <v>430</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>431</v>
+      </c>
+      <c r="O54" t="s">
+        <v>77</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>423</v>
+      </c>
+      <c r="X54" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>433</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>434</v>
+      </c>
+      <c r="J55" t="s">
+        <v>435</v>
+      </c>
+      <c r="K55" t="s">
+        <v>436</v>
+      </c>
+      <c r="L55" t="s">
+        <v>437</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>438</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>439</v>
+      </c>
+      <c r="X55" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>442</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>443</v>
+      </c>
+      <c r="J56" t="s">
+        <v>444</v>
+      </c>
+      <c r="K56" t="s">
+        <v>445</v>
+      </c>
+      <c r="L56" t="s">
+        <v>446</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>447</v>
+      </c>
+      <c r="O56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>448</v>
+      </c>
+      <c r="X56" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>451</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>452</v>
+      </c>
+      <c r="J57" t="s">
+        <v>453</v>
+      </c>
+      <c r="K57" t="s">
+        <v>454</v>
+      </c>
+      <c r="L57" t="s">
+        <v>455</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>456</v>
+      </c>
+      <c r="O57" t="s">
+        <v>347</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>448</v>
+      </c>
+      <c r="X57" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>155</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>458</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>459</v>
+      </c>
+      <c r="J58" t="s">
+        <v>460</v>
+      </c>
+      <c r="K58" t="s">
+        <v>461</v>
+      </c>
+      <c r="L58" t="s">
+        <v>462</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>456</v>
+      </c>
+      <c r="O58" t="s">
+        <v>77</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>448</v>
+      </c>
+      <c r="X58" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>155</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>464</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>465</v>
+      </c>
+      <c r="J59" t="s">
+        <v>466</v>
+      </c>
+      <c r="K59" t="s">
+        <v>467</v>
+      </c>
+      <c r="L59" t="s">
+        <v>468</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>469</v>
+      </c>
+      <c r="O59" t="s">
+        <v>77</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>470</v>
+      </c>
+      <c r="X59" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>155</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>473</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>474</v>
+      </c>
+      <c r="J60" t="s">
+        <v>475</v>
+      </c>
+      <c r="K60" t="s">
+        <v>476</v>
+      </c>
+      <c r="L60" t="s">
+        <v>477</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>478</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>479</v>
+      </c>
+      <c r="X60" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>155</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>482</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>483</v>
+      </c>
+      <c r="J61" t="s">
+        <v>484</v>
+      </c>
+      <c r="K61" t="s">
+        <v>485</v>
+      </c>
+      <c r="L61" t="s">
+        <v>486</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>487</v>
+      </c>
+      <c r="O61" t="s">
+        <v>77</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>479</v>
+      </c>
+      <c r="X61" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_390.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_390.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="549">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>TheHungryPanda</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Hotel is well maintained. Has a Chinese restaurant with breakfast buffet. Free parking. Close to freeway. It can get a little noisey but you won't really notice if you sleep with the AC or tv on. Naomi checked me in at the front desk and was very friendly, welcoming, and professional. She recognized my IHG rewards club platinum elite status and was able to accommodate my request. The executive bedroom is basically a junior suite. It was roomy and spacious, had a sofa bed and king bed with mini fridge and big flat screen TV on the top floor. Furniture in here was in good condition, nothing beat up or worn. Thanks Naomi for taking care of me during this stay. -DustinMore</t>
   </si>
   <si>
+    <t>KuoLM007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r582856867-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Not too far to LA and the airport. Good value for money. Reasonable breakfast for 12.99. Two large beds (very comfortably); large rooms. Rooms facing highway might be little noisy. Friendly staff at reception More</t>
   </si>
   <si>
+    <t>Wendy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r582827462-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>We had a nice stay at this spot- parking was easy, check-in smooth. Our check-in staff member, Jordan, was friendly and welcoming! Our room looked recently updated and our kiddos liked the products coconut lime :) -reminded us of the tropics. Room had everything we needed. We will consider staying again next time we are in the area!More</t>
   </si>
   <si>
+    <t>Waltinho R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r545782315-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>The hotel is great for business travelers, well located close to malls, market and restaurants. The staff makes the difference, thanks for the ladies at front desk for the great support during my staying. Breakfast is common US style, clean and affordable. More</t>
   </si>
   <si>
+    <t>barronbjjs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r542453528-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>My rating would be average. The hotel is very busy, a lot of people but not noisy. Rooms were big but could use some deep cleaning. Mattresses were old but I slept well. I received a great rate on my room and would stay again if the price was right. Francine at the front desk was very nice and gracious, she made check in easy.More</t>
   </si>
   <si>
+    <t>Charles E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r539786335-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -312,6 +330,9 @@
     <t>Delivers a solid room at a fair price.  Nice outdoor seating and pool deck.  Updated.  Friendly staff.  Efficient check-in. No significant complaints.   Very minor isue but noticed - 1st floor hallway carpeting starting to show signs of wear and separating at seams.More</t>
   </si>
   <si>
+    <t>LikaKS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r530914054-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Ralph S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r529197469-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Bklynbee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r526648565-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t>A nice surprise for an overnight stay.  Prior to flying to LA we knew we would be checking in late so I called the hotel a few days before to confirm that this would not be a problem and the person who answered the phone was extremely helpful.  She was able to tell me the hotel's policy as well as advise me that she put a note in our reservation and then prior to hanging up even wished me a safe flight.  We arrived at the hotel and checked in around 10:30 pm and the front desk staff was welcoming and eager to accommodate us.  The hotel is conveniently located right off the highway next to another hotel and shopping/dining area.  The hotel and our room was very clean and quite; I would stay at this property again.More</t>
   </si>
   <si>
+    <t>Chloeme5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r515699806-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -396,6 +426,9 @@
     <t>This was my first visit to a Holiday Inn. It met my simple expectations for a one night stay. The check in was quick &amp; easy, staff is friendly, room was clean and bed was comfortable bed. I also liked that there was a microwave and mini fridge available. We stayed on the highest floor (level 5) facing the neighboring hotel. Didn't notice any freeway noise, but we heard some loud guests that were yelling in the parking lot. The walls seem to insulate most noise it didn't shield any noise from foot traffic in the hallway. It's a comfortable set up for 1-2 people but the bathroom is extremely small. Only enough room for 1 person to stand in the bathroom at a time.Huge plus is that it's right off the 10 freeway next to a breadth of shopping and food options that are a walkable distance. It was a convenient option and I will consider coming back if I need a play to stay in this area. More</t>
   </si>
   <si>
+    <t>matteoquattro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r514077909-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -420,6 +453,9 @@
     <t>This hotel is in the lower range of Holiday Inn Express. While it is reasonably clean, it has several flaws. First of all, an ominous sign in the parking lot warning that the materials used for the hotel can cause serious diseases, I didn't understand why that sign would be there and the hotel remain open. Second, the air conditioning in the room is really bad. When we arrived it was off and the room really warm, after maintenance came to fix it, we discovered it could only be constantly on at full blast, or on and off, but always at full blast. Lastly, the hotel is literally on the highway, it would be noisy, if we could hear the cars over the sound of our air conditioning at full blast. There's plenty of other brand hotels around, go there instead. More</t>
   </si>
   <si>
+    <t>dad75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r509506539-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -444,6 +480,9 @@
     <t>I had an early meeting in Pomona, so I flew in the night before and needed a place to stay.  Honestly, I didn't do much besides sleep, but the hotel staff was very helpful and friendly, the room was good sized and comfortable, and the hotel is in a good location.  There are a lot of places to eat and shop nearby, and the hotel is right off the freeway and very easy to access.More</t>
   </si>
   <si>
+    <t>Top_Tourer_2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r506936856-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -471,6 +510,9 @@
     <t>Good location.I paid with IHG points so cannot really comment on the price.The breakfast was good.Free parking was good.Very safe locationStaff were excellent and helpful providing very good adviceand some cost saving tips,Well recommended.More</t>
   </si>
   <si>
+    <t>JFKMichael</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r492871971-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -492,6 +534,9 @@
     <t>It was right on the 10, makes for easy access to head into downtown LA, or Orange County. This was such a great stay, the room was super clean, it was a newer hotel, a restaurant in the building for easy access, and the most handsome blonde overnight boy at the front desk I've ever seen (J)! The staff was very kind, friendly, and welcoming. I would recommend staying here a thousand times over. There are several restaurants within walking distance, Hooters, Marie Calendars, etc.More</t>
   </si>
   <si>
+    <t>Cindy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r488345344-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -522,6 +567,9 @@
     <t>I booked this room on a discount website for under $100.  For that price it was excellent. Very clean, super friendly hotel staff, decent pool but no hot tub, and comfortable beds.  The rooms are modern and business friendly. Also there is good shower pressure. Free WiFi and Cable TV with HBO channels but no Showtime or Pay per View.  Fridge, microwave and Keurig coffee maker in the room was nice as well. If you forget any essentials like toothbrush, toothpaste, razor etc. you can just call the front desk and they will bring you complimentary ones.More</t>
   </si>
   <si>
+    <t>Nostalgia212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r470614789-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -549,6 +597,9 @@
     <t>Wonderful hotel. Great location with lots of shopping and dining options within walking distance. Staff took excellent care in preparing for our large group. They paid great attention to all, even minor details. We will definitely come backMore</t>
   </si>
   <si>
+    <t>Britishcats</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r459018688-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -576,6 +627,9 @@
     <t>We have now stayed twice at the Holiday Inn in West Covina. The hotel is clean, housekeeping is excellent and the front desk staff superb. No request is too small for them to address. Really nice people! Would certainly recommend.More</t>
   </si>
   <si>
+    <t>Cindy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r458171009-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -600,6 +654,9 @@
     <t>This hotel is off the I-10 Freeway, but the traffic was not an issue. Checked in on Sunday afternoon and was warmly greeted as a Rewards member by the front desk staff. Rooms were very clean. Bathroom was clean but very small. Beds were comfortable.  Doors were secure. Good parking. On-site Dahlia Restaurant offers Asian and American Cuisine however, it is a bit pricey. Fortunately, it was Super Bowl Sunday so they had an All You Can Eat Nachos Bar (choice of toppings, cheese, beef, chicken, guacamole, salsa) for $8.99 and a 14" pizza for $10. Drinks are $2 off. The food was very good.  Dining staff and bartender were very cordial, polite and attentive. There are also nearby restaurants. They do not provide complimentary breakfast, but serve breakfast in the restaurant for a cost.  All in all, a very good stay. I will not hesitate to stay here again.More</t>
   </si>
   <si>
+    <t>Scott E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r453131646-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -627,6 +684,9 @@
     <t>James, the Director of Marketing, saved my bacon yesterday (Jan. 17th, 2017). He didn't literally save bacon for me, but I'm sure he would have if he knew how much I liked bacon.Yesterday a hotel just to the east of him completely failed me, but James and Holiday Inn stepped up and hosted my event. Everything literally unfolded the day of the event. My previous venue cancelled on me basically canceled on me the day of the event. James stepped up, honored the contract for the other venue, and made everything happen. He had signs, tables, a screen .... it was like we had set up the event with him back in November.James, I can't thank you and your staff enough!More</t>
   </si>
   <si>
+    <t>Jenns48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r452629222-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -651,6 +711,9 @@
     <t>Stayed for a night during out holidays and it was another great stay. Room was great, very clean. Comfy beds as always. Enjoyed the outdoor heated pool. Wish there was a hot tub though. We paid for breakfast buffet and it was ok. I prefer a reg holiday inn breakfast. I found a lot of the food al tasted the same. More</t>
   </si>
   <si>
+    <t>TourismPro1015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r452512634-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -672,6 +735,9 @@
     <t>I travel to Southern California twice a year and most times than not, stay at a Holiday Inn.  This was my first stay at this property and was pleased to find this hotel was newly built.  Staff were great and it was conveniently located to a few restaurants.More</t>
   </si>
   <si>
+    <t>ben b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r437232743-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -699,6 +765,9 @@
     <t>We were so impressed with the friendliness and ease of check in. Our room was immaculate and immense we were greatly impressed and surprised. We have no complaints and will recommend the Holiday Inn to our friends.  Kudos to the H.I. In West Covina.More</t>
   </si>
   <si>
+    <t>Mommyhua</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r429791866-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -726,6 +795,9 @@
     <t>We were in California for a family wedding and had a wonderful stay at this hotel.  The staff was incredible.  Ivan, the manager, made sure our room fit the preferences that I had set and the room was clean and comfortable.  The breakfast in the morning was a perfect way to start our day.  We had a great stay and would definitely recommend.More</t>
   </si>
   <si>
+    <t>Bryan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r425430670-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -750,6 +822,9 @@
     <t>We checked in to the Holiday Inn, West Covina on September 26th and checked out on October the 3rd.  Excellent time!  We even had the opportunity to attend a class reunion reception hosted by the Holiday Inn.  Naturally, appetizers were complimentary, and excellent.  Booze, however, was no host.  Go figure.It's embarrassing to tell people you're handicapped and need "special needs rooms".  The only, and serious . . . the only, complaint I have about the Inn is that our room was at the end of a hallway, next to the stairs.  With that, the room was smaller.  If I were at the desk, my wife was not able to get by.  Nor if she was at the desk, I could not get by.  The extra room required by the stairwell took up quite a bit of space.  And staying there a week, makes a happy couple more like caged animals.  The Staff is exceptionally friendly.  From the house keepers to the front desk clerks (?), everyone was happy and friendly.  That's most likely why the place is so nice.  It's also the reason The Better Half and I are spending the week at another Holiday Inn in Sacramento, California.  If this place is half as nice as the Holiday Inn in West Covina, we've got it made.More</t>
   </si>
   <si>
+    <t>Jerry K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r416305739-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -777,6 +852,9 @@
     <t>We stayed here while organizing my Father-in-Law's funeral and memorial service. The staff was quite friendly and ready to help us in any way possible. The location is right on the Freeway frontage road, so it made it easy to get in and out when we had to. The room was great and we also took advantage of the pool when there was a lull in the activity.It may not be the Ritz, but I would definitely go back.More</t>
   </si>
   <si>
+    <t>gutierrezmmc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r401061819-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -801,6 +879,9 @@
     <t>We stayed here for one night and not to impressed. When I travel we always rent holiday inn hotels for the free breakfast and wifi. This holiday inn does not offer free breakfast even tho it states that when you rent the hotel online. The room was okay and the location was okay too.. Just beware of the breakfast issue make sure you get one during check in.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r398883171-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -822,6 +903,9 @@
     <t>This hotel was an Oasis in a desert of overly priced hotels and dirty boutique hotels which litter LA and the surrounding areas.The front desk clerk was very professional and thorough.  He could teach some of the St Regis clerks a few lessons on customer service but I digress.Room was very clean as expected.  Bed was semi comfortable but hey its the Holiday Inn express.  Buffet breakfast was decentI guess when I woke up I felt extremely smart after spending my money and staying there.  Cheers!!4 out of 5 starsMore</t>
   </si>
   <si>
+    <t>Jeannelle H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r392635133-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -843,6 +927,9 @@
     <t>I stayed at this hotel with my family while visiting with some family members in West Covina. This hotel is superb! It's clean, and the employees are so nice and make sure your needs are met as soon as possible. The price was more than reasonable, especially since I found it on TripAdvisor :) Also, we thoroughly enjoyed the free coffee in the morning! Would definitely book here again. More</t>
   </si>
   <si>
+    <t>Jacob C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r389254337-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -861,6 +948,9 @@
     <t>Jasmine at the front desk was most helpful and informative. After a long day she made checking in to a room easy and fast and i was very delighted with the service and im looking forward to returning soon.  Thank you for yoir hospitality More</t>
   </si>
   <si>
+    <t>Wayne P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r389093871-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -873,6 +963,9 @@
     <t>Spent four nights here.  Found the staff to be very friendly and helpful.  Rooms were clean and the grounds were clean.  The cost of the rooms was as good as I could find in the area. It is close to restaurants.  I would not recommend it if you are in town for events along the beach or in L.A. because of the traffic in L.A.  For me it was convenient since I had to go both directions for events.  I only have good things to say about this place.</t>
   </si>
   <si>
+    <t>Janet D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r377383846-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -900,6 +993,9 @@
     <t>Reserved 3 double rooms for several days of course at check in there were no doubles available, hotel refused to make accommodations of any sort. So we had 6 people and 3 beds and no apology. They blamed me for their mistake. GO ELSEWHERE!More</t>
   </si>
   <si>
+    <t>Rita H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r375279475-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -924,6 +1020,9 @@
     <t>When I stayed in January had trouble with the heating and a/c in the room. The thermostat didn't work so it had to be operated manually. WiFi connection never did work. Therefore I felt it is rather pricey for the lack.More</t>
   </si>
   <si>
+    <t>J4Mac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r371168600-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -937,6 +1036,9 @@
   </si>
   <si>
     <t>The hotel staff was excellent, especially Ivan and Naomi. They really made us feel welcome. The room was clean. The bed was super comfortable. The restaurant was a bit pricey, but the food was delicious and the service there was very nice and pleasant. The drinks at the bar were way overpriced and tasted lousy. The bartender was very unfriendly and inattentive. We will stay at this hotel in the future, but not even try the bar.</t>
+  </si>
+  <si>
+    <t>Dustin T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r366386089-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -968,6 +1070,9 @@
 Breakfast is held at the Asian Fusion restaurant located besides the lobby. It usually costs ~$15 a person. It offered a decent selection of fresh hot and cold food. I was pleasantly surprised to see a couple asian breakfast items like Soy milk, rice congee, asian toast, green onion pancakes, and chinese donuts for soymilk. The staff at the restaurant were also really attentive. The area for improvement though was that the food at the breakfast buffet could be hotter, most of the hot dishes...I booked a double queen bed room on the top floor back on March 24. Upon checking in I was greeted by Ruth who was very friendly and professional. My status as a Platinum Elite IHG rewards club member was well recognized by her. RoomUpon entering my assigned room on the top floor I noticed some of the furniture like the desk and cocktail table where the coffemaker was placed was probably due for replacement. It was scuffed up from wear and tear. The air conditioning was a little bit more noisy than it should have been for a window unit but it didn't affect my sleep. My room also faced the freeway but the room had adequate sound insulation and I couldn't hear any freeway noises with the AC on. Besides that, the overall room was clean and after an hour later Ivan from front desk called to see how everything was. BreakfastBreakfast is held at the Asian Fusion restaurant located besides the lobby. It usually costs ~$15 a person. It offered a decent selection of fresh hot and cold food. I was pleasantly surprised to see a couple asian breakfast items like Soy milk, rice congee, asian toast, green onion pancakes, and chinese donuts for soymilk. The staff at the restaurant were also really attentive. The area for improvement though was that the food at the breakfast buffet could be hotter, most of the hot dishes on the buffet line were luke warmish. Overall, I would stay here again. The property is well-kept, the staff are well trained and are very polite, courteous, and attentive.More</t>
   </si>
   <si>
+    <t>MissBlue2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r363065222-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -986,6 +1091,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Ricardo S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r353342005-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1001,6 +1109,9 @@
     <t xml:space="preserve">The hotel is located right on the side of the freeway, easy access in and out of the area. There are many restaurants in the area in addition of the restaurant inside the hotel which we didn't try because we were craving something else. The front desk staff was very professional and friendly. The rooms are everything you expect from a Holiday inn, very clean, plenty of towells, toiletries, etc. Free parking and wifi access. It was packed but quiet for a weekend. We liked it. </t>
   </si>
   <si>
+    <t>BonkyConk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r347441205-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1022,6 +1133,9 @@
     <t>Lobby is welcoming, professional-feeling, clean, efficient, and well designed and decorated. Desk staff is very efficient at check-in and check-out.  Great location - easy on &amp; off I-10.  Free parking, &amp; within safe walking distance to a small mall &amp; fast foods + nice restaurants. Nearby BevMo's Friday night Wine Tasting is 4-7pm, and it's a fun neighborhood experience.  Our room on 5th floor (by request) was quiet and very comfortable. I have their Spire level membership, so we get free suite upgrades if available.  Nothing was available, so they gave us breakfast vouchers instead: The hotel restaurant is clean and nice - Chinese/American buffet - more spendy than I would spring for ($14.95), but free is good . . .  Breakfasts are the reason we prefer Holiday Inn Express over Holiday Inn, because breakfasts are always included at HIEx &amp; not at HI. HIEx breakfasts are always reliably tasty, fresh, and great variety.  But 15K points for a beautiful, clean room was reasonable enough - so we will probably stay here again next time we are in West Covina.More</t>
   </si>
   <si>
+    <t>Justneedreservations</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r347409407-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1034,6 +1148,9 @@
     <t>Spent a night here on business.  Front desk employees were very friendly and showed an eagerness to make the customer happy.  Much appreciated.  The room was a nice updated Typical Holiday Inn room.  Comfortable bed, TV, coffee maker, lots of outlets and free wifi.  Exactly what I need.  I only wish they supplied Shower gel instead of the soap.  This one's a keeper.</t>
   </si>
   <si>
+    <t>Katherine P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r345915807-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1049,6 +1166,9 @@
     <t>This was the first hotel I've stayed in where the staff member who checked me in remembered my name on sight - even the next day!  Clean room, great staff, free wi-fi and parking, AND RIGHT NEXT DOOR TO IKEA!</t>
   </si>
   <si>
+    <t>HunterWang</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r340557267-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1070,6 +1190,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Angela B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r338208722-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1097,6 +1220,9 @@
     <t>Our accommodation was payed well in advance, on arrival our booking could not be found.  The whole place is pld and dirty, key cards didnt work, had to re do them every day. 3 of us in a room for a week, we chased towels  everday, broken toilet for 2 days. The breakfast was disgusting, very poor quality, never again....More</t>
   </si>
   <si>
+    <t>disciple phil m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r336435795-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1112,6 +1238,9 @@
     <t>the staff was very friendly and professional service. the rooms were super clean and everything you need to have a pleasant stay. very clean and comfortable beds. My room was away from freeway which may explain a quiet night sleep.</t>
   </si>
   <si>
+    <t>just_eddie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r334649030-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1127,6 +1256,9 @@
     <t>Good location: low pricing gas station, supermarket, shopping center.....4.5 / 5Sleep Quality: a little noisy in the night as it faces the highway..........3/5Rooms: Clean, neat and tidy. Whatever I need is available in the room. 5/5.Service: Not too bad....but the receptionist staff didn't really explain some of the promotion like "kids eat free" clause. 3/5Value: Overall, I think I would come back again if I come to LA. 4.5 / 5Parking: FreeFacility: Ice &amp; Drinks Vending Machine, 24-hr Self-laundry</t>
   </si>
   <si>
+    <t>Monica O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r333100847-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1142,6 +1274,9 @@
     <t>Very clean and beds were comfortable.  I loved the down comforter and all the extra down pillows. We had a room with 2 queen beds. The only complaint I have is the first 2 nights, out of our 3 night stay, is there was a high school track team that had been making so much noise but once we notified the staff within 10 minutes the noise had stopped.  I'd definitely stay again since it was conveniently located near restaurants and the 10 freeway.</t>
   </si>
   <si>
+    <t>Julie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r332570435-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1160,6 +1295,9 @@
     <t>We were here on 12/5/15 for three night.  Friendly staff checked us in.  We were upgraded to a larger room with king size bed because my husband's IHG higher member.  Our room was face the interstate 10.  It was little bit noisy.  The room was clean and the lights were bright at night.  The bathroom was kind small and had a small area for the suitcase and a small closet.  The wi-fi was a pain,  had to sign in everyday.  There were two line but only one ( holidayinn) worked.  The breakfast " buffet" ok with limited selections.  You had to ask for orange juice and the waiter will bring you a whole bottle.  Definitely,  we will come back if we are in the LA area.More</t>
   </si>
   <si>
+    <t>935teresa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r319499593-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1178,6 +1316,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>TherealVman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r319192039-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1203,6 +1344,9 @@
   </si>
   <si>
     <t>Pretty standard HIE.  Check in folks were very nice and quickly had me on my way.  I was in L.A. during a hot spell and the AC was a little overmatched to the heat and humidity.  It kept cycling on and off and was a bit loud.Room was clean, a little worn.  Since this is a Holiday Inn, no free breakfast.  So I went to Marie Callenders, next door.With the exception for the A/C, the road noise didn't intrude.More</t>
+  </si>
+  <si>
+    <t>Diane M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r314675172-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -1237,6 +1381,9 @@
 We cut our day short &amp; canceled dinner plans out of exhaustion due to lack of sleep &amp; went back to the room at 7:30...Beware of Bed Bugs!!!We checked in on 9/9 for 3 nights around 9:45 pm.  About an hour later, I went to the bathroom &amp;  noticed a small spot on the towel bath mat but thought it was dirt. I then saw it move. I bent down to take a closer look &amp; it looked like a bed bug but I wasn't sure since I have never seen one, only on the news. We looked it up online and it was indeed a bed bug.I placed a cup over it and we took it down to the front desk. We spoke with  the supervisor and asked her to give us a new room. She switched us to another room 2 floors down and comped a couple of loads of laundry. She also told us that she would comp our stay. We left and repacked our stuff and moved it to the new room. We researched how to look for bed bugs &amp; spent a lot of time tearing the room apart &amp; putting it back together. We didn't finish until 2 am. With everything going on we had a hard time sleeping &amp; didn't fall asleep until 4 am. Then at about 9:15 am, the fire alarm went off &amp; we were woken up. We cut our day short &amp; canceled dinner plans out of exhaustion due to lack of sleep &amp; went back to the room at 7:30 only to find that our room was not serviced. So let me get this straight, a guest found a bed bug &amp; your solution is to no longer do a lousy job cleaning but to just not clean the room at all!?!I called the front desk and clerk didn't really seem to care &amp; tried to put the blame on me by accusing me of leaving the DND sign on. I told her that was not the case. She then told me that she could schedule a cleaning first thing in the morning. I'm not exactly sure how that resolves my issue since the room is supposed to be cleaned daily. She offered to send towels, toiletries &amp; linens &amp; told me that I had to put the linens on myself. On Saturday morning, I got the receipt and only 1 day was comped so I went to the front desk. I spoke with the same supervisor and she told me that she may have said that but that she didn't realize that we were staying for 3 nights and that she only meant it for 1 night. I explained some of what happened afterwards and told her that it was pretty serious and that she should comp the other 2 nights especially since that is what she said in the first place. She said that she would talk to her boss. When I came back, she told me that her boss looked us up and that he found out that we are rewards members and would be receiving a survey. Unfortunately, due to trip advisor restrictions, I can't mention the shady practices that followed afterwards but trust me when I tell you that they are bullies and your jaw will drop with what happened next. She ended up comping the 2 days reluctantly after going back and forth for a while and after I stood my ground, again think questionable business practices.As she was doing so, I advised her that she should have a conversation with the housekeeping staff because if they would have cleaned my room properly, I would have never found the bed bug and we would not be having this conversation.Overall we had a pretty miserable time at this location. The amount of time that it took away from our trip is unacceptable. The aggravation we went through not only by finding a bed bug but with the way this was all handled by the judgmental, indifferent, and careless staff as well as feeling bullied is absolutely unacceptable. Also, the management does not take ownership of what happened and will instead point the finger at you and accuse you of bringing in the bed bug. I got a response from the business manager on another review site and was basically told that if the bed bug was not found in the bed or head board and if it had not eaten then there is no way it came from their property. Does that make any sense to you? If you do a bit or research, you will see that there is nothing about them having to be full in order to be from a certain property and they don't only hide in beds. They can get into your luggage, they can hide in drawers, nearby furniture and even around pipes (water, drain, electrical). They can also move from room to room by riding on cloth just like the towel bath mat that we found it on. Just the sheer lack of knowledge about bed bugs that these people in the hotel industry have should send you running to another hotel. This is not the place for you.More</t>
   </si>
   <si>
+    <t>teresa0823</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r302024287-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1255,6 +1402,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Dawna O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r290934347-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1273,6 +1423,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>BaleTula</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r289823162-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1288,6 +1441,9 @@
     <t>Management photos do not lie. High quality sheets. Very clean rooms. Microwave and mini refrigerators in rooms. Perky customer service. However, Trip Advisor needs to correct that free breakfast is included BECAUSE Breakfast IS NOT FREE!!! The only thing free is Iced Lemon Water in the lobby.</t>
   </si>
   <si>
+    <t>Mike W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r285201522-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1312,6 +1468,9 @@
     <t>Wonderful new hotel in west covina, next to many named shopping stores, there's 4 more hotels here, but this is the one you should choose.Nice restaurant serving American breakfast and Chinese Dinner, more and much more restaurant near by.2 minuts to highway 10 exit. access to many famus city here, close to Ontario airport, and big shopping mall.Staffs very friendly, the management work very hard to give you home away from home feeling.I like this hotel a lot!More</t>
   </si>
   <si>
+    <t>Clint A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r284377852-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1333,6 +1492,9 @@
     <t>I spent a week here recently for an event that had us working very long days so my time in the room was mostly to sleep. The room was spacious and comfortable. It was on the ground floor which I expected to be noisy since I was only a couple doors down from the elevator but I had no issues. Location was reasonable walking distance to several restaurants and shopping. The staff was helpful and accommodating. I would stay here again. There were a couple of spots in the room that had not been cleaned as well as I would have liked but nothing worthy of me complaining about to the mgmt.More</t>
   </si>
   <si>
+    <t>Aerovergalineas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r275105028-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1360,6 +1522,9 @@
     <t>Was here specifically to visit my mother. She had been staying here for a day or so. My room was at the end of the hall #327. a bit pricy $129, but very adequate. small bathroom, but very generous sized room. and "view" out the window of a Ficus tree and Fairfield inn by marriott next door.  nice touch with the Green lighting accent at night.More</t>
   </si>
   <si>
+    <t>charlesodonnell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r265577585-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1387,6 +1552,9 @@
     <t>Nice rooms that were clean and comfortable as well as quiet. This holiday inn also has a restaurant and we found the food to be very good and inexpensive. Would definitely consider staying here again. One block from shopping mall and many restaurants as well as close to freeway on-ramps and off-ramps. 20 minutes from Ontario airport.More</t>
   </si>
   <si>
+    <t>John K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r259174078-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1408,6 +1576,9 @@
     <t>We hoped for a nice place when made the reservation.  Check-in was a breeze.  The room was clean, comfortable, and well appointed.  While close to the freeway, the was no noise in the room.  The restaurant was nice, reasonably priced, with a good selection.  I would definitely stay there again.More</t>
   </si>
   <si>
+    <t>VietTravelers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r258041924-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1426,6 +1597,9 @@
     <t>At first I thought that I would get free breakfast like I normally got at HI. We are Platinum member with IHG and they forgot to give us any amenities. Not even bottle water or Welcome Bonus Points. The property was clean and nice. The room was spacious enough for us. But the hotel was completely booked with kids. I think they had an event or something for their school.More</t>
   </si>
   <si>
+    <t>Karen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r238666826-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1453,6 +1627,9 @@
     <t>While checking in I was asked if I booked through Holiday Inn or Expedia and truthfully I couldn't remember. Later I did recall that I did book through Travelocity because I wanted the option to cancel if needed. I had to laugh but at the same time I was extremely frustrated when I was trying to get ready in the "closet" bathroom. Imagine putting your hip out because you were leaning over the toilet to see in the mirror. At one point I ended up hanging the toilet paper roll on the door latch because it was more convenient there than behind me. I was also placed in a room at the end of the hall which of course was by an exit door with a spring loaded closing feature. SLAM...SLAM...etc. On a more positive note: The room was clean, the bed was comfortable and I would recommend them to a friend.More</t>
   </si>
   <si>
+    <t>Trish P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r233973890-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1478,6 +1655,9 @@
   </si>
   <si>
     <t>We had an unplanned stay here recently, without a single piece of luggage, and the staff more than accommodated for us! As a family of four, we were given all of the complimentary toiletries and even took advantage of the guest laundry facilities. Front desk staff was excellent and very helpful. Rooms were also very clean and comfortable. We'd stay again for sure, but next time, we'll come prepared! :-)More</t>
+  </si>
+  <si>
+    <t>deepthoughts</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r233536829-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -2003,43 +2183,47 @@
       <c r="A2" t="n">
         <v>155</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>193273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2051,56 +2235,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>155</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>193274</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2112,56 +2300,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>155</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>8743</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2173,56 +2365,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>155</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>193275</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2234,56 +2430,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>155</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>193276</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2299,56 +2499,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>155</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>2429</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2360,56 +2564,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>155</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>193277</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2423,50 +2631,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>155</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>34173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2484,50 +2696,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>155</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>193278</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2539,56 +2755,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>155</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>193279</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2600,56 +2820,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>155</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>193280</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2661,56 +2885,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>155</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>193281</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2728,56 +2956,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>155</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>193282</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2795,56 +3027,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>155</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>21322</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2862,56 +3098,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>155</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>55506</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2927,56 +3167,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>155</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>193283</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2994,56 +3238,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="X17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>155</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>193284</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3055,56 +3303,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="X18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>155</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>17545</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3122,56 +3374,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="X19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="Y19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>155</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>190974</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3187,56 +3443,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="X20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Y20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>155</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>193285</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3248,56 +3508,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>155</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>193286</v>
+      </c>
+      <c r="C22" t="s">
+        <v>231</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="O22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3315,56 +3579,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="X22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>155</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>193287</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3376,56 +3644,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="X23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="Y23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>155</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>193288</v>
+      </c>
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="L24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3443,56 +3715,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="X24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="Y24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>155</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>584</v>
+      </c>
+      <c r="C25" t="s">
+        <v>259</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="L25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3510,56 +3786,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="X25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>155</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>9091</v>
+      </c>
+      <c r="C26" t="s">
+        <v>268</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="J26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="K26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3577,56 +3857,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="X26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>155</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>47537</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3638,56 +3922,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="X27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>155</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>287</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3699,56 +3987,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="X28" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="Y28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>155</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>193289</v>
+      </c>
+      <c r="C29" t="s">
+        <v>295</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3760,56 +4052,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="X29" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="Y29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>155</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>303</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="L30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3821,56 +4117,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="X30" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="Y30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>155</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>12060</v>
+      </c>
+      <c r="C31" t="s">
+        <v>310</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="J31" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="O31" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3890,50 +4190,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>155</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C32" t="s">
+        <v>315</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3951,47 +4255,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="X32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="Y32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>155</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>38246</v>
+      </c>
+      <c r="C33" t="s">
+        <v>325</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="J33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="K33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
@@ -4008,56 +4316,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="X33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="Y33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>155</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>193290</v>
+      </c>
+      <c r="C34" t="s">
+        <v>334</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="J34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="L34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4077,50 +4389,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>155</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>81510</v>
+      </c>
+      <c r="C35" t="s">
+        <v>340</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="J35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="K35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="L35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4138,50 +4454,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>155</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>193291</v>
+      </c>
+      <c r="C36" t="s">
+        <v>348</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="J36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="K36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="L36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4195,50 +4515,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>155</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>118477</v>
+      </c>
+      <c r="C37" t="s">
+        <v>355</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="J37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="K37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="L37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4252,50 +4576,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>155</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>193292</v>
+      </c>
+      <c r="C38" t="s">
+        <v>361</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="K38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="L38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4313,50 +4641,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>155</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>54887</v>
+      </c>
+      <c r="C39" t="s">
+        <v>369</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="J39" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="K39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="L39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="O39" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4376,50 +4708,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>155</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>44636</v>
+      </c>
+      <c r="C40" t="s">
+        <v>374</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="J40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="K40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="L40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4439,50 +4775,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>155</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>193293</v>
+      </c>
+      <c r="C41" t="s">
+        <v>380</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="J41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="K41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="L41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="O41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4496,50 +4836,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>155</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>1099</v>
+      </c>
+      <c r="C42" t="s">
+        <v>388</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="J42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="K42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="L42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4555,56 +4899,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="X42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="Y42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>155</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>193294</v>
+      </c>
+      <c r="C43" t="s">
+        <v>398</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="J43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="K43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="L43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -4622,50 +4970,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>155</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>193295</v>
+      </c>
+      <c r="C44" t="s">
+        <v>404</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="J44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="K44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="L44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -4685,50 +5037,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>155</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>3957</v>
+      </c>
+      <c r="C45" t="s">
+        <v>410</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="J45" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="K45" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="L45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="O45" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4748,50 +5104,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>155</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>10047</v>
+      </c>
+      <c r="C46" t="s">
+        <v>416</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="J46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="K46" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="L46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4805,50 +5165,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>155</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>193296</v>
+      </c>
+      <c r="C47" t="s">
+        <v>423</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="J47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="K47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="L47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -4868,50 +5232,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>155</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>193297</v>
+      </c>
+      <c r="C48" t="s">
+        <v>430</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="J48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="K48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="O48" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -4929,56 +5297,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="X48" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="Y48" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>155</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>4142</v>
+      </c>
+      <c r="C49" t="s">
+        <v>440</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="J49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="K49" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="L49" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="O49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4994,56 +5366,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="X49" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="Y49" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>155</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>193298</v>
+      </c>
+      <c r="C50" t="s">
+        <v>449</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="J50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="K50" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="L50" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5057,50 +5433,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>155</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>193299</v>
+      </c>
+      <c r="C51" t="s">
+        <v>456</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J51" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="K51" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="L51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="O51" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -5118,50 +5498,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>155</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>193300</v>
+      </c>
+      <c r="C52" t="s">
+        <v>463</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="J52" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="K52" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="L52" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5175,50 +5559,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>155</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C53" t="s">
+        <v>469</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="J53" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="K53" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="L53" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5230,56 +5618,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="X53" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="Y53" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>155</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>193301</v>
+      </c>
+      <c r="C54" t="s">
+        <v>478</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="J54" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="K54" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="L54" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="O54" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -5297,56 +5689,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="X54" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="Y54" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>155</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>193302</v>
+      </c>
+      <c r="C55" t="s">
+        <v>486</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="J55" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="K55" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="L55" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5364,56 +5760,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="X55" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="Y55" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>155</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>193303</v>
+      </c>
+      <c r="C56" t="s">
+        <v>496</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="J56" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="K56" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="L56" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="O56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5431,56 +5831,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="X56" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="Y56" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>155</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C57" t="s">
+        <v>506</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="J57" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="K57" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="L57" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="O57" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -5498,56 +5902,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="X57" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="Y57" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>155</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>193304</v>
+      </c>
+      <c r="C58" t="s">
+        <v>514</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="J58" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="K58" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="L58" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="O58" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5565,56 +5973,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="X58" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="Y58" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>155</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>10035</v>
+      </c>
+      <c r="C59" t="s">
+        <v>521</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="J59" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="K59" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="L59" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
       <c r="O59" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -5630,56 +6042,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="X59" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="Y59" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>155</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>29578</v>
+      </c>
+      <c r="C60" t="s">
+        <v>531</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="J60" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="K60" t="s">
-        <v>476</v>
+        <v>535</v>
       </c>
       <c r="L60" t="s">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -5697,56 +6113,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="X60" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="Y60" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>155</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>193305</v>
+      </c>
+      <c r="C61" t="s">
+        <v>541</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
       <c r="J61" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="K61" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="L61" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="O61" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -5762,13 +6182,13 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="X61" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="Y61" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_390.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_390.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="779">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,138 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>TheHungryPanda</t>
-  </si>
-  <si>
-    <t>07/04/2018</t>
+    <t>09/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r615138211-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>33250</t>
+  </si>
+  <si>
+    <t>82571</t>
+  </si>
+  <si>
+    <t>615138211</t>
+  </si>
+  <si>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>I have enjoyed my stay. The staff have been very pleasant and professional and attentive. Alexus took care of me at check in and surprised us with a call to ensure everything was fine with our accomdations.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r609457515-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>609457515</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passing through </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My partner and I were passing through and stayed at this Holiday Inn. We never pass judgment with Holiday Inns because usually they are clean and have comfortable beds and for this time is was consistent. We were very comfortable staying here and the staff are all friendly. They have a restaurant, pool, and gym. There is about 4 other hotels on the same street, I recommend this place. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r613525935-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>613525935</t>
+  </si>
+  <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>Group/Team</t>
+  </si>
+  <si>
+    <t>Stayed here over the Labor Day weekend 2018. Awesome stay. Staff and GM are wonderful. Good food. Good Happy Hour. Close to shopping and restaurants. Will definitely be back. James the GM was there to greet us and was very attentive to our needs and requests. See you next time!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r603620881-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>603620881</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Emergency Stay</t>
+  </si>
+  <si>
+    <t>So we decided to remodel our home right before the Christmas holidays. Thinking it would be a few days to get our home insulated we decided to stay at the holiday inn. It was so good, the kids really enjoyed the stay there. The staff was friendly, rooms were great. Only thing I’d wished for was free breakfast like their other chains. But overall it was great. We’ve stayed there many times</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r599827727-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>599827727</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Clean, comfortable rooms, convenient location</t>
+  </si>
+  <si>
+    <t>Stayed here 3 nights in Jul 2018. The room was a good size, clean, and the bed was very comfortable.  It was a hot summer weekend so I really appreciated the fact that the airconditioner worked perfectly well.  Staff were extremely polite and helpful throughout my stay.Other + points: convenient location, just off a highway, and walking distance to a dozen restaurants and a couple of gas stations, free parking, free coffee and muffins in the morningSome - points: I'd wanted to use the pool but it was full of kids each day I was there</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r587693369-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>587693369</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>A well-maintained hotel</t>
+  </si>
+  <si>
+    <t>This hotel is located strategically in West Covina with just less than an hour away from downtown LA and other attractions. The staff are friendly and can cater to our needs. Not to mention, there are coin laundry present which makes this hotel even better. The hotel itself was really clean, though the decor was a bit outdated. Nevertheless, my family and I enjoyed our stay here in Holiday Inn West Covina.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r585227494-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
-    <t>33250</t>
-  </si>
-  <si>
-    <t>82571</t>
-  </si>
-  <si>
     <t>585227494</t>
   </si>
   <si>
@@ -180,21 +297,15 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2018</t>
   </si>
   <si>
     <t>Hotel is well maintained. Has a Chinese restaurant with breakfast buffet. Free parking. Close to freeway. It can get a little noisey but you won't really notice if you sleep with the AC or tv on. Naomi checked me in at the front desk and was very friendly, welcoming, and professional. She recognized my IHG rewards club platinum elite status and was able to accommodate my request. The executive bedroom is basically a junior suite. It was roomy and spacious, had a sofa bed and king bed with mini fridge and big flat screen TV on the top floor. Furniture in here was in good condition, nothing beat up or worn. Thanks Naomi for taking care of me during this stay. -DustinMore</t>
   </si>
   <si>
-    <t>KuoLM007</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r582856867-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -210,9 +321,6 @@
     <t>Not too far to LA and the airport. Good value for money. Reasonable breakfast for 12.99. Two large beds (very comfortably); large rooms. Rooms facing highway might be little noisy. Friendly staff at reception MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded May 27, 2018</t>
   </si>
   <si>
@@ -222,9 +330,6 @@
     <t>Not too far to LA and the airport. Good value for money. Reasonable breakfast for 12.99. Two large beds (very comfortably); large rooms. Rooms facing highway might be little noisy. Friendly staff at reception More</t>
   </si>
   <si>
-    <t>Wendy L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r582827462-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -240,7 +345,79 @@
     <t>We had a nice stay at this spot- parking was easy, check-in smooth. Our check-in staff member, Jordan, was friendly and welcoming! Our room looked recently updated and our kiddos liked the products coconut lime :) -reminded us of the tropics. Room had everything we needed. We will consider staying again next time we are in the area!More</t>
   </si>
   <si>
-    <t>Waltinho R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r556732957-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>556732957</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>Very nice option if you're willing to drive a bit ...</t>
+  </si>
+  <si>
+    <t>As we were checking multiple places all over LA during our holidays, we decided to stay in a hotel out of central LA, or LAX. This Hotel was a very good place to stay, with a modern building, nice Wi-Fi, breakfast and a lot of parking options at a reasonable rate. You have Wal-Mart, Target and some other stores at a very near drive from there. Only recommendation is to be aware of distances in LA, we were renting a car and enjoying driving on those freeways but have in mind there might be a little bit of driving and traffic to go to some destinations. In summary a very good place to stay with a family, price is very competitive even compared to some other Holiday Inns in LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>As we were checking multiple places all over LA during our holidays, we decided to stay in a hotel out of central LA, or LAX. This Hotel was a very good place to stay, with a modern building, nice Wi-Fi, breakfast and a lot of parking options at a reasonable rate. You have Wal-Mart, Target and some other stores at a very near drive from there. Only recommendation is to be aware of distances in LA, we were renting a car and enjoying driving on those freeways but have in mind there might be a little bit of driving and traffic to go to some destinations. In summary a very good place to stay with a family, price is very competitive even compared to some other Holiday Inns in LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r549026732-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>549026732</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Welcome site at the end of a long drive</t>
+  </si>
+  <si>
+    <t>This was not as easy to locate off the interstate coming from the west as it was getting back on but then that just might have been us.  Super easy to get back on the interstate headed east. Nice hotel and I went with 4 stars only because we checked in late and left super early so we didn't use much of the hotel amenities (pool exercise room)Nice clean room very spacious too. The bathroom was quite tiny though. The place had the best shower head of all the hotels we stay at on our 2 weeks out. Large closet area and nice seating area with foot stool allowing 3 people to sit without being on a bed. I liked the bench area for multiple suitcases as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2017</t>
+  </si>
+  <si>
+    <t>This was not as easy to locate off the interstate coming from the west as it was getting back on but then that just might have been us.  Super easy to get back on the interstate headed east. Nice hotel and I went with 4 stars only because we checked in late and left super early so we didn't use much of the hotel amenities (pool exercise room)Nice clean room very spacious too. The bathroom was quite tiny though. The place had the best shower head of all the hotels we stay at on our 2 weeks out. Large closet area and nice seating area with foot stool allowing 3 people to sit without being on a bed. I liked the bench area for multiple suitcases as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r548703709-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>548703709</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>One of the Best</t>
+  </si>
+  <si>
+    <t>I love this Holiday Inn.  This was my first stay at this one, but it won't be my last.  The location is excellent.  It is conveniently located next to LA Fitness, restaurants and shopping.The hotel has a nice bar and eating facility.  Large rooms and was very clean.  My interaction with staff was wonderful, they were very cordial and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded December 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2017</t>
+  </si>
+  <si>
+    <t>I love this Holiday Inn.  This was my first stay at this one, but it won't be my last.  The location is excellent.  It is conveniently located next to LA Fitness, restaurants and shopping.The hotel has a nice bar and eating facility.  Large rooms and was very clean.  My interaction with staff was wonderful, they were very cordial and helpful.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r545782315-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -258,12 +435,6 @@
     <t>The hotel is great for business travelers, well located close to malls, market and restaurants. The staff makes the difference, thanks for the ladies at front desk for the great support during my staying. Breakfast is common US style, clean and affordable. MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded December 8, 2017</t>
   </si>
   <si>
@@ -273,9 +444,6 @@
     <t>The hotel is great for business travelers, well located close to malls, market and restaurants. The staff makes the difference, thanks for the ladies at front desk for the great support during my staying. Breakfast is common US style, clean and affordable. More</t>
   </si>
   <si>
-    <t>barronbjjs</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r542453528-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -303,9 +471,6 @@
     <t>My rating would be average. The hotel is very busy, a lot of people but not noisy. Rooms were big but could use some deep cleaning. Mattresses were old but I slept well. I received a great rate on my room and would stay again if the price was right. Francine at the front desk was very nice and gracious, she made check in easy.More</t>
   </si>
   <si>
-    <t>Charles E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r539786335-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -330,7 +495,59 @@
     <t>Delivers a solid room at a fair price.  Nice outdoor seating and pool deck.  Updated.  Friendly staff.  Efficient check-in. No significant complaints.   Very minor isue but noticed - 1st floor hallway carpeting starting to show signs of wear and separating at seams.More</t>
   </si>
   <si>
-    <t>LikaKS</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r534126420-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>534126420</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Few days in LA before Vegas </t>
+  </si>
+  <si>
+    <t>We have stayed in many Holiday inns over the world and found some not to be up to standard. Luckily this isn't one of them. Fantastic room and very comfortable beds. We were greeted after a loooong delayed flight from the UK by a lovely member of staff called Jesse. He was very friendly and could tell we were exhausted and made it a smooth check in for us.My only negative is that I am a light sleeper and found the constant sound of traffic in LA abit of a nightmare. I purchased ear plugs but it didn't help. If you are a light sleeper try and request a room away from the freeway as it is constant and it did really interrupt my sleep. Other than that a great experience and will be back MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed in many Holiday inns over the world and found some not to be up to standard. Luckily this isn't one of them. Fantastic room and very comfortable beds. We were greeted after a loooong delayed flight from the UK by a lovely member of staff called Jesse. He was very friendly and could tell we were exhausted and made it a smooth check in for us.My only negative is that I am a light sleeper and found the constant sound of traffic in LA abit of a nightmare. I purchased ear plugs but it didn't help. If you are a light sleeper try and request a room away from the freeway as it is constant and it did really interrupt my sleep. Other than that a great experience and will be back More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r531441948-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>531441948</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>We have stayed here several times. Rarely an issue and a great hotel fitting our needs when we visit our family in the area. Unfortunately, for the second visit in a row, we have requested a "King Size Room" anticipating what is advertised. Instead, we have received the King suite at the end of the hallways greatly compromised by the stairwells. We made our last reservation a week in advance and specifically requested NOT to be put in the room at the end of the hallway, compromised by the stairwell. These rooms have the elements of the bathroom literally squished into a small space. Same with the main area of the room. Ridiculously small. 
+I even informed the reservation agent that we would be arriving late in the night, and, we DID NOT WANT ONE OF THESE ROOMS! I also called the front desk the night of our travel saying when we would be arriving and to not assign us one of these rooms.
+Well, sorry, we again were assigned the "Shrunk Down" King Suite. I called the guy at the desk. He said sorry, this was our last room and there wasn't anything he could do. He did say we could change rooms the next day and we would be getting a call to do so. The call never came. The fact that this is the last room given out means that HI knows this is a crappy room....We have stayed here several times. Rarely an issue and a great hotel fitting our needs when we visit our family in the area. Unfortunately, for the second visit in a row, we have requested a "King Size Room" anticipating what is advertised. Instead, we have received the King suite at the end of the hallways greatly compromised by the stairwells. We made our last reservation a week in advance and specifically requested NOT to be put in the room at the end of the hallway, compromised by the stairwell. These rooms have the elements of the bathroom literally squished into a small space. Same with the main area of the room. Ridiculously small. I even informed the reservation agent that we would be arriving late in the night, and, we DID NOT WANT ONE OF THESE ROOMS! I also called the front desk the night of our travel saying when we would be arriving and to not assign us one of these rooms.Well, sorry, we again were assigned the "Shrunk Down" King Suite. I called the guy at the desk. He said sorry, this was our last room and there wasn't anything he could do. He did say we could change rooms the next day and we would be getting a call to do so. The call never came. The fact that this is the last room given out means that HI knows this is a crappy room. You should tell the customer that and at least offer a discount. DONT TELL THE CUSTOMER YOU WILL DO SOMETHING and then DONT DO IT! Super disappointing!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn West Covina, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed here several times. Rarely an issue and a great hotel fitting our needs when we visit our family in the area. Unfortunately, for the second visit in a row, we have requested a "King Size Room" anticipating what is advertised. Instead, we have received the King suite at the end of the hallways greatly compromised by the stairwells. We made our last reservation a week in advance and specifically requested NOT to be put in the room at the end of the hallway, compromised by the stairwell. These rooms have the elements of the bathroom literally squished into a small space. Same with the main area of the room. Ridiculously small. 
+I even informed the reservation agent that we would be arriving late in the night, and, we DID NOT WANT ONE OF THESE ROOMS! I also called the front desk the night of our travel saying when we would be arriving and to not assign us one of these rooms.
+Well, sorry, we again were assigned the "Shrunk Down" King Suite. I called the guy at the desk. He said sorry, this was our last room and there wasn't anything he could do. He did say we could change rooms the next day and we would be getting a call to do so. The call never came. The fact that this is the last room given out means that HI knows this is a crappy room....We have stayed here several times. Rarely an issue and a great hotel fitting our needs when we visit our family in the area. Unfortunately, for the second visit in a row, we have requested a "King Size Room" anticipating what is advertised. Instead, we have received the King suite at the end of the hallways greatly compromised by the stairwells. We made our last reservation a week in advance and specifically requested NOT to be put in the room at the end of the hallway, compromised by the stairwell. These rooms have the elements of the bathroom literally squished into a small space. Same with the main area of the room. Ridiculously small. I even informed the reservation agent that we would be arriving late in the night, and, we DID NOT WANT ONE OF THESE ROOMS! I also called the front desk the night of our travel saying when we would be arriving and to not assign us one of these rooms.Well, sorry, we again were assigned the "Shrunk Down" King Suite. I called the guy at the desk. He said sorry, this was our last room and there wasn't anything he could do. He did say we could change rooms the next day and we would be getting a call to do so. The call never came. The fact that this is the last room given out means that HI knows this is a crappy room. You should tell the customer that and at least offer a discount. DONT TELL THE CUSTOMER YOU WILL DO SOMETHING and then DONT DO IT! Super disappointing!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r530914054-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -348,9 +565,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>Ralph S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r529197469-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -369,9 +583,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>Bklynbee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r526648565-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -396,7 +607,40 @@
     <t>A nice surprise for an overnight stay.  Prior to flying to LA we knew we would be checking in late so I called the hotel a few days before to confirm that this would not be a problem and the person who answered the phone was extremely helpful.  She was able to tell me the hotel's policy as well as advise me that she put a note in our reservation and then prior to hanging up even wished me a safe flight.  We arrived at the hotel and checked in around 10:30 pm and the front desk staff was welcoming and eager to accommodate us.  The hotel is conveniently located right off the highway next to another hotel and shopping/dining area.  The hotel and our room was very clean and quite; I would stay at this property again.More</t>
   </si>
   <si>
-    <t>Chloeme5</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r524610871-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>524610871</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is right off the 10 Interstate, but is very quiet.   There isn't a smaller set of elevators in any hotel.  I was there 10 nights and never got used to how tiny they were.  I would use the stairs (I was on the 4th floor) but they dropped you outside, and I would have to use my key to come in.  The bathroom in my room was also small - you had to have the door closed to get out of the shower.I never had a problem with finding a place to park, which was nice.  This hotel caters to Asians.  You had the American breakfast (very expansive and good selection but also rice oatmeal (for lack of a better description) with beef something and bamboo shoots to put on top.  There was always a huge bowl of freshly cut mixed fruit.  The breakfast staff was over the top friendly, and I looked forward to seeing them every morning.  The rooms did have coffee makers, fridges (with a freezer - yay!), and microwaves.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is right off the 10 Interstate, but is very quiet.   There isn't a smaller set of elevators in any hotel.  I was there 10 nights and never got used to how tiny they were.  I would use the stairs (I was on the 4th floor) but they dropped you outside, and I would have to use my key to come in.  The bathroom in my room was also small - you had to have the door closed to get out of the shower.I never had a problem with finding a place to park, which was nice.  This hotel caters to Asians.  You had the American breakfast (very expansive and good selection but also rice oatmeal (for lack of a better description) with beef something and bamboo shoots to put on top.  There was always a huge bowl of freshly cut mixed fruit.  The breakfast staff was over the top friendly, and I looked forward to seeing them every morning.  The rooms did have coffee makers, fridges (with a freezer - yay!), and microwaves.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r523588767-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>523588767</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Nice rooms, great service</t>
+  </si>
+  <si>
+    <t>The rooms are really nice and the counter service was excellent. Nice pool area i was very happy with my stay. The bathroom could have been a little better but thats nit picking. Room service closes at 10pm but there are close by restaurants and bars so the location is very good</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r515699806-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -414,9 +658,6 @@
     <t>This was my first visit to a Holiday Inn. It met my simple expectations for a one night stay. The check in was quick &amp; easy, staff is friendly, room was clean and bed was comfortable bed. I also liked that there was a microwave and mini fridge available. We stayed on the highest floor (level 5) facing the neighboring hotel. Didn't notice any freeway noise, but we heard some loud guests that were yelling in the parking lot. The walls seem to insulate most noise it didn't shield any noise from foot traffic in the hallway. It's a comfortable set up for 1-2 people but the bathroom is extremely small. Only enough room for 1 person to stand in the bathroom at a time.Huge plus is that it's right off the 10 freeway next to a breadth of shopping and food options that are a walkable distance. It was a convenient option and I will consider coming back if I need a play to stay in this area. MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded August 22, 2017</t>
   </si>
   <si>
@@ -426,9 +667,6 @@
     <t>This was my first visit to a Holiday Inn. It met my simple expectations for a one night stay. The check in was quick &amp; easy, staff is friendly, room was clean and bed was comfortable bed. I also liked that there was a microwave and mini fridge available. We stayed on the highest floor (level 5) facing the neighboring hotel. Didn't notice any freeway noise, but we heard some loud guests that were yelling in the parking lot. The walls seem to insulate most noise it didn't shield any noise from foot traffic in the hallway. It's a comfortable set up for 1-2 people but the bathroom is extremely small. Only enough room for 1 person to stand in the bathroom at a time.Huge plus is that it's right off the 10 freeway next to a breadth of shopping and food options that are a walkable distance. It was a convenient option and I will consider coming back if I need a play to stay in this area. More</t>
   </si>
   <si>
-    <t>matteoquattro</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r514077909-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -453,9 +691,6 @@
     <t>This hotel is in the lower range of Holiday Inn Express. While it is reasonably clean, it has several flaws. First of all, an ominous sign in the parking lot warning that the materials used for the hotel can cause serious diseases, I didn't understand why that sign would be there and the hotel remain open. Second, the air conditioning in the room is really bad. When we arrived it was off and the room really warm, after maintenance came to fix it, we discovered it could only be constantly on at full blast, or on and off, but always at full blast. Lastly, the hotel is literally on the highway, it would be noisy, if we could hear the cars over the sound of our air conditioning at full blast. There's plenty of other brand hotels around, go there instead. More</t>
   </si>
   <si>
-    <t>dad75</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r509506539-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -480,7 +715,55 @@
     <t>I had an early meeting in Pomona, so I flew in the night before and needed a place to stay.  Honestly, I didn't do much besides sleep, but the hotel staff was very helpful and friendly, the room was good sized and comfortable, and the hotel is in a good location.  There are a lot of places to eat and shop nearby, and the hotel is right off the freeway and very easy to access.More</t>
   </si>
   <si>
-    <t>Top_Tourer_2009</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r508475689-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>508475689</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid </t>
+  </si>
+  <si>
+    <t>Initial first impression was that the hotel could use some sprucing up and brightening. However I was more than pleased with my overall 6 day stay, and so much so that we decided to stay here again. The room is clean, the beds are comfortable, the bathroom is nice, and the shower water pressure good. Housekeeping staff is excellent. One particular staff member really took the time to really tidy up our room, even wrapping up the cell phone cord chargers neatly and decluttering the bathroom sink. I thought that was awesome! The pool was clean and not crowded. I like the gazebo area. Breakfast was only free for kids but I thought the selection was great. I used the fitness center daily, and the machines were fine. We are here again this week, and on the first day, after waking up at 230 am for a 530 am flight and getting in at LAX at 830, we were able to check in to the hotel at 11am. Thank you Holiday Inn West Covina! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Initial first impression was that the hotel could use some sprucing up and brightening. However I was more than pleased with my overall 6 day stay, and so much so that we decided to stay here again. The room is clean, the beds are comfortable, the bathroom is nice, and the shower water pressure good. Housekeeping staff is excellent. One particular staff member really took the time to really tidy up our room, even wrapping up the cell phone cord chargers neatly and decluttering the bathroom sink. I thought that was awesome! The pool was clean and not crowded. I like the gazebo area. Breakfast was only free for kids but I thought the selection was great. I used the fitness center daily, and the machines were fine. We are here again this week, and on the first day, after waking up at 230 am for a 530 am flight and getting in at LAX at 830, we were able to check in to the hotel at 11am. Thank you Holiday Inn West Covina! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r507090543-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>507090543</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>NICE CLEAN HOTEL</t>
+  </si>
+  <si>
+    <t>We were on group tour to USA and travelled a lot.  Whilst visiting Los Angeles had a great stay at the HOLIDAY INN West Covina. Location was great right off the Freeway. Close to the Mall, and great restaurants The rooms were very comfortable and had everything we needed. Breakfast was included with our booking which was more than adequate. The staff was really helpful staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>We were on group tour to USA and travelled a lot.  Whilst visiting Los Angeles had a great stay at the HOLIDAY INN West Covina. Location was great right off the Freeway. Close to the Mall, and great restaurants The rooms were very comfortable and had everything we needed. Breakfast was included with our booking which was more than adequate. The staff was really helpful staff.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r506936856-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -504,15 +787,9 @@
     <t>HIWCManagement, Manager at Holiday Inn West Covina, responded to this reviewResponded August 1, 2017</t>
   </si>
   <si>
-    <t>Responded August 1, 2017</t>
-  </si>
-  <si>
     <t>Good location.I paid with IHG points so cannot really comment on the price.The breakfast was good.Free parking was good.Very safe locationStaff were excellent and helpful providing very good adviceand some cost saving tips,Well recommended.More</t>
   </si>
   <si>
-    <t>JFKMichael</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r492871971-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -534,9 +811,6 @@
     <t>It was right on the 10, makes for easy access to head into downtown LA, or Orange County. This was such a great stay, the room was super clean, it was a newer hotel, a restaurant in the building for easy access, and the most handsome blonde overnight boy at the front desk I've ever seen (J)! The staff was very kind, friendly, and welcoming. I would recommend staying here a thousand times over. There are several restaurants within walking distance, Hooters, Marie Calendars, etc.More</t>
   </si>
   <si>
-    <t>Cindy L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r488345344-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -552,12 +826,6 @@
     <t>I booked this room on a discount website for under $100.  For that price it was excellent. Very clean, super friendly hotel staff, decent pool but no hot tub, and comfortable beds.  The rooms are modern and business friendly. Also there is good shower pressure. Free WiFi and Cable TV with HBO channels but no Showtime or Pay per View.  Fridge, microwave and Keurig coffee maker in the room was nice as well. If you forget any essentials like toothbrush, toothpaste, razor etc. you can just call the front desk and they will bring you complimentary ones.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded May 29, 2017</t>
   </si>
   <si>
@@ -567,7 +835,40 @@
     <t>I booked this room on a discount website for under $100.  For that price it was excellent. Very clean, super friendly hotel staff, decent pool but no hot tub, and comfortable beds.  The rooms are modern and business friendly. Also there is good shower pressure. Free WiFi and Cable TV with HBO channels but no Showtime or Pay per View.  Fridge, microwave and Keurig coffee maker in the room was nice as well. If you forget any essentials like toothbrush, toothpaste, razor etc. you can just call the front desk and they will bring you complimentary ones.More</t>
   </si>
   <si>
-    <t>Nostalgia212</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r474302589-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>474302589</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Nice stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice place, close to almost everything. Our room was spacious and clean - elevators are small though- The staff are nice and accommodating. Breakfast can be purchased in advance at their in site  restaurant- good breakfast for the price but I just hope that they will have more choices. Hotel wise, it was a worth the price stay. </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r472664304-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>472664304</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Holiday Brand on a budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We recently stayed for a couple of nights at the Holiday Inm West Covina. The hotel provides basic hotel necessities and is just a stone's throw away from Eastland Center. The hotel provides free high speed wi service. There is a Chinese restaurant at the lobby which provides continental and oriental breakfast. Dimsum is also served throughout the day. Breakfast is $10 for hotel guests, slightly higher for non hotel guests.Retail establishments like IKEA, Albertson's, Walmart, Target, Burlington, Ross can be found at the nearby Eastland Center. Holiday Inn is one of the 3 hotel chains in the area. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r470614789-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -585,9 +886,6 @@
     <t>Wonderful hotel. Great location with lots of shopping and dining options within walking distance. Staff took excellent care in preparing for our large group. They paid great attention to all, even minor details. We will definitely come backMoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded March 29, 2017</t>
   </si>
   <si>
@@ -597,9 +895,6 @@
     <t>Wonderful hotel. Great location with lots of shopping and dining options within walking distance. Staff took excellent care in preparing for our large group. They paid great attention to all, even minor details. We will definitely come backMore</t>
   </si>
   <si>
-    <t>Britishcats</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r459018688-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -627,9 +922,6 @@
     <t>We have now stayed twice at the Holiday Inn in West Covina. The hotel is clean, housekeeping is excellent and the front desk staff superb. No request is too small for them to address. Really nice people! Would certainly recommend.More</t>
   </si>
   <si>
-    <t>Cindy K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r458171009-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -654,7 +946,55 @@
     <t>This hotel is off the I-10 Freeway, but the traffic was not an issue. Checked in on Sunday afternoon and was warmly greeted as a Rewards member by the front desk staff. Rooms were very clean. Bathroom was clean but very small. Beds were comfortable.  Doors were secure. Good parking. On-site Dahlia Restaurant offers Asian and American Cuisine however, it is a bit pricey. Fortunately, it was Super Bowl Sunday so they had an All You Can Eat Nachos Bar (choice of toppings, cheese, beef, chicken, guacamole, salsa) for $8.99 and a 14" pizza for $10. Drinks are $2 off. The food was very good.  Dining staff and bartender were very cordial, polite and attentive. There are also nearby restaurants. They do not provide complimentary breakfast, but serve breakfast in the restaurant for a cost.  All in all, a very good stay. I will not hesitate to stay here again.More</t>
   </si>
   <si>
-    <t>Scott E</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r455253023-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>455253023</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Our Go-To Hotel</t>
+  </si>
+  <si>
+    <t>We have 3 kids either in college or recently graduated from college in Azusa so we travel to that area several times per year and have been doing so for 6 years.  We've stayed in many different hotels from Ontario to Diamond Bar to Pasadena and everywhere in between.  I've joined every major hotel group.  We're looking for a balance between comfort/luxury and cost.  We have finally settled on the Holiday Inn in West Covina as our first choice every time.  My one disappointment with the hotel is there is no hot tub because sometimes after a long day packing or unpacking someone in college housing, a hot tub is very appealing.  However, that's my only complaint:  the beds are comfortable, the rooms are pleasant and clean, there's a nice pool, the staff is friendly and helpful, the location is 10 minutes from our kids' school, and we get an excellent room rate by mentioning our kids are students at APU which then includes a free full breakfast for both my husband and myself.  I highly recommend this hotel for its convenient location, good price, friendly staff, and clean and comfortable rooms.  We won't stay anywhere else now when we visit the area.  This is a tough area in which to find a nice hotel at a reasonable price.  Even staying just a little bit further out to save money (and you won't save much money) isn't worth it to...We have 3 kids either in college or recently graduated from college in Azusa so we travel to that area several times per year and have been doing so for 6 years.  We've stayed in many different hotels from Ontario to Diamond Bar to Pasadena and everywhere in between.  I've joined every major hotel group.  We're looking for a balance between comfort/luxury and cost.  We have finally settled on the Holiday Inn in West Covina as our first choice every time.  My one disappointment with the hotel is there is no hot tub because sometimes after a long day packing or unpacking someone in college housing, a hot tub is very appealing.  However, that's my only complaint:  the beds are comfortable, the rooms are pleasant and clean, there's a nice pool, the staff is friendly and helpful, the location is 10 minutes from our kids' school, and we get an excellent room rate by mentioning our kids are students at APU which then includes a free full breakfast for both my husband and myself.  I highly recommend this hotel for its convenient location, good price, friendly staff, and clean and comfortable rooms.  We won't stay anywhere else now when we visit the area.  This is a tough area in which to find a nice hotel at a reasonable price.  Even staying just a little bit further out to save money (and you won't save much money) isn't worth it to us because even a few more miles adds to the headache of driving in terrible LA traffic and can double the driving time to and from the school and hotel.  I have a bad back so I'm extremely picky about a comfortable bed and a clean room, and I've always been happy with this particular hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded January 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2017</t>
+  </si>
+  <si>
+    <t>We have 3 kids either in college or recently graduated from college in Azusa so we travel to that area several times per year and have been doing so for 6 years.  We've stayed in many different hotels from Ontario to Diamond Bar to Pasadena and everywhere in between.  I've joined every major hotel group.  We're looking for a balance between comfort/luxury and cost.  We have finally settled on the Holiday Inn in West Covina as our first choice every time.  My one disappointment with the hotel is there is no hot tub because sometimes after a long day packing or unpacking someone in college housing, a hot tub is very appealing.  However, that's my only complaint:  the beds are comfortable, the rooms are pleasant and clean, there's a nice pool, the staff is friendly and helpful, the location is 10 minutes from our kids' school, and we get an excellent room rate by mentioning our kids are students at APU which then includes a free full breakfast for both my husband and myself.  I highly recommend this hotel for its convenient location, good price, friendly staff, and clean and comfortable rooms.  We won't stay anywhere else now when we visit the area.  This is a tough area in which to find a nice hotel at a reasonable price.  Even staying just a little bit further out to save money (and you won't save much money) isn't worth it to...We have 3 kids either in college or recently graduated from college in Azusa so we travel to that area several times per year and have been doing so for 6 years.  We've stayed in many different hotels from Ontario to Diamond Bar to Pasadena and everywhere in between.  I've joined every major hotel group.  We're looking for a balance between comfort/luxury and cost.  We have finally settled on the Holiday Inn in West Covina as our first choice every time.  My one disappointment with the hotel is there is no hot tub because sometimes after a long day packing or unpacking someone in college housing, a hot tub is very appealing.  However, that's my only complaint:  the beds are comfortable, the rooms are pleasant and clean, there's a nice pool, the staff is friendly and helpful, the location is 10 minutes from our kids' school, and we get an excellent room rate by mentioning our kids are students at APU which then includes a free full breakfast for both my husband and myself.  I highly recommend this hotel for its convenient location, good price, friendly staff, and clean and comfortable rooms.  We won't stay anywhere else now when we visit the area.  This is a tough area in which to find a nice hotel at a reasonable price.  Even staying just a little bit further out to save money (and you won't save much money) isn't worth it to us because even a few more miles adds to the headache of driving in terrible LA traffic and can double the driving time to and from the school and hotel.  I have a bad back so I'm extremely picky about a comfortable bed and a clean room, and I've always been happy with this particular hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r454346082-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>454346082</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn West Covina is warn</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel at round 9:30. We asked if we can check in early. Ashley was very mice to help us. She said that our room was not clean and she will ask the staff to clear right way. We decided to have breakfast in the hotel. Ashley gave us the hotel keys while we were still having breakfast. Holiday Inn West Covina was very warn and showed that they really appreciate your business.  Their price is very reasonable.  Their breakfast had very good and fresh quality food, and a lot of varieties. This location is convenient. We will come back in the futureMoreShow less</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel at round 9:30. We asked if we can check in early. Ashley was very mice to help us. She said that our room was not clean and she will ask the staff to clear right way. We decided to have breakfast in the hotel. Ashley gave us the hotel keys while we were still having breakfast. Holiday Inn West Covina was very warn and showed that they really appreciate your business.  Their price is very reasonable.  Their breakfast had very good and fresh quality food, and a lot of varieties. This location is convenient. We will come back in the futureMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r453131646-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -672,9 +1012,6 @@
     <t>James, the Director of Marketing, saved my bacon yesterday (Jan. 17th, 2017). He didn't literally save bacon for me, but I'm sure he would have if he knew how much I liked bacon.Yesterday a hotel just to the east of him completely failed me, but James and Holiday Inn stepped up and hosted my event. Everything literally unfolded the day of the event. My previous venue cancelled on me basically canceled on me the day of the event. James stepped up, honored the contract for the other venue, and made everything happen. He had signs, tables, a screen .... it was like we had set up the event with him back in November.James, I can't thank you and your staff enough!MoreShow less</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded January 20, 2017</t>
   </si>
   <si>
@@ -684,9 +1021,6 @@
     <t>James, the Director of Marketing, saved my bacon yesterday (Jan. 17th, 2017). He didn't literally save bacon for me, but I'm sure he would have if he knew how much I liked bacon.Yesterday a hotel just to the east of him completely failed me, but James and Holiday Inn stepped up and hosted my event. Everything literally unfolded the day of the event. My previous venue cancelled on me basically canceled on me the day of the event. James stepped up, honored the contract for the other venue, and made everything happen. He had signs, tables, a screen .... it was like we had set up the event with him back in November.James, I can't thank you and your staff enough!More</t>
   </si>
   <si>
-    <t>Jenns48</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r452629222-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -711,9 +1045,6 @@
     <t>Stayed for a night during out holidays and it was another great stay. Room was great, very clean. Comfy beds as always. Enjoyed the outdoor heated pool. Wish there was a hot tub though. We paid for breakfast buffet and it was ok. I prefer a reg holiday inn breakfast. I found a lot of the food al tasted the same. More</t>
   </si>
   <si>
-    <t>TourismPro1015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r452512634-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -735,7 +1066,46 @@
     <t>I travel to Southern California twice a year and most times than not, stay at a Holiday Inn.  This was my first stay at this property and was pleased to find this hotel was newly built.  Staff were great and it was conveniently located to a few restaurants.More</t>
   </si>
   <si>
-    <t>ben b</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r451068367-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>451068367</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Average Holiday Inn</t>
+  </si>
+  <si>
+    <t>We stayed here to attend the Rose Bowl. The location was great, easy access to the highway. The rooms were clean, though a bit small, especially the bathrooms. But very sufficient for two nights. The hotel could use some updating- but we had no problems. Check in and check out were easy. We used the exercise facility- just a few cardio machines but adequate for a quick work-out. The bed was comfortable, linens were fine. The restaurant/bar were a bit odd- kind of Asian cuisine, but kind of not. We had a few drinks and some of their Asian inspired dishes and everything was very good and well priced. I like that there was an onsite option for food and drinks, especially after a long day. All-in-all this hotel is a typical Holiday inn, no frills but what you may expect. I also liked free parking! There was road noise from the highway, even on the other side of the hotel, but not too loud and we had no problems sleeping.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here to attend the Rose Bowl. The location was great, easy access to the highway. The rooms were clean, though a bit small, especially the bathrooms. But very sufficient for two nights. The hotel could use some updating- but we had no problems. Check in and check out were easy. We used the exercise facility- just a few cardio machines but adequate for a quick work-out. The bed was comfortable, linens were fine. The restaurant/bar were a bit odd- kind of Asian cuisine, but kind of not. We had a few drinks and some of their Asian inspired dishes and everything was very good and well priced. I like that there was an onsite option for food and drinks, especially after a long day. All-in-all this hotel is a typical Holiday inn, no frills but what you may expect. I also liked free parking! There was road noise from the highway, even on the other side of the hotel, but not too loud and we had no problems sleeping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r450533038-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>450533038</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>good solid hotel</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights. No complaints. It is a few years old but good solid hotel. Big beds. Had a great sleep with a family of 4. Staff was good. Do not get the breakfast deal: better value for money is to go to the Denny's down the street at Grand Ave. That place is amazing. Other than that: great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights. No complaints. It is a few years old but good solid hotel. Big beds. Had a great sleep with a family of 4. Staff was good. Do not get the breakfast deal: better value for money is to go to the Denny's down the street at Grand Ave. That place is amazing. Other than that: great stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r437232743-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -756,18 +1126,9 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded January 12, 2017</t>
-  </si>
-  <si>
-    <t>Responded January 12, 2017</t>
-  </si>
-  <si>
     <t>We were so impressed with the friendliness and ease of check in. Our room was immaculate and immense we were greatly impressed and surprised. We have no complaints and will recommend the Holiday Inn to our friends.  Kudos to the H.I. In West Covina.More</t>
   </si>
   <si>
-    <t>Mommyhua</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r429791866-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -795,9 +1156,6 @@
     <t>We were in California for a family wedding and had a wonderful stay at this hotel.  The staff was incredible.  Ivan, the manager, made sure our room fit the preferences that I had set and the room was clean and comfortable.  The breakfast in the morning was a perfect way to start our day.  We had a great stay and would definitely recommend.More</t>
   </si>
   <si>
-    <t>Bryan B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r425430670-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -822,7 +1180,49 @@
     <t>We checked in to the Holiday Inn, West Covina on September 26th and checked out on October the 3rd.  Excellent time!  We even had the opportunity to attend a class reunion reception hosted by the Holiday Inn.  Naturally, appetizers were complimentary, and excellent.  Booze, however, was no host.  Go figure.It's embarrassing to tell people you're handicapped and need "special needs rooms".  The only, and serious . . . the only, complaint I have about the Inn is that our room was at the end of a hallway, next to the stairs.  With that, the room was smaller.  If I were at the desk, my wife was not able to get by.  Nor if she was at the desk, I could not get by.  The extra room required by the stairwell took up quite a bit of space.  And staying there a week, makes a happy couple more like caged animals.  The Staff is exceptionally friendly.  From the house keepers to the front desk clerks (?), everyone was happy and friendly.  That's most likely why the place is so nice.  It's also the reason The Better Half and I are spending the week at another Holiday Inn in Sacramento, California.  If this place is half as nice as the Holiday Inn in West Covina, we've got it made.More</t>
   </si>
   <si>
-    <t>Jerry K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r423290229-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>423290229</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic staff </t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn whilst visiting our family in California. The rooms were very comfortable and had everything we needed. Breakfast was included with our booking which was more than adequate. What made our stay really enjoyable was the fantastic staff. Francine and Ashley on reception were absolutely fantastic, were always very professional and very helpful and friendly. Grisel in the restaurant looked after us well, a great asset to the hotel. Always happy and it was a pleasure going into the restaurant. We feel as a family we now have new friends in the USA. Thank you all for your kindness during our stay. We hope one day we will meet again. Xx MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn whilst visiting our family in California. The rooms were very comfortable and had everything we needed. Breakfast was included with our booking which was more than adequate. What made our stay really enjoyable was the fantastic staff. Francine and Ashley on reception were absolutely fantastic, were always very professional and very helpful and friendly. Grisel in the restaurant looked after us well, a great asset to the hotel. Always happy and it was a pleasure going into the restaurant. We feel as a family we now have new friends in the USA. Thank you all for your kindness during our stay. We hope one day we will meet again. Xx More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r417518951-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>417518951</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Awesome Stay!</t>
+  </si>
+  <si>
+    <t>Had a great stay at the HOLIDAY INN West Covina. Location was great. Right off the Freeway. Close to the Mall, and great restaurants. Pool was clean and fun. Front Desk staff was attentive and Maid service was good. Enjoyed the Breakfast. Overall, Excellent Hotel. We will be Back.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Had a great stay at the HOLIDAY INN West Covina. Location was great. Right off the Freeway. Close to the Mall, and great restaurants. Pool was clean and fun. Front Desk staff was attentive and Maid service was good. Enjoyed the Breakfast. Overall, Excellent Hotel. We will be Back.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r416305739-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -840,9 +1240,6 @@
     <t>We stayed here while organizing my Father-in-Law's funeral and memorial service. The staff was quite friendly and ready to help us in any way possible. The location is right on the Freeway frontage road, so it made it easy to get in and out when we had to. The room was great and we also took advantage of the pool when there was a lull in the activity.It may not be the Ritz, but I would definitely go back.MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>HIWCManagement, Front Office Manager at Holiday Inn West Covina, responded to this reviewResponded September 10, 2016</t>
   </si>
   <si>
@@ -852,9 +1249,6 @@
     <t>We stayed here while organizing my Father-in-Law's funeral and memorial service. The staff was quite friendly and ready to help us in any way possible. The location is right on the Freeway frontage road, so it made it easy to get in and out when we had to. The room was great and we also took advantage of the pool when there was a lull in the activity.It may not be the Ritz, but I would definitely go back.More</t>
   </si>
   <si>
-    <t>gutierrezmmc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r401061819-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -879,9 +1273,6 @@
     <t>We stayed here for one night and not to impressed. When I travel we always rent holiday inn hotels for the free breakfast and wifi. This holiday inn does not offer free breakfast even tho it states that when you rent the hotel online. The room was okay and the location was okay too.. Just beware of the breakfast issue make sure you get one during check in.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r398883171-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -903,7 +1294,43 @@
     <t>This hotel was an Oasis in a desert of overly priced hotels and dirty boutique hotels which litter LA and the surrounding areas.The front desk clerk was very professional and thorough.  He could teach some of the St Regis clerks a few lessons on customer service but I digress.Room was very clean as expected.  Bed was semi comfortable but hey its the Holiday Inn express.  Buffet breakfast was decentI guess when I woke up I felt extremely smart after spending my money and staying there.  Cheers!!4 out of 5 starsMore</t>
   </si>
   <si>
-    <t>Jeannelle H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r396444210-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>396444210</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Too many other options in West Covina area to pick this one</t>
+  </si>
+  <si>
+    <t>Totally different experience this year over last year.  We are here July 2016. This year the hotel is under new management and not for the better.  First, we came with a large group that I personally booked.  The rate per night was 40 dollar more per day.  It included breakfast as part of the group rate.  Right off the bat the hotel tried to tell almost our entire team that breakfast was not included when it was clearly stated on line in the reservation.  They attempted to charge most of our group 15 dollars per person for breakfast on top of our increased rate. Second, the entire hotel is not running air conditioning with the exception of your room.  It is currently 100 to 107 in West Covina and the halls, fitness room, laundry room, and lobby feel like 107.  No air anywhere.  Third, the ice machine on the first floor has been broken for 3 days.  The elevator permit expired in June.  There is only one washing machine for the entire hotel.  The breakfast is really not very good, they serve leftovers from the night before.  The entire facility has signs reading "no smoking" and "this is a smoke free property" and yet right in the pool and BBQ area they have ashtrays and openly welcome smokers.  When I complained to the front desk they said, "Oh, the manager says that only applies to inside the hotel."  So, if...Totally different experience this year over last year.  We are here July 2016. This year the hotel is under new management and not for the better.  First, we came with a large group that I personally booked.  The rate per night was 40 dollar more per day.  It included breakfast as part of the group rate.  Right off the bat the hotel tried to tell almost our entire team that breakfast was not included when it was clearly stated on line in the reservation.  They attempted to charge most of our group 15 dollars per person for breakfast on top of our increased rate. Second, the entire hotel is not running air conditioning with the exception of your room.  It is currently 100 to 107 in West Covina and the halls, fitness room, laundry room, and lobby feel like 107.  No air anywhere.  Third, the ice machine on the first floor has been broken for 3 days.  The elevator permit expired in June.  There is only one washing machine for the entire hotel.  The breakfast is really not very good, they serve leftovers from the night before.  The entire facility has signs reading "no smoking" and "this is a smoke free property" and yet right in the pool and BBQ area they have ashtrays and openly welcome smokers.  When I complained to the front desk they said, "Oh, the manager says that only applies to inside the hotel."  So, if you don't like a smoker next to you while you are BBQ'ing or by your kids, too bad folks.  This is an older hotel and a bit run down.  The new management is just horrible.  They could care less about your concerns or complaints.  They charge more for less.  We travel every weekend and have stayed at many Holiday Inns.  We come to this area every year for an event and I booked our group because in 2015 we had a great experience.  I will never book here again.  To top everything off they kicked all our kids out of an empty parking lot because they were tossing a soft football around.  They went next door to the Fairfield Inn and Suites and that hotel had no problem with them playing in an empty parking lot.  Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn West Covina, responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Totally different experience this year over last year.  We are here July 2016. This year the hotel is under new management and not for the better.  First, we came with a large group that I personally booked.  The rate per night was 40 dollar more per day.  It included breakfast as part of the group rate.  Right off the bat the hotel tried to tell almost our entire team that breakfast was not included when it was clearly stated on line in the reservation.  They attempted to charge most of our group 15 dollars per person for breakfast on top of our increased rate. Second, the entire hotel is not running air conditioning with the exception of your room.  It is currently 100 to 107 in West Covina and the halls, fitness room, laundry room, and lobby feel like 107.  No air anywhere.  Third, the ice machine on the first floor has been broken for 3 days.  The elevator permit expired in June.  There is only one washing machine for the entire hotel.  The breakfast is really not very good, they serve leftovers from the night before.  The entire facility has signs reading "no smoking" and "this is a smoke free property" and yet right in the pool and BBQ area they have ashtrays and openly welcome smokers.  When I complained to the front desk they said, "Oh, the manager says that only applies to inside the hotel."  So, if...Totally different experience this year over last year.  We are here July 2016. This year the hotel is under new management and not for the better.  First, we came with a large group that I personally booked.  The rate per night was 40 dollar more per day.  It included breakfast as part of the group rate.  Right off the bat the hotel tried to tell almost our entire team that breakfast was not included when it was clearly stated on line in the reservation.  They attempted to charge most of our group 15 dollars per person for breakfast on top of our increased rate. Second, the entire hotel is not running air conditioning with the exception of your room.  It is currently 100 to 107 in West Covina and the halls, fitness room, laundry room, and lobby feel like 107.  No air anywhere.  Third, the ice machine on the first floor has been broken for 3 days.  The elevator permit expired in June.  There is only one washing machine for the entire hotel.  The breakfast is really not very good, they serve leftovers from the night before.  The entire facility has signs reading "no smoking" and "this is a smoke free property" and yet right in the pool and BBQ area they have ashtrays and openly welcome smokers.  When I complained to the front desk they said, "Oh, the manager says that only applies to inside the hotel."  So, if you don't like a smoker next to you while you are BBQ'ing or by your kids, too bad folks.  This is an older hotel and a bit run down.  The new management is just horrible.  They could care less about your concerns or complaints.  They charge more for less.  We travel every weekend and have stayed at many Holiday Inns.  We come to this area every year for an event and I booked our group because in 2015 we had a great experience.  I will never book here again.  To top everything off they kicked all our kids out of an empty parking lot because they were tossing a soft football around.  They went next door to the Fairfield Inn and Suites and that hotel had no problem with them playing in an empty parking lot.  Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r393715772-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>393715772</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>I would give it five stars but the cost was quite high, we also had drain issues with the bathtub and sink, however they promptly fixed the bathtub but the sink never drained right. It was quiet and clean for the most part, they could probably do a few minor updates in the bathrooms. I will stay here agai if the price is low enough.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r392635133-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -927,9 +1354,6 @@
     <t>I stayed at this hotel with my family while visiting with some family members in West Covina. This hotel is superb! It's clean, and the employees are so nice and make sure your needs are met as soon as possible. The price was more than reasonable, especially since I found it on TripAdvisor :) Also, we thoroughly enjoyed the free coffee in the morning! Would definitely book here again. More</t>
   </si>
   <si>
-    <t>Jacob C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r389254337-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -948,9 +1372,6 @@
     <t>Jasmine at the front desk was most helpful and informative. After a long day she made checking in to a room easy and fast and i was very delighted with the service and im looking forward to returning soon.  Thank you for yoir hospitality More</t>
   </si>
   <si>
-    <t>Wayne P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r389093871-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -963,7 +1384,37 @@
     <t>Spent four nights here.  Found the staff to be very friendly and helpful.  Rooms were clean and the grounds were clean.  The cost of the rooms was as good as I could find in the area. It is close to restaurants.  I would not recommend it if you are in town for events along the beach or in L.A. because of the traffic in L.A.  For me it was convenient since I had to go both directions for events.  I only have good things to say about this place.</t>
   </si>
   <si>
-    <t>Janet D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r387615932-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>387615932</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Nice room for a long stay</t>
+  </si>
+  <si>
+    <t>We ended up staying here during a week of extremely high temperatures after attempting to stay with a friend at her house.  She didn't have AC, and it was 106 degrees, so we needed a place--fast!  It was a great place to stay for the week we were in town, after we got checked in.  The front desk staff was mediocre at best, almost like we were intruding.  We did get an upper floor room, which I recommend, and the room was nice.There were a lot of families there that week due to a national baseball series, and we noticed no noise from them at all.The refrigerator in the room was HUGE and there was also a microwave and Keurig machine.MoreShow less</t>
+  </si>
+  <si>
+    <t>We ended up staying here during a week of extremely high temperatures after attempting to stay with a friend at her house.  She didn't have AC, and it was 106 degrees, so we needed a place--fast!  It was a great place to stay for the week we were in town, after we got checked in.  The front desk staff was mediocre at best, almost like we were intruding.  We did get an upper floor room, which I recommend, and the room was nice.There were a lot of families there that week due to a national baseball series, and we noticed no noise from them at all.The refrigerator in the room was HUGE and there was also a microwave and Keurig machine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r382238112-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>382238112</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>WONDERFUL EXPERIENCE ALL AROUND!!!</t>
+  </si>
+  <si>
+    <t>From the General Manager, 'Albert', assisting with our booking, to the front desk receptionists, to the cleaning staff, to even the restaurant manager and staff, were all equally Friendly, Courteous, Professional and Helpful. The room was Very Clean and Comfortable! The pool was Exhilarating and Refreshing! The food was Delicious! Even the Parking was Free and Convenient, not to mention the Great location right off of the 10 freeway and close to plenty of Restaurants &amp; Stores, all of which made our entire stay "A Delight"!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r377383846-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -993,9 +1444,6 @@
     <t>Reserved 3 double rooms for several days of course at check in there were no doubles available, hotel refused to make accommodations of any sort. So we had 6 people and 3 beds and no apology. They blamed me for their mistake. GO ELSEWHERE!More</t>
   </si>
   <si>
-    <t>Rita H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r375279475-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1020,9 +1468,6 @@
     <t>When I stayed in January had trouble with the heating and a/c in the room. The thermostat didn't work so it had to be operated manually. WiFi connection never did work. Therefore I felt it is rather pricey for the lack.More</t>
   </si>
   <si>
-    <t>J4Mac</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r371168600-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1038,16 +1483,43 @@
     <t>The hotel staff was excellent, especially Ivan and Naomi. They really made us feel welcome. The room was clean. The bed was super comfortable. The restaurant was a bit pricey, but the food was delicious and the service there was very nice and pleasant. The drinks at the bar were way overpriced and tasted lousy. The bartender was very unfriendly and inattentive. We will stay at this hotel in the future, but not even try the bar.</t>
   </si>
   <si>
-    <t>Dustin T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r370797215-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>370797215</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Clean comfy rooms and friendly staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love this place a lot. I've stayed here couple times recently and all the rooms I got were clean and the beds were comfy. The front desk staff were so friendly and helpful especially this gentleman named Ivan. He even let us borrowed his personal phone charger because we forgot ours. The experience for this price was simply way above expectations. Highly recommended. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r366480899-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>366480899</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>april in covina</t>
+  </si>
+  <si>
+    <t>over all experiance was good. hotel was quite and beds comfortable. walking distance to restrants and shopping. for the price I think breakfast should have been included. There was a nice pool area but for our stay it was cool and rainy. not normal southern CA weather.easy access to the freeway.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r366386089-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
     <t>366386089</t>
-  </si>
-  <si>
-    <t>04/22/2016</t>
   </si>
   <si>
     <t>A good hotel</t>
@@ -1070,9 +1542,6 @@
 Breakfast is held at the Asian Fusion restaurant located besides the lobby. It usually costs ~$15 a person. It offered a decent selection of fresh hot and cold food. I was pleasantly surprised to see a couple asian breakfast items like Soy milk, rice congee, asian toast, green onion pancakes, and chinese donuts for soymilk. The staff at the restaurant were also really attentive. The area for improvement though was that the food at the breakfast buffet could be hotter, most of the hot dishes...I booked a double queen bed room on the top floor back on March 24. Upon checking in I was greeted by Ruth who was very friendly and professional. My status as a Platinum Elite IHG rewards club member was well recognized by her. RoomUpon entering my assigned room on the top floor I noticed some of the furniture like the desk and cocktail table where the coffemaker was placed was probably due for replacement. It was scuffed up from wear and tear. The air conditioning was a little bit more noisy than it should have been for a window unit but it didn't affect my sleep. My room also faced the freeway but the room had adequate sound insulation and I couldn't hear any freeway noises with the AC on. Besides that, the overall room was clean and after an hour later Ivan from front desk called to see how everything was. BreakfastBreakfast is held at the Asian Fusion restaurant located besides the lobby. It usually costs ~$15 a person. It offered a decent selection of fresh hot and cold food. I was pleasantly surprised to see a couple asian breakfast items like Soy milk, rice congee, asian toast, green onion pancakes, and chinese donuts for soymilk. The staff at the restaurant were also really attentive. The area for improvement though was that the food at the breakfast buffet could be hotter, most of the hot dishes on the buffet line were luke warmish. Overall, I would stay here again. The property is well-kept, the staff are well trained and are very polite, courteous, and attentive.More</t>
   </si>
   <si>
-    <t>MissBlue2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r363065222-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1088,12 +1557,6 @@
     <t>Nice hotel, great location right off the 10 freeway.  Walking distance  to a lot of restaurants.  They have a restaurant and bar at this hotel.   Chinese food looked good but it's a la carte and the portions are very large, we saw one order of fried rice that fed four adults and the cost was $12.00+.  The bar is nice, the Bartendar is good. Happy hour is only one hour, which seems strange, usually it's two or more hours. What ever...  the rooms have a frig and microwave which is great.</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
-    <t>Ricardo S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r353342005-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1109,7 +1572,37 @@
     <t xml:space="preserve">The hotel is located right on the side of the freeway, easy access in and out of the area. There are many restaurants in the area in addition of the restaurant inside the hotel which we didn't try because we were craving something else. The front desk staff was very professional and friendly. The rooms are everything you expect from a Holiday inn, very clean, plenty of towells, toiletries, etc. Free parking and wifi access. It was packed but quiet for a weekend. We liked it. </t>
   </si>
   <si>
-    <t>BonkyConk</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r348682447-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>348682447</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Nice location</t>
+  </si>
+  <si>
+    <t>Nice hotel that rests right off the freeway. Rooms were average and what you expect from an Holiday Inn. Nice location as its close to mall, food, and large IKEA store. Thought all Holiday inns provided a free breakfast but breakfast was additional and we choose to eat out.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r347712223-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>347712223</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Baseball Series at Azusa Pacific</t>
+  </si>
+  <si>
+    <t>This hotel is great!  It is EXTREMELY clean, well taken care of and a quick trip to Azusa Pacific University.  They have a great rate through the university so if you are visiting the college I highly recommend them.  The breakfast buffet is the best we have ever had!  I wish we could have spent the entire trip here.  Beds are so comfortable and there are numerous restaurants, shopping and freeway access nearby.  The pool area is great as well.  No hot tub however.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r347441205-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -1127,15 +1620,9 @@
     <t>Lobby is welcoming, professional-feeling, clean, efficient, and well designed and decorated. Desk staff is very efficient at check-in and check-out.  Great location - easy on &amp; off I-10.  Free parking, &amp; within safe walking distance to a small mall &amp; fast foods + nice restaurants. Nearby BevMo's Friday night Wine Tasting is 4-7pm, and it's a fun neighborhood experience.  Our room on 5th floor (by request) was quiet and very comfortable. I have their Spire level membership, so we get free suite upgrades if available.  Nothing was available, so they gave us breakfast vouchers instead: The hotel restaurant is clean and nice - Chinese/American buffet - more spendy than I would spring for ($14.95), but free is good . . .  Breakfasts are the reason we prefer Holiday Inn Express over Holiday Inn, because breakfasts are always included at HIEx &amp; not at HI. HIEx breakfasts are always reliably tasty, fresh, and great variety.  But 15K points for a beautiful, clean room was reasonable enough - so we will probably stay here again next time we are in West Covina.MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>Lobby is welcoming, professional-feeling, clean, efficient, and well designed and decorated. Desk staff is very efficient at check-in and check-out.  Great location - easy on &amp; off I-10.  Free parking, &amp; within safe walking distance to a small mall &amp; fast foods + nice restaurants. Nearby BevMo's Friday night Wine Tasting is 4-7pm, and it's a fun neighborhood experience.  Our room on 5th floor (by request) was quiet and very comfortable. I have their Spire level membership, so we get free suite upgrades if available.  Nothing was available, so they gave us breakfast vouchers instead: The hotel restaurant is clean and nice - Chinese/American buffet - more spendy than I would spring for ($14.95), but free is good . . .  Breakfasts are the reason we prefer Holiday Inn Express over Holiday Inn, because breakfasts are always included at HIEx &amp; not at HI. HIEx breakfasts are always reliably tasty, fresh, and great variety.  But 15K points for a beautiful, clean room was reasonable enough - so we will probably stay here again next time we are in West Covina.More</t>
   </si>
   <si>
-    <t>Justneedreservations</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r347409407-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1148,9 +1635,6 @@
     <t>Spent a night here on business.  Front desk employees were very friendly and showed an eagerness to make the customer happy.  Much appreciated.  The room was a nice updated Typical Holiday Inn room.  Comfortable bed, TV, coffee maker, lots of outlets and free wifi.  Exactly what I need.  I only wish they supplied Shower gel instead of the soap.  This one's a keeper.</t>
   </si>
   <si>
-    <t>Katherine P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r345915807-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1166,7 +1650,48 @@
     <t>This was the first hotel I've stayed in where the staff member who checked me in remembered my name on sight - even the next day!  Clean room, great staff, free wi-fi and parking, AND RIGHT NEXT DOOR TO IKEA!</t>
   </si>
   <si>
-    <t>HunterWang</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r342383853-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>342383853</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Convenient Location</t>
+  </si>
+  <si>
+    <t>Good location, lots of shops and restaurants in the area. Friendly and professional staff. Apparently the hotel was having an issue with the water heater and they were very clear of the situation by the time we checked in (we stayed and no problem whatsoever.)Breakfast area is very accommodating, clean and with a variety of foods, they have western and asian type of food, which was a nice surprise.The room we stayed was big, comfortable beds and very clean. Nice amenities sets provided. It is very close to the highway but the traffic noise was barely audible.I highly recommend this hotel if you are in this region of Los Angeles basin.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Good location, lots of shops and restaurants in the area. Friendly and professional staff. Apparently the hotel was having an issue with the water heater and they were very clear of the situation by the time we checked in (we stayed and no problem whatsoever.)Breakfast area is very accommodating, clean and with a variety of foods, they have western and asian type of food, which was a nice surprise.The room we stayed was big, comfortable beds and very clean. Nice amenities sets provided. It is very close to the highway but the traffic noise was barely audible.I highly recommend this hotel if you are in this region of Los Angeles basin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r341057147-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>341057147</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>The Holiday Inn is located right off the westbound side of interstate 10.  Although the hotel is on a nice tree lined street, those trees are the only thing that separate you from the highway.  Keep that in mind as you are at the front desk asking for a room. The hotel has lots of free parking. I emphasize the word FREE because in California - no, especially California, so many places will try to ding you for parking. 
+I asked for and received a room on the top floor (#509 on the 5th) in the back of the building. It was real nice for I did not hear any of the road noise.  
+This hotel was recently renovated (I believe 2014) and it shows.  Everywhere in the hotel things were in good condition. Most importantly, my room was exceptional. The furniture in the place is not "high end" by any means but it was in good condition with no scratches or moisture rings. Even the corners of the furniture were in like-new condition.  The bed was comfortable, there was a side chair with ottoman and a nice desk with a fantastic chair. Another good point was their selection for the desk lighting. It had two outlets and it was so heavy that you did not need to hold the lamp down with one hand while pulling your power cord with the other. Nice.
+The internet is free.
+The bathroom...The Holiday Inn is located right off the westbound side of interstate 10.  Although the hotel is on a nice tree lined street, those trees are the only thing that separate you from the highway.  Keep that in mind as you are at the front desk asking for a room. The hotel has lots of free parking. I emphasize the word FREE because in California - no, especially California, so many places will try to ding you for parking. I asked for and received a room on the top floor (#509 on the 5th) in the back of the building. It was real nice for I did not hear any of the road noise.  This hotel was recently renovated (I believe 2014) and it shows.  Everywhere in the hotel things were in good condition. Most importantly, my room was exceptional. The furniture in the place is not "high end" by any means but it was in good condition with no scratches or moisture rings. Even the corners of the furniture were in like-new condition.  The bed was comfortable, there was a side chair with ottoman and a nice desk with a fantastic chair. Another good point was their selection for the desk lighting. It had two outlets and it was so heavy that you did not need to hold the lamp down with one hand while pulling your power cord with the other. Nice.The internet is free.The bathroom is separate so you can do whatever you need to do with the door closed. It was spotless with a nice selection of toiletries. When I woke this morning I went to the lobby for coffee and was told they do not offer free coffee or breakfast. You need to go into the restaurant for that. It's not what I expected but it happens. I do not like the feeling of being captive in any place so I got in my car and found a Starbucks for a coffee and muffin. But, the restaurant is there if you prefer. As a matter of fact, anything you will ever need in your entire life is probably within a five mile radius of this hotel. It's amazing.  It's also quite convenient if you're vacationing for you can drive to so many things in a reasonable amount of time, assuming there aren't any traffic issues. (Remember, this is the greater Los Angeles area).I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Holiday Inn is located right off the westbound side of interstate 10.  Although the hotel is on a nice tree lined street, those trees are the only thing that separate you from the highway.  Keep that in mind as you are at the front desk asking for a room. The hotel has lots of free parking. I emphasize the word FREE because in California - no, especially California, so many places will try to ding you for parking. 
+I asked for and received a room on the top floor (#509 on the 5th) in the back of the building. It was real nice for I did not hear any of the road noise.  
+This hotel was recently renovated (I believe 2014) and it shows.  Everywhere in the hotel things were in good condition. Most importantly, my room was exceptional. The furniture in the place is not "high end" by any means but it was in good condition with no scratches or moisture rings. Even the corners of the furniture were in like-new condition.  The bed was comfortable, there was a side chair with ottoman and a nice desk with a fantastic chair. Another good point was their selection for the desk lighting. It had two outlets and it was so heavy that you did not need to hold the lamp down with one hand while pulling your power cord with the other. Nice.
+The internet is free.
+The bathroom...The Holiday Inn is located right off the westbound side of interstate 10.  Although the hotel is on a nice tree lined street, those trees are the only thing that separate you from the highway.  Keep that in mind as you are at the front desk asking for a room. The hotel has lots of free parking. I emphasize the word FREE because in California - no, especially California, so many places will try to ding you for parking. I asked for and received a room on the top floor (#509 on the 5th) in the back of the building. It was real nice for I did not hear any of the road noise.  This hotel was recently renovated (I believe 2014) and it shows.  Everywhere in the hotel things were in good condition. Most importantly, my room was exceptional. The furniture in the place is not "high end" by any means but it was in good condition with no scratches or moisture rings. Even the corners of the furniture were in like-new condition.  The bed was comfortable, there was a side chair with ottoman and a nice desk with a fantastic chair. Another good point was their selection for the desk lighting. It had two outlets and it was so heavy that you did not need to hold the lamp down with one hand while pulling your power cord with the other. Nice.The internet is free.The bathroom is separate so you can do whatever you need to do with the door closed. It was spotless with a nice selection of toiletries. When I woke this morning I went to the lobby for coffee and was told they do not offer free coffee or breakfast. You need to go into the restaurant for that. It's not what I expected but it happens. I do not like the feeling of being captive in any place so I got in my car and found a Starbucks for a coffee and muffin. But, the restaurant is there if you prefer. As a matter of fact, anything you will ever need in your entire life is probably within a five mile radius of this hotel. It's amazing.  It's also quite convenient if you're vacationing for you can drive to so many things in a reasonable amount of time, assuming there aren't any traffic issues. (Remember, this is the greater Los Angeles area).I would definitely stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r340557267-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -1184,15 +1709,6 @@
     <t>First of all, I've been traveling around the world a lot for many trips and I can't even tell how many hotels I have stayed. But Ivan, the staff who works at there. Is one of the best staffs I've ever met in my life. He has a really nice personality and been very helpful. He definitely made my trip even better. 这么多年不论是因为出差还是旅游到过全世界很多地方也住过数不清多少次的酒店。这次是因为临时来访朋友所以定了一家离他不远的酒店。但是不得不说，Ivan真的是我这么多年见过的最好的员工之一。非常乐于助人人格魅力也很高。酒店本身条件还好，但是因为有他让我觉得这里很好。</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Angela B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r338208722-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1220,9 +1736,6 @@
     <t>Our accommodation was payed well in advance, on arrival our booking could not be found.  The whole place is pld and dirty, key cards didnt work, had to re do them every day. 3 of us in a room for a week, we chased towels  everday, broken toilet for 2 days. The breakfast was disgusting, very poor quality, never again....More</t>
   </si>
   <si>
-    <t>disciple phil m</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r336435795-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1238,7 +1751,37 @@
     <t>the staff was very friendly and professional service. the rooms were super clean and everything you need to have a pleasant stay. very clean and comfortable beds. My room was away from freeway which may explain a quiet night sleep.</t>
   </si>
   <si>
-    <t>just_eddie</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r336295855-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>336295855</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Very good stay and very good local restaurants newarby</t>
+  </si>
+  <si>
+    <t>Stayed here a total of three nights- one night at the beginning of a trip and 2 nights on the return leg of the trip.   The staff was super friendly and help.   The rooms was clean and comfortable, and it was located in an area with restaurants and grocery stores.  There is also an IKEA behind the hotel, but there no noise from it.   I would recommend and would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r335569487-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>335569487</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>Will most definitely be back!</t>
+  </si>
+  <si>
+    <t>As usual I booked on Hipmunk.com due to extreme convince. Their summary ratings and select comments on hotels make it very convenient to make a fast informed decision. This hotel had the best rating of all those close by and it was spot on. Super friendly staff. Extremely clean and well kept. Ample parking. Close by restaurants(el Torito), fast food (In-n-Out) and gasoline. Easy freeway access. Very quiet rooms. We had 3 rooms for 5 nights. Used the microwave and refrigerator everyday. Daughter did laundry very conveniently and she had prompt room food service (but I did not use room service). This will become my base hotel in the area without a doubt. On final night went to the Peruvian restaurant (Misky Misky) close by at Fairway and Grant - wow! Outstanding tastes. We are definitely going back there. I simply had no idea how delicious Peruvian food is. This stay was perfect in every way. MoreShow less</t>
+  </si>
+  <si>
+    <t>As usual I booked on Hipmunk.com due to extreme convince. Their summary ratings and select comments on hotels make it very convenient to make a fast informed decision. This hotel had the best rating of all those close by and it was spot on. Super friendly staff. Extremely clean and well kept. Ample parking. Close by restaurants(el Torito), fast food (In-n-Out) and gasoline. Easy freeway access. Very quiet rooms. We had 3 rooms for 5 nights. Used the microwave and refrigerator everyday. Daughter did laundry very conveniently and she had prompt room food service (but I did not use room service). This will become my base hotel in the area without a doubt. On final night went to the Peruvian restaurant (Misky Misky) close by at Fairway and Grant - wow! Outstanding tastes. We are definitely going back there. I simply had no idea how delicious Peruvian food is. This stay was perfect in every way. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r334649030-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -1256,9 +1799,6 @@
     <t>Good location: low pricing gas station, supermarket, shopping center.....4.5 / 5Sleep Quality: a little noisy in the night as it faces the highway..........3/5Rooms: Clean, neat and tidy. Whatever I need is available in the room. 5/5.Service: Not too bad....but the receptionist staff didn't really explain some of the promotion like "kids eat free" clause. 3/5Value: Overall, I think I would come back again if I come to LA. 4.5 / 5Parking: FreeFacility: Ice &amp; Drinks Vending Machine, 24-hr Self-laundry</t>
   </si>
   <si>
-    <t>Monica O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r333100847-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1274,9 +1814,6 @@
     <t>Very clean and beds were comfortable.  I loved the down comforter and all the extra down pillows. We had a room with 2 queen beds. The only complaint I have is the first 2 nights, out of our 3 night stay, is there was a high school track team that had been making so much noise but once we notified the staff within 10 minutes the noise had stopped.  I'd definitely stay again since it was conveniently located near restaurants and the 10 freeway.</t>
   </si>
   <si>
-    <t>Julie H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r332570435-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1295,7 +1832,43 @@
     <t>We were here on 12/5/15 for three night.  Friendly staff checked us in.  We were upgraded to a larger room with king size bed because my husband's IHG higher member.  Our room was face the interstate 10.  It was little bit noisy.  The room was clean and the lights were bright at night.  The bathroom was kind small and had a small area for the suitcase and a small closet.  The wi-fi was a pain,  had to sign in everyday.  There were two line but only one ( holidayinn) worked.  The breakfast " buffet" ok with limited selections.  You had to ask for orange juice and the waiter will bring you a whole bottle.  Definitely,  we will come back if we are in the LA area.More</t>
   </si>
   <si>
-    <t>935teresa</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r330245894-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>330245894</t>
+  </si>
+  <si>
+    <t>12/01/2015</t>
+  </si>
+  <si>
+    <t>Super clean, very knowlegable, great location</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 nights with our three children and had a great experience. We couldn't figure out how to work the thermostat and the front desk sent someone up right away to help us. Room service did a great job keeping our room neat and tidy, even lining up my son's stuffed animals. A lot of care was taken in cleaning out room. The staff was very friendly, especially Ruth and Francine at the front desk. We will definitely be back, hopefully in the summer so my kids can enjoy that awesome pool. Thanks Holiday Inn West Covina!</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r320144728-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>320144728</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Good location, comfortable room.</t>
+  </si>
+  <si>
+    <t>Needing a place to stay over the weekend that was near Pasadena but more affordable, this turned out to be a good choice. The facility as been renovated and is well appointed.Beds are comfortable, bathrooms are well lit, and there is good closet space for those on an extended trip.The only negative is that the controller for the A/C is a bit limited. It has been moved to a wall thermostat, even though the unit is located below the window. Finding the right setting for comfort was a bit challenging.Parking is free, and was easy to find near the entrance too. We pre-paid our room, saving about $10.00 per night, and used that $10.00 to purchase their buffet breakfast ($5.00 per person) which is normally $14.95 each. The selection of food was good; potatoes, scrambled eggs with or without ham, both bacon and link sausage, pancakes, oatmeal, fresh fruit, yogurt etc. A carafe of orange juice and a pot of coffee was left at our table, making refills easy to get when needed. Stephanie, our server, did a great job making us feel welcome, and checking on us from time to time too.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Needing a place to stay over the weekend that was near Pasadena but more affordable, this turned out to be a good choice. The facility as been renovated and is well appointed.Beds are comfortable, bathrooms are well lit, and there is good closet space for those on an extended trip.The only negative is that the controller for the A/C is a bit limited. It has been moved to a wall thermostat, even though the unit is located below the window. Finding the right setting for comfort was a bit challenging.Parking is free, and was easy to find near the entrance too. We pre-paid our room, saving about $10.00 per night, and used that $10.00 to purchase their buffet breakfast ($5.00 per person) which is normally $14.95 each. The selection of food was good; potatoes, scrambled eggs with or without ham, both bacon and link sausage, pancakes, oatmeal, fresh fruit, yogurt etc. A carafe of orange juice and a pot of coffee was left at our table, making refills easy to get when needed. Stephanie, our server, did a great job making us feel welcome, and checking on us from time to time too.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r319499593-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -1316,9 +1889,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>TherealVman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r319192039-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1334,9 +1904,6 @@
     <t>Pretty standard HIE.  Check in folks were very nice and quickly had me on my way.  I was in L.A. during a hot spell and the AC was a little overmatched to the heat and humidity.  It kept cycling on and off and was a bit loud.Room was clean, a little worn.  Since this is a Holiday Inn, no free breakfast.  So I went to Marie Callenders, next door.With the exception for the A/C, the road noise didn't intrude.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn West Covina, responded to this reviewResponded October 31, 2015</t>
   </si>
   <si>
@@ -1344,9 +1911,6 @@
   </si>
   <si>
     <t>Pretty standard HIE.  Check in folks were very nice and quickly had me on my way.  I was in L.A. during a hot spell and the AC was a little overmatched to the heat and humidity.  It kept cycling on and off and was a bit loud.Room was clean, a little worn.  Since this is a Holiday Inn, no free breakfast.  So I went to Marie Callenders, next door.With the exception for the A/C, the road noise didn't intrude.More</t>
-  </si>
-  <si>
-    <t>Diane M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r314675172-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -1381,7 +1945,72 @@
 We cut our day short &amp; canceled dinner plans out of exhaustion due to lack of sleep &amp; went back to the room at 7:30...Beware of Bed Bugs!!!We checked in on 9/9 for 3 nights around 9:45 pm.  About an hour later, I went to the bathroom &amp;  noticed a small spot on the towel bath mat but thought it was dirt. I then saw it move. I bent down to take a closer look &amp; it looked like a bed bug but I wasn't sure since I have never seen one, only on the news. We looked it up online and it was indeed a bed bug.I placed a cup over it and we took it down to the front desk. We spoke with  the supervisor and asked her to give us a new room. She switched us to another room 2 floors down and comped a couple of loads of laundry. She also told us that she would comp our stay. We left and repacked our stuff and moved it to the new room. We researched how to look for bed bugs &amp; spent a lot of time tearing the room apart &amp; putting it back together. We didn't finish until 2 am. With everything going on we had a hard time sleeping &amp; didn't fall asleep until 4 am. Then at about 9:15 am, the fire alarm went off &amp; we were woken up. We cut our day short &amp; canceled dinner plans out of exhaustion due to lack of sleep &amp; went back to the room at 7:30 only to find that our room was not serviced. So let me get this straight, a guest found a bed bug &amp; your solution is to no longer do a lousy job cleaning but to just not clean the room at all!?!I called the front desk and clerk didn't really seem to care &amp; tried to put the blame on me by accusing me of leaving the DND sign on. I told her that was not the case. She then told me that she could schedule a cleaning first thing in the morning. I'm not exactly sure how that resolves my issue since the room is supposed to be cleaned daily. She offered to send towels, toiletries &amp; linens &amp; told me that I had to put the linens on myself. On Saturday morning, I got the receipt and only 1 day was comped so I went to the front desk. I spoke with the same supervisor and she told me that she may have said that but that she didn't realize that we were staying for 3 nights and that she only meant it for 1 night. I explained some of what happened afterwards and told her that it was pretty serious and that she should comp the other 2 nights especially since that is what she said in the first place. She said that she would talk to her boss. When I came back, she told me that her boss looked us up and that he found out that we are rewards members and would be receiving a survey. Unfortunately, due to trip advisor restrictions, I can't mention the shady practices that followed afterwards but trust me when I tell you that they are bullies and your jaw will drop with what happened next. She ended up comping the 2 days reluctantly after going back and forth for a while and after I stood my ground, again think questionable business practices.As she was doing so, I advised her that she should have a conversation with the housekeeping staff because if they would have cleaned my room properly, I would have never found the bed bug and we would not be having this conversation.Overall we had a pretty miserable time at this location. The amount of time that it took away from our trip is unacceptable. The aggravation we went through not only by finding a bed bug but with the way this was all handled by the judgmental, indifferent, and careless staff as well as feeling bullied is absolutely unacceptable. Also, the management does not take ownership of what happened and will instead point the finger at you and accuse you of bringing in the bed bug. I got a response from the business manager on another review site and was basically told that if the bed bug was not found in the bed or head board and if it had not eaten then there is no way it came from their property. Does that make any sense to you? If you do a bit or research, you will see that there is nothing about them having to be full in order to be from a certain property and they don't only hide in beds. They can get into your luggage, they can hide in drawers, nearby furniture and even around pipes (water, drain, electrical). They can also move from room to room by riding on cloth just like the towel bath mat that we found it on. Just the sheer lack of knowledge about bed bugs that these people in the hotel industry have should send you running to another hotel. This is not the place for you.More</t>
   </si>
   <si>
-    <t>teresa0823</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r309868759-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>309868759</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Nice clean and friendly</t>
+  </si>
+  <si>
+    <t>We booked at the last minute and they greeted us like we were old friends. Our room was clean and quiet even though it was on the first floor. Drawbacks: air conditioner worked a little TOO good. When it ran the room got cold very fast so I ended up putting on an extra shirt just to insulate from the shock factor; also there was no microwave popcorn for sale in the lobby :) the room was very comfortable though.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r303835218-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>303835218</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>An affordable, clean and renovated hotel in the LA county</t>
+  </si>
+  <si>
+    <t>Stayed at Holiday Inn West Covina with friends when travelling to Los Angeles. This is one of the nicer Holiday Inn hotels in North America as the hotel has been recently renovated within the past couple years. Holiday Inn West Covina beats all the other hotels in the Los Angeles county that are within the same price range. The hotel is super affordable and is very clean (which is the most important). 
+Pros: 
+- Clean bedrooms 
+- The rooms have a TV, refrigerator, a microwave, desk, office chair and a small sofa 
+- The hotel provides bathroom amenities
+-  Free self parking and lots of parking 
+-  Close to malls, plazas, and many restaurants 
+-  Right off the Interstate 10 Freeway 
+-  Free Wi-Fi 
+-  Fitness Center and a pool
+-  Check In was quick and simple 
+-  There is air conditioning 
+Cons: 
+- There is a musky smell in the hallway 
+- The Wi-Fi was down for one night (the Wi-Fi speed is not consistent)
+- The pillows do not provide good neck support (too soft for my liking) 
+The hotel charged us for making a phone call to tech support to fix the Wi-Fi when it was the hotel who forwarded us to tech support. However, when speaking to Vivian at the front desk, she was accommodating and removed the charge knowing that it was an error. The hotel has really good customer service for a budget hotel....Stayed at Holiday Inn West Covina with friends when travelling to Los Angeles. This is one of the nicer Holiday Inn hotels in North America as the hotel has been recently renovated within the past couple years. Holiday Inn West Covina beats all the other hotels in the Los Angeles county that are within the same price range. The hotel is super affordable and is very clean (which is the most important). Pros: - Clean bedrooms - The rooms have a TV, refrigerator, a microwave, desk, office chair and a small sofa - The hotel provides bathroom amenities-  Free self parking and lots of parking -  Close to malls, plazas, and many restaurants -  Right off the Interstate 10 Freeway -  Free Wi-Fi -  Fitness Center and a pool-  Check In was quick and simple -  There is air conditioning Cons: - There is a musky smell in the hallway - The Wi-Fi was down for one night (the Wi-Fi speed is not consistent)- The pillows do not provide good neck support (too soft for my liking) The hotel charged us for making a phone call to tech support to fix the Wi-Fi when it was the hotel who forwarded us to tech support. However, when speaking to Vivian at the front desk, she was accommodating and removed the charge knowing that it was an error. The hotel has really good customer service for a budget hotel.  Hence, if you are looking to travel to Los Angeles on a budget,  I recommend staying at this hotel if you do not mind the 30 min drive to the centre of Los Angeles.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Stayed at Holiday Inn West Covina with friends when travelling to Los Angeles. This is one of the nicer Holiday Inn hotels in North America as the hotel has been recently renovated within the past couple years. Holiday Inn West Covina beats all the other hotels in the Los Angeles county that are within the same price range. The hotel is super affordable and is very clean (which is the most important). 
+Pros: 
+- Clean bedrooms 
+- The rooms have a TV, refrigerator, a microwave, desk, office chair and a small sofa 
+- The hotel provides bathroom amenities
+-  Free self parking and lots of parking 
+-  Close to malls, plazas, and many restaurants 
+-  Right off the Interstate 10 Freeway 
+-  Free Wi-Fi 
+-  Fitness Center and a pool
+-  Check In was quick and simple 
+-  There is air conditioning 
+Cons: 
+- There is a musky smell in the hallway 
+- The Wi-Fi was down for one night (the Wi-Fi speed is not consistent)
+- The pillows do not provide good neck support (too soft for my liking) 
+The hotel charged us for making a phone call to tech support to fix the Wi-Fi when it was the hotel who forwarded us to tech support. However, when speaking to Vivian at the front desk, she was accommodating and removed the charge knowing that it was an error. The hotel has really good customer service for a budget hotel....Stayed at Holiday Inn West Covina with friends when travelling to Los Angeles. This is one of the nicer Holiday Inn hotels in North America as the hotel has been recently renovated within the past couple years. Holiday Inn West Covina beats all the other hotels in the Los Angeles county that are within the same price range. The hotel is super affordable and is very clean (which is the most important). Pros: - Clean bedrooms - The rooms have a TV, refrigerator, a microwave, desk, office chair and a small sofa - The hotel provides bathroom amenities-  Free self parking and lots of parking -  Close to malls, plazas, and many restaurants -  Right off the Interstate 10 Freeway -  Free Wi-Fi -  Fitness Center and a pool-  Check In was quick and simple -  There is air conditioning Cons: - There is a musky smell in the hallway - The Wi-Fi was down for one night (the Wi-Fi speed is not consistent)- The pillows do not provide good neck support (too soft for my liking) The hotel charged us for making a phone call to tech support to fix the Wi-Fi when it was the hotel who forwarded us to tech support. However, when speaking to Vivian at the front desk, she was accommodating and removed the charge knowing that it was an error. The hotel has really good customer service for a budget hotel.  Hence, if you are looking to travel to Los Angeles on a budget,  I recommend staying at this hotel if you do not mind the 30 min drive to the centre of Los Angeles.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r302024287-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -1399,12 +2028,6 @@
     <t xml:space="preserve">The entrance was nice. The parking is self park and best part is it's free. The staff was friendly and fast since I was tired. The rooms where nice, clean and comfortable. Really good comfy beds and nice clean showers fridge and microwave in room. We walked in and got a room with 2 queen beds and free breakfast for $114 very well worth the price. </t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
-    <t>Dawna O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r290934347-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1423,9 +2046,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>BaleTula</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r289823162-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1441,7 +2061,46 @@
     <t>Management photos do not lie. High quality sheets. Very clean rooms. Microwave and mini refrigerators in rooms. Perky customer service. However, Trip Advisor needs to correct that free breakfast is included BECAUSE Breakfast IS NOT FREE!!! The only thing free is Iced Lemon Water in the lobby.</t>
   </si>
   <si>
-    <t>Mike W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r286817506-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>286817506</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Simple stay</t>
+  </si>
+  <si>
+    <t>No bells or whistles, just a simple clean hotel room. It was clean and well maintained, but on the downside; it was small and the walls are paper thin.  The staff is nice and helpful, check-in was easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tommy S, General Manager at Holiday Inn West Covina, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>No bells or whistles, just a simple clean hotel room. It was clean and well maintained, but on the downside; it was small and the walls are paper thin.  The staff is nice and helpful, check-in was easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r285315170-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>285315170</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Great Stay in West Covina California</t>
+  </si>
+  <si>
+    <t>We made a reservation for this hotel "Holiday Inn" to arrive at 11pm. Our flight was delayed an hour and the Dollar rental car had a line of over 100 people. I called ahead and let them I was still on the way. The lady that answered was very understanding.  When we arrived at 240 am yes rental car took that long July 3rd. We made it the room. Ooh man it was very nice. Needless to say we went right to sleep and the beds were comfortable.  Room was super clean and the bathroom and roomy shower topped it off to a good morning.  Went down to the buffet breakfast and the waitress was very nice and really took care of us. The food was delicious even the egg rolls for breakfast were yummy. Or spring rolls whatever they were, we're good!. This place is highly recommended right off the 10 fwy.MoreShow less</t>
+  </si>
+  <si>
+    <t>We made a reservation for this hotel "Holiday Inn" to arrive at 11pm. Our flight was delayed an hour and the Dollar rental car had a line of over 100 people. I called ahead and let them I was still on the way. The lady that answered was very understanding.  When we arrived at 240 am yes rental car took that long July 3rd. We made it the room. Ooh man it was very nice. Needless to say we went right to sleep and the beds were comfortable.  Room was super clean and the bathroom and roomy shower topped it off to a good morning.  Went down to the buffet breakfast and the waitress was very nice and really took care of us. The food was delicious even the egg rolls for breakfast were yummy. Or spring rolls whatever they were, we're good!. This place is highly recommended right off the 10 fwy.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r285201522-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -1468,9 +2127,6 @@
     <t>Wonderful new hotel in west covina, next to many named shopping stores, there's 4 more hotels here, but this is the one you should choose.Nice restaurant serving American breakfast and Chinese Dinner, more and much more restaurant near by.2 minuts to highway 10 exit. access to many famus city here, close to Ontario airport, and big shopping mall.Staffs very friendly, the management work very hard to give you home away from home feeling.I like this hotel a lot!More</t>
   </si>
   <si>
-    <t>Clint A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r284377852-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1492,9 +2148,6 @@
     <t>I spent a week here recently for an event that had us working very long days so my time in the room was mostly to sleep. The room was spacious and comfortable. It was on the ground floor which I expected to be noisy since I was only a couple doors down from the elevator but I had no issues. Location was reasonable walking distance to several restaurants and shopping. The staff was helpful and accommodating. I would stay here again. There were a couple of spots in the room that had not been cleaned as well as I would have liked but nothing worthy of me complaining about to the mgmt.More</t>
   </si>
   <si>
-    <t>Aerovergalineas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r275105028-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1522,7 +2175,57 @@
     <t>Was here specifically to visit my mother. She had been staying here for a day or so. My room was at the end of the hall #327. a bit pricy $129, but very adequate. small bathroom, but very generous sized room. and "view" out the window of a Ficus tree and Fairfield inn by marriott next door.  nice touch with the Green lighting accent at night.More</t>
   </si>
   <si>
-    <t>charlesodonnell</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r269841201-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>269841201</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t>I don't know what I was expecting staying this far east  in LA. We figured it didn't matter as we we're going to do a lot of driving around and this hotel had plenty of free parking and that was an added bonus. We stayed for 5 days and through exhaustion at the end of the day were always happy to get back to this hotel. The staff were always welcoming. The hotel has a brand new feel to it. I was told the whole complex was revamped last september and it shows.One gets the impression the staff enjoy working there because of it. Also, most of the girls at the desk were 
+young and clearly enjoyed each other's company. I can't fault anything. The rooms were spacious, the shower had reasonably good pressure,the wifi was great, the beds comfortable and we had a good view of the pool on the 4th floor.. We didn't use the restaurant as we ate out every night. For breakfast it was a 5 min walk around the back of the hotel to Dennys. I didn't mention it at the time as I wasn't sure if it was just me but there was a noticeable slight sewerage smell upon entering the lobby heading towards the desk. Not sure now if it was because of a door to the outside opened next to the desk or not. Anyhow, it doesn't deter me saying that without...I don't know what I was expecting staying this far east  in LA. We figured it didn't matter as we we're going to do a lot of driving around and this hotel had plenty of free parking and that was an added bonus. We stayed for 5 days and through exhaustion at the end of the day were always happy to get back to this hotel. The staff were always welcoming. The hotel has a brand new feel to it. I was told the whole complex was revamped last september and it shows.One gets the impression the staff enjoy working there because of it. Also, most of the girls at the desk were young and clearly enjoyed each other's company. I can't fault anything. The rooms were spacious, the shower had reasonably good pressure,the wifi was great, the beds comfortable and we had a good view of the pool on the 4th floor.. We didn't use the restaurant as we ate out every night. For breakfast it was a 5 min walk around the back of the hotel to Dennys. I didn't mention it at the time as I wasn't sure if it was just me but there was a noticeable slight sewerage smell upon entering the lobby heading towards the desk. Not sure now if it was because of a door to the outside opened next to the desk or not. Anyhow, it doesn't deter me saying that without hesitation I would stay in this hotel again and look forward to doing so.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Tommy S, General Manager at Holiday Inn West Covina, responded to this reviewResponded May 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2015</t>
+  </si>
+  <si>
+    <t>I don't know what I was expecting staying this far east  in LA. We figured it didn't matter as we we're going to do a lot of driving around and this hotel had plenty of free parking and that was an added bonus. We stayed for 5 days and through exhaustion at the end of the day were always happy to get back to this hotel. The staff were always welcoming. The hotel has a brand new feel to it. I was told the whole complex was revamped last september and it shows.One gets the impression the staff enjoy working there because of it. Also, most of the girls at the desk were 
+young and clearly enjoyed each other's company. I can't fault anything. The rooms were spacious, the shower had reasonably good pressure,the wifi was great, the beds comfortable and we had a good view of the pool on the 4th floor.. We didn't use the restaurant as we ate out every night. For breakfast it was a 5 min walk around the back of the hotel to Dennys. I didn't mention it at the time as I wasn't sure if it was just me but there was a noticeable slight sewerage smell upon entering the lobby heading towards the desk. Not sure now if it was because of a door to the outside opened next to the desk or not. Anyhow, it doesn't deter me saying that without...I don't know what I was expecting staying this far east  in LA. We figured it didn't matter as we we're going to do a lot of driving around and this hotel had plenty of free parking and that was an added bonus. We stayed for 5 days and through exhaustion at the end of the day were always happy to get back to this hotel. The staff were always welcoming. The hotel has a brand new feel to it. I was told the whole complex was revamped last september and it shows.One gets the impression the staff enjoy working there because of it. Also, most of the girls at the desk were young and clearly enjoyed each other's company. I can't fault anything. The rooms were spacious, the shower had reasonably good pressure,the wifi was great, the beds comfortable and we had a good view of the pool on the 4th floor.. We didn't use the restaurant as we ate out every night. For breakfast it was a 5 min walk around the back of the hotel to Dennys. I didn't mention it at the time as I wasn't sure if it was just me but there was a noticeable slight sewerage smell upon entering the lobby heading towards the desk. Not sure now if it was because of a door to the outside opened next to the desk or not. Anyhow, it doesn't deter me saying that without hesitation I would stay in this hotel again and look forward to doing so.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r268213820-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>268213820</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>Wonderful renovated new Holiday Inn with a fantastic staff!</t>
+  </si>
+  <si>
+    <t>I have stayed at every hotel on this strip of road in Covina as I travel to Ikea often (which is right around the corner, literally)  and this is the best hotel of the bunch by far. Why you ask?  Where should I start?   Beginning with ALL of their friendly, attentive and super - awesome  staff I encountered  (Thank you Roxanne and all!  Everyone is fantastic and they alway make me feel welcome!), fantastic comfortable beds,  clean well appointed  rooms, a restaurant (including room service, yay!) Free parking o' plenty and wifi.   Loved the large comfy room layout which is about twice as big as one property in particular on this same stretch of road I won't mention), the lighting (the lamps have two switches for settings so you can dim it down or make it bright if you are reading...love it!!), the FULL sized mini-fridge (not the cube that you can't get a 2 liter into without a fight), the bedding including a firm and a soft set of pillows... loved both,  microwave (which other properties don't often offer when a restaurant is on site.  friendly housekeeping,  lots of outlets so you don't have to hunt,  a pool that isn't squeezed into the property as an afterthought,  lots of shopping and restaurants within 2 minutes.  The wifi has improved since my first stay when the renovation was just completed so that is awesome.  And after multiple stays there, the...I have stayed at every hotel on this strip of road in Covina as I travel to Ikea often (which is right around the corner, literally)  and this is the best hotel of the bunch by far. Why you ask?  Where should I start?   Beginning with ALL of their friendly, attentive and super - awesome  staff I encountered  (Thank you Roxanne and all!  Everyone is fantastic and they alway make me feel welcome!), fantastic comfortable beds,  clean well appointed  rooms, a restaurant (including room service, yay!) Free parking o' plenty and wifi.   Loved the large comfy room layout which is about twice as big as one property in particular on this same stretch of road I won't mention), the lighting (the lamps have two switches for settings so you can dim it down or make it bright if you are reading...love it!!), the FULL sized mini-fridge (not the cube that you can't get a 2 liter into without a fight), the bedding including a firm and a soft set of pillows... loved both,  microwave (which other properties don't often offer when a restaurant is on site.  friendly housekeeping,  lots of outlets so you don't have to hunt,  a pool that isn't squeezed into the property as an afterthought,  lots of shopping and restaurants within 2 minutes.  The wifi has improved since my first stay when the renovation was just completed so that is awesome.  And after multiple stays there, the only complaint I can see someone having is a lack of closet.  However, they do have a rack to hang your clothing that has a shelf on top that I don't mind at all,  it's placed at a perfect spot that I can throw my key card and never have to hunt around for it on the way out.  I will continue staying here whenever I find myself coming to West Covina for Ikea!MoreShow less</t>
+  </si>
+  <si>
+    <t>Tommy S, General Manager at Holiday Inn West Covina, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at every hotel on this strip of road in Covina as I travel to Ikea often (which is right around the corner, literally)  and this is the best hotel of the bunch by far. Why you ask?  Where should I start?   Beginning with ALL of their friendly, attentive and super - awesome  staff I encountered  (Thank you Roxanne and all!  Everyone is fantastic and they alway make me feel welcome!), fantastic comfortable beds,  clean well appointed  rooms, a restaurant (including room service, yay!) Free parking o' plenty and wifi.   Loved the large comfy room layout which is about twice as big as one property in particular on this same stretch of road I won't mention), the lighting (the lamps have two switches for settings so you can dim it down or make it bright if you are reading...love it!!), the FULL sized mini-fridge (not the cube that you can't get a 2 liter into without a fight), the bedding including a firm and a soft set of pillows... loved both,  microwave (which other properties don't often offer when a restaurant is on site.  friendly housekeeping,  lots of outlets so you don't have to hunt,  a pool that isn't squeezed into the property as an afterthought,  lots of shopping and restaurants within 2 minutes.  The wifi has improved since my first stay when the renovation was just completed so that is awesome.  And after multiple stays there, the...I have stayed at every hotel on this strip of road in Covina as I travel to Ikea often (which is right around the corner, literally)  and this is the best hotel of the bunch by far. Why you ask?  Where should I start?   Beginning with ALL of their friendly, attentive and super - awesome  staff I encountered  (Thank you Roxanne and all!  Everyone is fantastic and they alway make me feel welcome!), fantastic comfortable beds,  clean well appointed  rooms, a restaurant (including room service, yay!) Free parking o' plenty and wifi.   Loved the large comfy room layout which is about twice as big as one property in particular on this same stretch of road I won't mention), the lighting (the lamps have two switches for settings so you can dim it down or make it bright if you are reading...love it!!), the FULL sized mini-fridge (not the cube that you can't get a 2 liter into without a fight), the bedding including a firm and a soft set of pillows... loved both,  microwave (which other properties don't often offer when a restaurant is on site.  friendly housekeeping,  lots of outlets so you don't have to hunt,  a pool that isn't squeezed into the property as an afterthought,  lots of shopping and restaurants within 2 minutes.  The wifi has improved since my first stay when the renovation was just completed so that is awesome.  And after multiple stays there, the only complaint I can see someone having is a lack of closet.  However, they do have a rack to hang your clothing that has a shelf on top that I don't mind at all,  it's placed at a perfect spot that I can throw my key card and never have to hunt around for it on the way out.  I will continue staying here whenever I find myself coming to West Covina for Ikea!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r265577585-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -1540,9 +2243,6 @@
     <t>Nice rooms that were clean and comfortable as well as quiet. This holiday inn also has a restaurant and we found the food to be very good and inexpensive. Would definitely consider staying here again. One block from shopping mall and many restaurants as well as close to freeway on-ramps and off-ramps. 20 minutes from Ontario airport.MoreShow less</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t>Tommy S, General Manager at Holiday Inn West Covina, responded to this reviewResponded April 19, 2015</t>
   </si>
   <si>
@@ -1552,9 +2252,6 @@
     <t>Nice rooms that were clean and comfortable as well as quiet. This holiday inn also has a restaurant and we found the food to be very good and inexpensive. Would definitely consider staying here again. One block from shopping mall and many restaurants as well as close to freeway on-ramps and off-ramps. 20 minutes from Ontario airport.More</t>
   </si>
   <si>
-    <t>John K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r259174078-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1576,9 +2273,6 @@
     <t>We hoped for a nice place when made the reservation.  Check-in was a breeze.  The room was clean, comfortable, and well appointed.  While close to the freeway, the was no noise in the room.  The restaurant was nice, reasonably priced, with a good selection.  I would definitely stay there again.More</t>
   </si>
   <si>
-    <t>VietTravelers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r258041924-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1597,7 +2291,58 @@
     <t>At first I thought that I would get free breakfast like I normally got at HI. We are Platinum member with IHG and they forgot to give us any amenities. Not even bottle water or Welcome Bonus Points. The property was clean and nice. The room was spacious enough for us. But the hotel was completely booked with kids. I think they had an event or something for their school.More</t>
   </si>
   <si>
-    <t>Karen S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r247284383-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>247284383</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>Unusable Internet</t>
+  </si>
+  <si>
+    <t>Rooms were clean and reasonably priced for what you get. Exercise room has very little equipment but at least the two treadmills both worked well. My only gripe, which is significant given that I was counting on getting a fair amount of work done during my stay, was that the free Internet was unusable.  Took forever to get connected and then kept dropping so could do nothing.  I tried many times, also from the lobby and outside various other rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn West Covina, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Rooms were clean and reasonably priced for what you get. Exercise room has very little equipment but at least the two treadmills both worked well. My only gripe, which is significant given that I was counting on getting a fair amount of work done during my stay, was that the free Internet was unusable.  Took forever to get connected and then kept dropping so could do nothing.  I tried many times, also from the lobby and outside various other rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r239121005-Holiday_Inn_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>239121005</t>
+  </si>
+  <si>
+    <t>11/10/2014</t>
+  </si>
+  <si>
+    <t>very friendly staff,freezing cold pool,no hot tub</t>
+  </si>
+  <si>
+    <t>first let me say the staff could not have been nicer,stayed with wife and two boys for local baseball tourney.after a long day the kids headed to pool area,witch is beautiful with awesome furniture,but when the kids jumped in they were freezing,i cant remember last hotel with a pool that was so cold.what a shame because the pool area is nice and relaxing area,also a hot tub would be great.the only other gripe was the room givin was right next to laundry room and on noisy freeway side.hotel was mostly empty, so why the put us in that room was suprising.room was very clean and modern and seemed like a good value.but the brrrrr freezing pool would keep me from staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Tommy S, General Manager at Holiday Inn West Covina, responded to this reviewResponded November 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2014</t>
+  </si>
+  <si>
+    <t>first let me say the staff could not have been nicer,stayed with wife and two boys for local baseball tourney.after a long day the kids headed to pool area,witch is beautiful with awesome furniture,but when the kids jumped in they were freezing,i cant remember last hotel with a pool that was so cold.what a shame because the pool area is nice and relaxing area,also a hot tub would be great.the only other gripe was the room givin was right next to laundry room and on noisy freeway side.hotel was mostly empty, so why the put us in that room was suprising.room was very clean and modern and seemed like a good value.but the brrrrr freezing pool would keep me from staying again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r238666826-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -1615,9 +2360,6 @@
     <t>While checking in I was asked if I booked through Holiday Inn or Expedia and truthfully I couldn't remember. Later I did recall that I did book through Travelocity because I wanted the option to cancel if needed. I had to laugh but at the same time I was extremely frustrated when I was trying to get ready in the "closet" bathroom. Imagine putting your hip out because you were leaning over the toilet to see in the mirror. At one point I ended up hanging the toilet paper roll on the door latch because it was more convenient there than behind me. I was also placed in a room at the end of the hall which of course was by an exit door with a spring loaded closing feature. SLAM...SLAM...etc. On a more positive note: The room was clean, the bed was comfortable and I would recommend them to a friend.MoreShow less</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>Tommy S, General Manager at Holiday Inn West Covina, responded to this reviewResponded November 13, 2014</t>
   </si>
   <si>
@@ -1627,9 +2369,6 @@
     <t>While checking in I was asked if I booked through Holiday Inn or Expedia and truthfully I couldn't remember. Later I did recall that I did book through Travelocity because I wanted the option to cancel if needed. I had to laugh but at the same time I was extremely frustrated when I was trying to get ready in the "closet" bathroom. Imagine putting your hip out because you were leaning over the toilet to see in the mirror. At one point I ended up hanging the toilet paper roll on the door latch because it was more convenient there than behind me. I was also placed in a room at the end of the hall which of course was by an exit door with a spring loaded closing feature. SLAM...SLAM...etc. On a more positive note: The room was clean, the bed was comfortable and I would recommend them to a friend.More</t>
   </si>
   <si>
-    <t>Trish P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r233973890-Holiday_Inn_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1655,9 +2394,6 @@
   </si>
   <si>
     <t>We had an unplanned stay here recently, without a single piece of luggage, and the staff more than accommodated for us! As a family of four, we were given all of the complimentary toiletries and even took advantage of the guest laundry facilities. Front desk staff was excellent and very helpful. Rooms were also very clean and comfortable. We'd stay again for sure, but next time, we'll come prepared! :-)More</t>
-  </si>
-  <si>
-    <t>deepthoughts</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d82571-r233536829-Holiday_Inn_West_Covina-West_Covina_California.html</t>
@@ -2183,47 +2919,43 @@
       <c r="A2" t="n">
         <v>155</v>
       </c>
-      <c r="B2" t="n">
-        <v>193273</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2234,61 +2966,53 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>155</v>
       </c>
-      <c r="B3" t="n">
-        <v>193274</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2299,61 +3023,53 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>155</v>
       </c>
-      <c r="B4" t="n">
-        <v>8743</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2364,61 +3080,53 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
         <v>65</v>
-      </c>
-      <c r="X4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>155</v>
       </c>
-      <c r="B5" t="n">
-        <v>193275</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2429,130 +3137,116 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>82</v>
-      </c>
-      <c r="X5" t="s">
-        <v>83</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>155</v>
       </c>
-      <c r="B6" t="n">
-        <v>193276</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>92</v>
-      </c>
-      <c r="X6" t="s">
-        <v>93</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>155</v>
       </c>
-      <c r="B7" t="n">
-        <v>2429</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2563,61 +3257,53 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>101</v>
-      </c>
-      <c r="X7" t="s">
-        <v>102</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>155</v>
       </c>
-      <c r="B8" t="n">
-        <v>193277</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2628,122 +3314,118 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>155</v>
       </c>
-      <c r="B9" t="n">
-        <v>34173</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>155</v>
       </c>
-      <c r="B10" t="n">
-        <v>193278</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2755,125 +3437,123 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>155</v>
       </c>
-      <c r="B11" t="n">
-        <v>193279</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
         <v>4</v>
       </c>
-      <c r="N11" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>155</v>
       </c>
-      <c r="B12" t="n">
-        <v>193280</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2885,68 +3565,62 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>155</v>
       </c>
-      <c r="B13" t="n">
-        <v>193281</v>
-      </c>
-      <c r="C13" t="s">
-        <v>145</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
         <v>4</v>
       </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -2956,139 +3630,123 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>155</v>
       </c>
-      <c r="B14" t="n">
-        <v>193282</v>
-      </c>
-      <c r="C14" t="s">
-        <v>154</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="X14" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>155</v>
       </c>
-      <c r="B15" t="n">
-        <v>21322</v>
-      </c>
-      <c r="C15" t="s">
-        <v>164</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -3098,200 +3756,178 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="X15" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="Y15" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>155</v>
       </c>
-      <c r="B16" t="n">
-        <v>55506</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="O16" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="X16" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="Y16" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>155</v>
       </c>
-      <c r="B17" t="n">
-        <v>193283</v>
-      </c>
-      <c r="C17" t="s">
-        <v>183</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="X17" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="Y17" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>155</v>
       </c>
-      <c r="B18" t="n">
-        <v>193284</v>
-      </c>
-      <c r="C18" t="s">
-        <v>193</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3303,137 +3939,119 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="X18" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="Y18" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>155</v>
       </c>
-      <c r="B19" t="n">
-        <v>17545</v>
-      </c>
-      <c r="C19" t="s">
-        <v>203</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="L19" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>209</v>
-      </c>
-      <c r="X19" t="s">
-        <v>210</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>155</v>
       </c>
-      <c r="B20" t="n">
-        <v>190974</v>
-      </c>
-      <c r="C20" t="s">
-        <v>212</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
@@ -3442,61 +4060,53 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>219</v>
-      </c>
-      <c r="X20" t="s">
-        <v>220</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>155</v>
       </c>
-      <c r="B21" t="n">
-        <v>193285</v>
-      </c>
-      <c r="C21" t="s">
-        <v>222</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3508,347 +4118,311 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="X21" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="Y21" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>155</v>
       </c>
-      <c r="B22" t="n">
-        <v>193286</v>
-      </c>
-      <c r="C22" t="s">
-        <v>231</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>81</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>228</v>
-      </c>
-      <c r="X22" t="s">
-        <v>229</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>155</v>
       </c>
-      <c r="B23" t="n">
-        <v>193287</v>
-      </c>
-      <c r="C23" t="s">
-        <v>239</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>246</v>
-      </c>
-      <c r="X23" t="s">
-        <v>247</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>155</v>
       </c>
-      <c r="B24" t="n">
-        <v>193288</v>
-      </c>
-      <c r="C24" t="s">
-        <v>249</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="O24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="X24" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="Y24" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>155</v>
       </c>
-      <c r="B25" t="n">
-        <v>584</v>
-      </c>
-      <c r="C25" t="s">
-        <v>259</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="X25" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="Y25" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>155</v>
       </c>
-      <c r="B26" t="n">
-        <v>9091</v>
-      </c>
-      <c r="C26" t="s">
-        <v>268</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c r="L26" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
       <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3857,60 +4431,56 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="X26" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="Y26" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>155</v>
       </c>
-      <c r="B27" t="n">
-        <v>47537</v>
-      </c>
-      <c r="C27" t="s">
-        <v>278</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="J27" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3922,263 +4492,263 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="X27" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="Y27" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>155</v>
       </c>
-      <c r="B28" t="n">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>287</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="K28" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>293</v>
+        <v>180</v>
       </c>
       <c r="O28" t="s">
-        <v>64</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
       <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="X28" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="Y28" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>155</v>
       </c>
-      <c r="B29" t="n">
-        <v>193289</v>
-      </c>
-      <c r="C29" t="s">
-        <v>295</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="X29" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="Y29" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>155</v>
       </c>
-      <c r="B30" t="n">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>303</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="J30" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="K30" t="s">
-        <v>307</v>
+        <v>99</v>
       </c>
       <c r="L30" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>293</v>
+        <v>180</v>
       </c>
       <c r="O30" t="s">
-        <v>64</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="X30" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="Y30" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>155</v>
       </c>
-      <c r="B31" t="n">
-        <v>12060</v>
-      </c>
-      <c r="C31" t="s">
-        <v>310</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="K31" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="O31" t="s">
-        <v>179</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -4187,125 +4757,115 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>268</v>
+      </c>
+      <c r="X31" t="s">
+        <v>269</v>
+      </c>
       <c r="Y31" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>155</v>
       </c>
-      <c r="B32" t="n">
-        <v>1170</v>
-      </c>
-      <c r="C32" t="s">
-        <v>315</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="J32" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="K32" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>322</v>
-      </c>
-      <c r="X32" t="s">
-        <v>323</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>155</v>
       </c>
-      <c r="B33" t="n">
-        <v>38246</v>
-      </c>
-      <c r="C33" t="s">
-        <v>325</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="J33" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>282</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
@@ -4315,70 +4875,62 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>331</v>
-      </c>
-      <c r="X33" t="s">
-        <v>332</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>155</v>
       </c>
-      <c r="B34" t="n">
-        <v>193290</v>
-      </c>
-      <c r="C34" t="s">
-        <v>334</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="J34" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="K34" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="O34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
       <c r="R34" t="n">
         <v>5</v>
       </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -4386,183 +4938,185 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>288</v>
+      </c>
+      <c r="X34" t="s">
+        <v>289</v>
+      </c>
       <c r="Y34" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>155</v>
       </c>
-      <c r="B35" t="n">
-        <v>81510</v>
-      </c>
-      <c r="C35" t="s">
-        <v>340</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="K35" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>297</v>
+      </c>
+      <c r="X35" t="s">
+        <v>298</v>
+      </c>
       <c r="Y35" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>155</v>
       </c>
-      <c r="B36" t="n">
-        <v>193291</v>
-      </c>
-      <c r="C36" t="s">
-        <v>348</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="J36" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="O36" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>305</v>
+      </c>
+      <c r="X36" t="s">
+        <v>306</v>
+      </c>
       <c r="Y36" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>155</v>
       </c>
-      <c r="B37" t="n">
-        <v>118477</v>
-      </c>
-      <c r="C37" t="s">
-        <v>355</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4573,63 +5127,65 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>314</v>
+      </c>
+      <c r="X37" t="s">
+        <v>315</v>
+      </c>
       <c r="Y37" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>155</v>
       </c>
-      <c r="B38" t="n">
-        <v>193292</v>
-      </c>
-      <c r="C38" t="s">
-        <v>361</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="J38" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="K38" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="O38" t="s">
-        <v>64</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -4638,66 +5194,64 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>322</v>
+      </c>
+      <c r="X38" t="s">
+        <v>323</v>
+      </c>
       <c r="Y38" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>155</v>
       </c>
-      <c r="B39" t="n">
-        <v>54887</v>
-      </c>
-      <c r="C39" t="s">
-        <v>369</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="J39" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="K39" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="O39" t="s">
-        <v>81</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4705,721 +5259,703 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>330</v>
+      </c>
+      <c r="X39" t="s">
+        <v>331</v>
+      </c>
       <c r="Y39" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>155</v>
       </c>
-      <c r="B40" t="n">
-        <v>44636</v>
-      </c>
-      <c r="C40" t="s">
-        <v>374</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="J40" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="K40" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>338</v>
+      </c>
+      <c r="X40" t="s">
+        <v>339</v>
+      </c>
       <c r="Y40" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>155</v>
       </c>
-      <c r="B41" t="n">
-        <v>193293</v>
-      </c>
-      <c r="C41" t="s">
-        <v>380</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="J41" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="K41" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="L41" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="O41" t="s">
-        <v>387</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>338</v>
+      </c>
+      <c r="X41" t="s">
+        <v>339</v>
+      </c>
       <c r="Y41" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>155</v>
       </c>
-      <c r="B42" t="n">
-        <v>1099</v>
-      </c>
-      <c r="C42" t="s">
-        <v>388</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="J42" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="K42" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="L42" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>394</v>
+        <v>313</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="X42" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="Y42" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>155</v>
       </c>
-      <c r="B43" t="n">
-        <v>193294</v>
-      </c>
-      <c r="C43" t="s">
-        <v>398</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="J43" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="K43" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>394</v>
+        <v>313</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>353</v>
+      </c>
+      <c r="X43" t="s">
+        <v>354</v>
+      </c>
       <c r="Y43" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>155</v>
       </c>
-      <c r="B44" t="n">
-        <v>193295</v>
-      </c>
-      <c r="C44" t="s">
-        <v>404</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>405</v>
+        <v>362</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
       <c r="J44" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="K44" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="L44" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P44" t="s"/>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>353</v>
+      </c>
+      <c r="X44" t="s">
+        <v>354</v>
+      </c>
       <c r="Y44" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>155</v>
       </c>
-      <c r="B45" t="n">
-        <v>3957</v>
-      </c>
-      <c r="C45" t="s">
-        <v>410</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="J45" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="K45" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="L45" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="O45" t="s">
-        <v>387</v>
-      </c>
-      <c r="P45" t="n">
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
         <v>4</v>
       </c>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>375</v>
+      </c>
+      <c r="X45" t="s">
+        <v>376</v>
+      </c>
       <c r="Y45" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>155</v>
       </c>
-      <c r="B46" t="n">
-        <v>10047</v>
-      </c>
-      <c r="C46" t="s">
-        <v>416</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="J46" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="K46" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="L46" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="O46" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>383</v>
+      </c>
+      <c r="X46" t="s">
+        <v>384</v>
+      </c>
       <c r="Y46" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>155</v>
       </c>
-      <c r="B47" t="n">
-        <v>193296</v>
-      </c>
-      <c r="C47" t="s">
-        <v>423</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="J47" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="K47" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="L47" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P47" t="s"/>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>155</v>
       </c>
-      <c r="B48" t="n">
-        <v>193297</v>
-      </c>
-      <c r="C48" t="s">
-        <v>430</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="J48" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="K48" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="L48" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="O48" t="s">
-        <v>81</v>
-      </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="X48" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="Y48" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>155</v>
       </c>
-      <c r="B49" t="n">
-        <v>4142</v>
-      </c>
-      <c r="C49" t="s">
-        <v>440</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="J49" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="K49" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="L49" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="O49" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="X49" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="Y49" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>155</v>
       </c>
-      <c r="B50" t="n">
-        <v>193298</v>
-      </c>
-      <c r="C50" t="s">
-        <v>449</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="J50" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="K50" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="L50" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>455</v>
+        <v>253</v>
       </c>
       <c r="O50" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5430,470 +5966,438 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>414</v>
+      </c>
+      <c r="X50" t="s">
+        <v>415</v>
+      </c>
       <c r="Y50" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>155</v>
       </c>
-      <c r="B51" t="n">
-        <v>193299</v>
-      </c>
-      <c r="C51" t="s">
-        <v>456</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="J51" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="K51" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="L51" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="O51" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="P51" t="s"/>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>406</v>
+      </c>
+      <c r="X51" t="s">
+        <v>407</v>
+      </c>
       <c r="Y51" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>155</v>
       </c>
-      <c r="B52" t="n">
-        <v>193300</v>
-      </c>
-      <c r="C52" t="s">
-        <v>463</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="J52" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="K52" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="L52" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="O52" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>429</v>
+      </c>
+      <c r="X52" t="s">
+        <v>430</v>
+      </c>
       <c r="Y52" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>155</v>
       </c>
-      <c r="B53" t="n">
-        <v>1216</v>
-      </c>
-      <c r="C53" t="s">
-        <v>469</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="J53" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="K53" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="L53" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="O53" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
       <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>475</v>
-      </c>
-      <c r="X53" t="s">
-        <v>476</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>155</v>
       </c>
-      <c r="B54" t="n">
-        <v>193301</v>
-      </c>
-      <c r="C54" t="s">
-        <v>478</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="J54" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="K54" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="L54" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="O54" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="P54" t="s"/>
-      <c r="Q54" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q54" t="s"/>
       <c r="R54" t="s"/>
-      <c r="S54" t="n">
-        <v>3</v>
-      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>475</v>
+        <v>406</v>
       </c>
       <c r="X54" t="s">
-        <v>476</v>
+        <v>407</v>
       </c>
       <c r="Y54" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>155</v>
       </c>
-      <c r="B55" t="n">
-        <v>193302</v>
-      </c>
-      <c r="C55" t="s">
-        <v>486</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="J55" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="K55" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="L55" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>492</v>
+        <v>422</v>
       </c>
       <c r="O55" t="s">
-        <v>54</v>
-      </c>
-      <c r="P55" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
       <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>3</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
       <c r="X55" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="Y55" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>155</v>
       </c>
-      <c r="B56" t="n">
-        <v>193303</v>
-      </c>
-      <c r="C56" t="s">
-        <v>496</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
       <c r="J56" t="s">
-        <v>499</v>
+        <v>446</v>
       </c>
       <c r="K56" t="s">
-        <v>500</v>
+        <v>452</v>
       </c>
       <c r="L56" t="s">
-        <v>501</v>
+        <v>453</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="O56" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
       </c>
-      <c r="Q56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
       <c r="R56" t="s"/>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>503</v>
-      </c>
-      <c r="X56" t="s">
-        <v>504</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>505</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>155</v>
       </c>
-      <c r="B57" t="n">
-        <v>1063</v>
-      </c>
-      <c r="C57" t="s">
-        <v>506</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>507</v>
+        <v>454</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>508</v>
+        <v>455</v>
       </c>
       <c r="J57" t="s">
-        <v>509</v>
+        <v>456</v>
       </c>
       <c r="K57" t="s">
-        <v>510</v>
+        <v>457</v>
       </c>
       <c r="L57" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>512</v>
+        <v>442</v>
       </c>
       <c r="O57" t="s">
-        <v>387</v>
+        <v>66</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
-        <v>5</v>
-      </c>
-      <c r="R57" t="n">
         <v>4</v>
       </c>
-      <c r="S57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
         <v>4</v>
@@ -5902,278 +6406,252 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>503</v>
+        <v>406</v>
       </c>
       <c r="X57" t="s">
-        <v>504</v>
+        <v>407</v>
       </c>
       <c r="Y57" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>155</v>
       </c>
-      <c r="B58" t="n">
-        <v>193304</v>
-      </c>
-      <c r="C58" t="s">
-        <v>514</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>515</v>
+        <v>460</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>516</v>
+        <v>461</v>
       </c>
       <c r="J58" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
       <c r="K58" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="L58" t="s">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>512</v>
+        <v>442</v>
       </c>
       <c r="O58" t="s">
-        <v>81</v>
-      </c>
-      <c r="P58" t="n">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P58" t="s"/>
       <c r="Q58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R58" t="s"/>
-      <c r="S58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>503</v>
-      </c>
-      <c r="X58" t="s">
-        <v>504</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>520</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>155</v>
       </c>
-      <c r="B59" t="n">
-        <v>10035</v>
-      </c>
-      <c r="C59" t="s">
-        <v>521</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>522</v>
+        <v>465</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>523</v>
+        <v>466</v>
       </c>
       <c r="J59" t="s">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="K59" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
       <c r="L59" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>527</v>
+        <v>470</v>
       </c>
       <c r="O59" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q59" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
       <c r="R59" t="s"/>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>528</v>
+        <v>471</v>
       </c>
       <c r="X59" t="s">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="Y59" t="s">
-        <v>530</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>155</v>
       </c>
-      <c r="B60" t="n">
-        <v>29578</v>
-      </c>
-      <c r="C60" t="s">
-        <v>531</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>532</v>
+        <v>474</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>533</v>
+        <v>475</v>
       </c>
       <c r="J60" t="s">
-        <v>534</v>
+        <v>476</v>
       </c>
       <c r="K60" t="s">
-        <v>535</v>
+        <v>477</v>
       </c>
       <c r="L60" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
-      </c>
-      <c r="N60" t="s">
-        <v>537</v>
-      </c>
-      <c r="O60" t="s">
-        <v>54</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
       <c r="P60" t="s"/>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
       <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>538</v>
+        <v>479</v>
       </c>
       <c r="X60" t="s">
-        <v>539</v>
+        <v>480</v>
       </c>
       <c r="Y60" t="s">
-        <v>540</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>155</v>
       </c>
-      <c r="B61" t="n">
-        <v>193305</v>
-      </c>
-      <c r="C61" t="s">
-        <v>541</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>543</v>
+        <v>483</v>
       </c>
       <c r="J61" t="s">
-        <v>544</v>
+        <v>484</v>
       </c>
       <c r="K61" t="s">
-        <v>545</v>
+        <v>485</v>
       </c>
       <c r="L61" t="s">
-        <v>546</v>
+        <v>486</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>547</v>
+        <v>470</v>
       </c>
       <c r="O61" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
       <c r="R61" t="n">
         <v>5</v>
       </c>
-      <c r="S61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
         <v>5</v>
@@ -6181,14 +6659,2817 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s">
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>155</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>487</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>488</v>
+      </c>
+      <c r="J62" t="s">
+        <v>489</v>
+      </c>
+      <c r="K62" t="s">
+        <v>490</v>
+      </c>
+      <c r="L62" t="s">
+        <v>491</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>470</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>155</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>492</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>493</v>
+      </c>
+      <c r="J63" t="s">
+        <v>494</v>
+      </c>
+      <c r="K63" t="s">
+        <v>495</v>
+      </c>
+      <c r="L63" t="s">
+        <v>496</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>497</v>
+      </c>
+      <c r="O63" t="s">
+        <v>73</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>155</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>498</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>499</v>
+      </c>
+      <c r="J64" t="s">
+        <v>494</v>
+      </c>
+      <c r="K64" t="s">
+        <v>500</v>
+      </c>
+      <c r="L64" t="s">
+        <v>501</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>502</v>
+      </c>
+      <c r="O64" t="s">
+        <v>73</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>155</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>504</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>505</v>
+      </c>
+      <c r="J65" t="s">
+        <v>506</v>
+      </c>
+      <c r="K65" t="s">
+        <v>507</v>
+      </c>
+      <c r="L65" t="s">
+        <v>508</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>497</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>155</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>509</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>510</v>
+      </c>
+      <c r="J66" t="s">
+        <v>511</v>
+      </c>
+      <c r="K66" t="s">
+        <v>512</v>
+      </c>
+      <c r="L66" t="s">
+        <v>513</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>502</v>
+      </c>
+      <c r="O66" t="s">
+        <v>73</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>155</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>514</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>515</v>
+      </c>
+      <c r="J67" t="s">
+        <v>516</v>
+      </c>
+      <c r="K67" t="s">
+        <v>517</v>
+      </c>
+      <c r="L67" t="s">
+        <v>518</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>519</v>
+      </c>
+      <c r="O67" t="s">
+        <v>73</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>155</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>520</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>521</v>
+      </c>
+      <c r="J68" t="s">
+        <v>522</v>
+      </c>
+      <c r="K68" t="s">
+        <v>523</v>
+      </c>
+      <c r="L68" t="s">
+        <v>524</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>519</v>
+      </c>
+      <c r="O68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>155</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>525</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>526</v>
+      </c>
+      <c r="J69" t="s">
+        <v>527</v>
+      </c>
+      <c r="K69" t="s">
+        <v>528</v>
+      </c>
+      <c r="L69" t="s">
+        <v>529</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>519</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>155</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>531</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>532</v>
+      </c>
+      <c r="J70" t="s">
+        <v>527</v>
+      </c>
+      <c r="K70" t="s">
+        <v>533</v>
+      </c>
+      <c r="L70" t="s">
+        <v>534</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>519</v>
+      </c>
+      <c r="O70" t="s">
+        <v>66</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>155</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>535</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>536</v>
+      </c>
+      <c r="J71" t="s">
+        <v>537</v>
+      </c>
+      <c r="K71" t="s">
         <v>538</v>
       </c>
-      <c r="X61" t="s">
+      <c r="L71" t="s">
         <v>539</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>519</v>
+      </c>
+      <c r="O71" t="s">
+        <v>73</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>155</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>540</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>541</v>
+      </c>
+      <c r="J72" t="s">
+        <v>542</v>
+      </c>
+      <c r="K72" t="s">
+        <v>543</v>
+      </c>
+      <c r="L72" t="s">
+        <v>544</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>545</v>
+      </c>
+      <c r="O72" t="s">
+        <v>73</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>155</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>547</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
         <v>548</v>
+      </c>
+      <c r="J73" t="s">
+        <v>549</v>
+      </c>
+      <c r="K73" t="s">
+        <v>10</v>
+      </c>
+      <c r="L73" t="s">
+        <v>550</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>545</v>
+      </c>
+      <c r="O73" t="s">
+        <v>80</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>155</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>552</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>553</v>
+      </c>
+      <c r="J74" t="s">
+        <v>554</v>
+      </c>
+      <c r="K74" t="s">
+        <v>555</v>
+      </c>
+      <c r="L74" t="s">
+        <v>556</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>545</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>155</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>557</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>558</v>
+      </c>
+      <c r="J75" t="s">
+        <v>559</v>
+      </c>
+      <c r="K75" t="s">
+        <v>560</v>
+      </c>
+      <c r="L75" t="s">
+        <v>561</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>562</v>
+      </c>
+      <c r="O75" t="s">
+        <v>73</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>563</v>
+      </c>
+      <c r="X75" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>155</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>566</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>567</v>
+      </c>
+      <c r="J76" t="s">
+        <v>568</v>
+      </c>
+      <c r="K76" t="s">
+        <v>569</v>
+      </c>
+      <c r="L76" t="s">
+        <v>570</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>562</v>
+      </c>
+      <c r="O76" t="s">
+        <v>73</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>571</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>572</v>
+      </c>
+      <c r="J77" t="s">
+        <v>573</v>
+      </c>
+      <c r="K77" t="s">
+        <v>574</v>
+      </c>
+      <c r="L77" t="s">
+        <v>575</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>562</v>
+      </c>
+      <c r="O77" t="s">
+        <v>73</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>576</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>577</v>
+      </c>
+      <c r="J78" t="s">
+        <v>578</v>
+      </c>
+      <c r="K78" t="s">
+        <v>579</v>
+      </c>
+      <c r="L78" t="s">
+        <v>580</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>562</v>
+      </c>
+      <c r="O78" t="s">
+        <v>73</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>582</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>583</v>
+      </c>
+      <c r="J79" t="s">
+        <v>584</v>
+      </c>
+      <c r="K79" t="s">
+        <v>585</v>
+      </c>
+      <c r="L79" t="s">
+        <v>586</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>562</v>
+      </c>
+      <c r="O79" t="s">
+        <v>73</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>587</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>588</v>
+      </c>
+      <c r="J80" t="s">
+        <v>589</v>
+      </c>
+      <c r="K80" t="s">
+        <v>590</v>
+      </c>
+      <c r="L80" t="s">
+        <v>591</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>562</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>155</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>592</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>593</v>
+      </c>
+      <c r="J81" t="s">
+        <v>594</v>
+      </c>
+      <c r="K81" t="s">
+        <v>595</v>
+      </c>
+      <c r="L81" t="s">
+        <v>596</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>562</v>
+      </c>
+      <c r="O81" t="s">
+        <v>73</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>598</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>599</v>
+      </c>
+      <c r="J82" t="s">
+        <v>600</v>
+      </c>
+      <c r="K82" t="s">
+        <v>601</v>
+      </c>
+      <c r="L82" t="s">
+        <v>602</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>603</v>
+      </c>
+      <c r="O82" t="s">
+        <v>73</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>155</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>604</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>605</v>
+      </c>
+      <c r="J83" t="s">
+        <v>606</v>
+      </c>
+      <c r="K83" t="s">
+        <v>607</v>
+      </c>
+      <c r="L83" t="s">
+        <v>608</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>609</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>155</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>611</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>612</v>
+      </c>
+      <c r="J84" t="s">
+        <v>613</v>
+      </c>
+      <c r="K84" t="s">
+        <v>614</v>
+      </c>
+      <c r="L84" t="s">
+        <v>615</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>616</v>
+      </c>
+      <c r="O84" t="s">
+        <v>73</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>155</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>617</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>618</v>
+      </c>
+      <c r="J85" t="s">
+        <v>619</v>
+      </c>
+      <c r="K85" t="s">
+        <v>620</v>
+      </c>
+      <c r="L85" t="s">
+        <v>621</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>609</v>
+      </c>
+      <c r="O85" t="s">
+        <v>66</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>622</v>
+      </c>
+      <c r="X85" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>155</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>625</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>626</v>
+      </c>
+      <c r="J86" t="s">
+        <v>627</v>
+      </c>
+      <c r="K86" t="s">
+        <v>628</v>
+      </c>
+      <c r="L86" t="s">
+        <v>629</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>616</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>630</v>
+      </c>
+      <c r="X86" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>155</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>633</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>634</v>
+      </c>
+      <c r="J87" t="s">
+        <v>635</v>
+      </c>
+      <c r="K87" t="s">
+        <v>636</v>
+      </c>
+      <c r="L87" t="s">
+        <v>637</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>616</v>
+      </c>
+      <c r="O87" t="s">
+        <v>73</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>155</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>638</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>639</v>
+      </c>
+      <c r="J88" t="s">
+        <v>640</v>
+      </c>
+      <c r="K88" t="s">
+        <v>641</v>
+      </c>
+      <c r="L88" t="s">
+        <v>642</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>643</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>155</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>645</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>646</v>
+      </c>
+      <c r="J89" t="s">
+        <v>647</v>
+      </c>
+      <c r="K89" t="s">
+        <v>648</v>
+      </c>
+      <c r="L89" t="s">
+        <v>649</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>643</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>155</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>650</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>651</v>
+      </c>
+      <c r="J90" t="s">
+        <v>652</v>
+      </c>
+      <c r="K90" t="s">
+        <v>653</v>
+      </c>
+      <c r="L90" t="s">
+        <v>654</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>655</v>
+      </c>
+      <c r="O90" t="s">
+        <v>66</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>155</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>656</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>657</v>
+      </c>
+      <c r="J91" t="s">
+        <v>658</v>
+      </c>
+      <c r="K91" t="s">
+        <v>659</v>
+      </c>
+      <c r="L91" t="s">
+        <v>660</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>655</v>
+      </c>
+      <c r="O91" t="s">
+        <v>73</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>155</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>661</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>662</v>
+      </c>
+      <c r="J92" t="s">
+        <v>663</v>
+      </c>
+      <c r="K92" t="s">
+        <v>664</v>
+      </c>
+      <c r="L92" t="s">
+        <v>665</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>655</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>666</v>
+      </c>
+      <c r="X92" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>155</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>669</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>670</v>
+      </c>
+      <c r="J93" t="s">
+        <v>671</v>
+      </c>
+      <c r="K93" t="s">
+        <v>672</v>
+      </c>
+      <c r="L93" t="s">
+        <v>673</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>655</v>
+      </c>
+      <c r="O93" t="s">
+        <v>73</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>666</v>
+      </c>
+      <c r="X93" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>155</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>675</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>676</v>
+      </c>
+      <c r="J94" t="s">
+        <v>677</v>
+      </c>
+      <c r="K94" t="s">
+        <v>678</v>
+      </c>
+      <c r="L94" t="s">
+        <v>679</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>655</v>
+      </c>
+      <c r="O94" t="s">
+        <v>73</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>680</v>
+      </c>
+      <c r="X94" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>155</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>683</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>684</v>
+      </c>
+      <c r="J95" t="s">
+        <v>685</v>
+      </c>
+      <c r="K95" t="s">
+        <v>686</v>
+      </c>
+      <c r="L95" t="s">
+        <v>687</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>688</v>
+      </c>
+      <c r="O95" t="s">
+        <v>66</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>680</v>
+      </c>
+      <c r="X95" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>155</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>690</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>691</v>
+      </c>
+      <c r="J96" t="s">
+        <v>692</v>
+      </c>
+      <c r="K96" t="s">
+        <v>693</v>
+      </c>
+      <c r="L96" t="s">
+        <v>694</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>695</v>
+      </c>
+      <c r="O96" t="s">
+        <v>73</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>696</v>
+      </c>
+      <c r="X96" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>155</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>699</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>700</v>
+      </c>
+      <c r="J97" t="s">
+        <v>701</v>
+      </c>
+      <c r="K97" t="s">
+        <v>702</v>
+      </c>
+      <c r="L97" t="s">
+        <v>703</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>704</v>
+      </c>
+      <c r="O97" t="s">
+        <v>73</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>705</v>
+      </c>
+      <c r="X97" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>155</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>708</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>709</v>
+      </c>
+      <c r="J98" t="s">
+        <v>710</v>
+      </c>
+      <c r="K98" t="s">
+        <v>711</v>
+      </c>
+      <c r="L98" t="s">
+        <v>712</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>704</v>
+      </c>
+      <c r="O98" t="s">
+        <v>66</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>713</v>
+      </c>
+      <c r="X98" t="s">
+        <v>714</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>155</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>716</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>717</v>
+      </c>
+      <c r="J99" t="s">
+        <v>718</v>
+      </c>
+      <c r="K99" t="s">
+        <v>719</v>
+      </c>
+      <c r="L99" t="s">
+        <v>720</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>704</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>721</v>
+      </c>
+      <c r="X99" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>155</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>724</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>725</v>
+      </c>
+      <c r="J100" t="s">
+        <v>726</v>
+      </c>
+      <c r="K100" t="s">
+        <v>727</v>
+      </c>
+      <c r="L100" t="s">
+        <v>728</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>729</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>721</v>
+      </c>
+      <c r="X100" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>155</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>731</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>732</v>
+      </c>
+      <c r="J101" t="s">
+        <v>733</v>
+      </c>
+      <c r="K101" t="s">
+        <v>734</v>
+      </c>
+      <c r="L101" t="s">
+        <v>735</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>729</v>
+      </c>
+      <c r="O101" t="s">
+        <v>66</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>721</v>
+      </c>
+      <c r="X101" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>155</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>737</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>738</v>
+      </c>
+      <c r="J102" t="s">
+        <v>739</v>
+      </c>
+      <c r="K102" t="s">
+        <v>740</v>
+      </c>
+      <c r="L102" t="s">
+        <v>741</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>742</v>
+      </c>
+      <c r="O102" t="s">
+        <v>73</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>743</v>
+      </c>
+      <c r="X102" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>155</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>746</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>747</v>
+      </c>
+      <c r="J103" t="s">
+        <v>748</v>
+      </c>
+      <c r="K103" t="s">
+        <v>749</v>
+      </c>
+      <c r="L103" t="s">
+        <v>750</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>751</v>
+      </c>
+      <c r="O103" t="s">
+        <v>73</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>752</v>
+      </c>
+      <c r="X103" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>155</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>755</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>756</v>
+      </c>
+      <c r="J104" t="s">
+        <v>757</v>
+      </c>
+      <c r="K104" t="s">
+        <v>758</v>
+      </c>
+      <c r="L104" t="s">
+        <v>759</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>751</v>
+      </c>
+      <c r="O104" t="s">
+        <v>66</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>760</v>
+      </c>
+      <c r="X104" t="s">
+        <v>761</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>155</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>763</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>764</v>
+      </c>
+      <c r="J105" t="s">
+        <v>765</v>
+      </c>
+      <c r="K105" t="s">
+        <v>766</v>
+      </c>
+      <c r="L105" t="s">
+        <v>767</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>768</v>
+      </c>
+      <c r="O105" t="s">
+        <v>73</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>769</v>
+      </c>
+      <c r="X105" t="s">
+        <v>770</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>155</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>772</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>773</v>
+      </c>
+      <c r="J106" t="s">
+        <v>774</v>
+      </c>
+      <c r="K106" t="s">
+        <v>775</v>
+      </c>
+      <c r="L106" t="s">
+        <v>776</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s">
+        <v>777</v>
+      </c>
+      <c r="O106" t="s">
+        <v>66</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>769</v>
+      </c>
+      <c r="X106" t="s">
+        <v>770</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>
